--- a/Nextion/EEPROM_settings_N14.xlsx
+++ b/Nextion/EEPROM_settings_N14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadd\RoseEngine\Nextion\RoseEngine_14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B05959E-C04B-4B31-B906-1EACECA83D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A89F732-3C22-47E5-98EC-283E2601FD1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,6 +38,7 @@
     <definedName name="TotalSteps">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="458">
   <si>
     <t>Index</t>
   </si>
@@ -1286,48 +1287,12 @@
     <t>None</t>
   </si>
   <si>
-    <t xml:space="preserve">    repo t4.tBt,826 // B Degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    repo t5.tBt,184 // B Amplitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    repo t4.tBt,216 // B Amplitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    repo t5.tBt,786 // B Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    repo n3.val,204 // B Radial Waves</t>
-  </si>
-  <si>
     <t>Rose: B Radial Amplitude</t>
   </si>
   <si>
     <t>Rose:B Axial Amplitude</t>
   </si>
   <si>
-    <t xml:space="preserve">    repo n3.val,196 // B Axial Waves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rec RadialB Waves </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rec RadialB Degrees </t>
-  </si>
-  <si>
-    <t>Rec  RadialB Amplitude (distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rec AxialB Waves </t>
-  </si>
-  <si>
-    <t>Rec AxialB Amplitude (degrees)</t>
-  </si>
-  <si>
-    <t>Rec AxialB Distance Z</t>
-  </si>
-  <si>
     <t>Greek Key: File pattern count</t>
   </si>
   <si>
@@ -1337,9 +1302,6 @@
     <t xml:space="preserve">Sync: Distance Text </t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
     <t>PageFileList</t>
   </si>
   <si>
@@ -1424,24 +1386,12 @@
     <t xml:space="preserve">Filename_Index3 </t>
   </si>
   <si>
-    <t>Rec Axial Amplitude (degrees)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rec Axial Waves </t>
   </si>
   <si>
     <t xml:space="preserve">Rec Radial Waves </t>
   </si>
   <si>
-    <t xml:space="preserve">Rec Axial Distance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rec Radial Degrees </t>
-  </si>
-  <si>
-    <t>Rec  Radial Amplitude (distance)</t>
-  </si>
-  <si>
     <t>Rec: Run</t>
   </si>
   <si>
@@ -1479,6 +1429,27 @@
   </si>
   <si>
     <t>EEPROM_UsedCount</t>
+  </si>
+  <si>
+    <t>Rec: Axis Radial Amplitude (distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rec: Axis Axial Distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rec Spindle Radial Degrees </t>
+  </si>
+  <si>
+    <t>Rec Spindle Axial Amplitude (degrees)</t>
+  </si>
+  <si>
+    <t>Serial Print Axis Ids (debugging)</t>
+  </si>
+  <si>
+    <t>Show Teensy Speed percentages (Debugging)</t>
+  </si>
+  <si>
+    <t>May be reused</t>
   </si>
 </sst>
 </file>
@@ -1593,12 +1564,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9966FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1636,6 +1601,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,7 +1735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1815,12 +1786,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
@@ -1828,35 +1799,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1865,6 +1832,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF53D2"/>
       <color rgb="FF66FFCC"/>
       <color rgb="FFCC0066"/>
       <color rgb="FFCC66FF"/>
@@ -1872,7 +1840,6 @@
       <color rgb="FF66FFFF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF33CCFF"/>
-      <color rgb="FFFF53D2"/>
       <color rgb="FFCCCC00"/>
       <color rgb="FFFCE4D6"/>
     </mruColors>
@@ -2190,7 +2157,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,10 +2206,10 @@
         <v>400</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>401</v>
@@ -2282,135 +2249,135 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49" t="str">
+      <c r="B3" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47" t="str">
         <f>DEC2HEX(F3)</f>
         <v>2D</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="47">
         <v>45</v>
       </c>
-      <c r="G3" s="49" t="str">
+      <c r="G3" s="47" t="str">
         <f>CHAR(F3)</f>
         <v>-</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49" t="str">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47" t="str">
         <f>DEC2HEX(F4)</f>
         <v>CE</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="47">
         <v>206</v>
       </c>
-      <c r="G4" s="49" t="str">
+      <c r="G4" s="47" t="str">
         <f>CHAR(F4)</f>
         <v>Î</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49" t="str">
+      <c r="B5" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47" t="str">
         <f>DEC2HEX(F5)</f>
         <v>D7</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="47">
         <v>215</v>
       </c>
-      <c r="G5" s="49" t="str">
+      <c r="G5" s="47" t="str">
         <f>CHAR(F5)</f>
         <v>×</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49" t="str">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47" t="str">
         <f>DEC2HEX(F6)</f>
         <v>EC</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="47">
         <v>236</v>
       </c>
-      <c r="G6" s="49" t="str">
+      <c r="G6" s="47" t="str">
         <f>CHAR(F6)</f>
         <v>ì</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49" t="str">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47" t="str">
         <f>DEC2HEX(F7)</f>
         <v>7E</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="47">
         <v>126</v>
       </c>
-      <c r="G7" s="49" t="str">
+      <c r="G7" s="47" t="str">
         <f>CHAR(F7)</f>
         <v>~</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="43">
         <v>32</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="43">
         <v>35</v>
       </c>
-      <c r="E8" s="46" t="str">
+      <c r="E8" s="44" t="str">
         <f>DEC2HEX(F8)</f>
         <v>6F</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="43">
         <v>111</v>
       </c>
-      <c r="G8" s="46" t="str">
+      <c r="G8" s="44" t="str">
         <f>CHAR(F8)</f>
         <v>o</v>
       </c>
-      <c r="H8" s="45"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="4">
         <f>IF(ISBLANK(B8),D8-C8+1,0)</f>
         <v>0</v>
@@ -2421,30 +2388,30 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="43">
         <v>44</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="43">
         <v>47</v>
       </c>
-      <c r="E9" s="46" t="str">
+      <c r="E9" s="44" t="str">
         <f>DEC2HEX(F9)</f>
         <v>6F</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="43">
         <v>111</v>
       </c>
-      <c r="G9" s="46" t="str">
+      <c r="G9" s="44" t="str">
         <f>CHAR(F9)</f>
         <v>o</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="4">
         <f>IF(ISBLANK(B9),D9-C9+1,0)</f>
         <v>0</v>
@@ -2455,30 +2422,30 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="43">
         <v>52</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="43">
         <v>55</v>
       </c>
-      <c r="E10" s="46" t="str">
+      <c r="E10" s="44" t="str">
         <f>DEC2HEX(F10)</f>
         <v>6F</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="43">
         <v>111</v>
       </c>
-      <c r="G10" s="46" t="str">
+      <c r="G10" s="44" t="str">
         <f>CHAR(F10)</f>
         <v>o</v>
       </c>
-      <c r="H10" s="45"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="4">
         <f>IF(ISBLANK(B10),D10-C10+1,0)</f>
         <v>0</v>
@@ -2489,30 +2456,30 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="43">
         <v>100</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="43">
         <v>103</v>
       </c>
-      <c r="E11" s="46" t="str">
+      <c r="E11" s="44" t="str">
         <f>DEC2HEX(F11)</f>
         <v>6E</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="44">
         <v>110</v>
       </c>
-      <c r="G11" s="46" t="str">
+      <c r="G11" s="44" t="str">
         <f>CHAR(F11)</f>
         <v>n</v>
       </c>
-      <c r="H11" s="45"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="4">
         <f>IF(ISBLANK(B11),D11-C11+1,0)</f>
         <v>0</v>
@@ -2794,7 +2761,7 @@
         <v>140</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C20" s="4">
         <v>520</v>
@@ -2827,7 +2794,7 @@
         <v>140</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C21" s="4">
         <v>528</v>
@@ -3122,93 +3089,93 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49" t="str">
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47" t="str">
         <f>DEC2HEX(F30)</f>
         <v>69</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="47">
         <v>105</v>
       </c>
-      <c r="G30" s="49" t="str">
+      <c r="G30" s="47" t="str">
         <f>CHAR(F30)</f>
         <v>i</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49" t="str">
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47" t="str">
         <f>DEC2HEX(F31)</f>
         <v>C9</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="47">
         <v>201</v>
       </c>
-      <c r="G31" s="49" t="str">
+      <c r="G31" s="47" t="str">
         <f>CHAR(F31)</f>
         <v>É</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49" t="str">
+      <c r="B32" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47" t="str">
         <f>DEC2HEX(F32)</f>
         <v>E7</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="47">
         <v>231</v>
       </c>
-      <c r="G32" s="49" t="str">
+      <c r="G32" s="47" t="str">
         <f>CHAR(F32)</f>
         <v>ç</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="43">
         <v>28</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="43">
         <v>31</v>
       </c>
-      <c r="E33" s="46" t="str">
+      <c r="E33" s="44" t="str">
         <f>DEC2HEX(F33)</f>
         <v>6F</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="43">
         <v>111</v>
       </c>
-      <c r="G33" s="46" t="str">
+      <c r="G33" s="44" t="str">
         <f>CHAR(F33)</f>
         <v>o</v>
       </c>
-      <c r="H33" s="45"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="4">
         <f>IF(ISBLANK(B33),D33-C33+1,0)</f>
         <v>0</v>
@@ -3219,30 +3186,30 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="43">
         <v>60</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="43">
         <v>63</v>
       </c>
-      <c r="E34" s="46" t="str">
+      <c r="E34" s="44" t="str">
         <f>DEC2HEX(F34)</f>
         <v>6E</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="44">
         <v>110</v>
       </c>
-      <c r="G34" s="46" t="str">
+      <c r="G34" s="44" t="str">
         <f>CHAR(F34)</f>
         <v>n</v>
       </c>
-      <c r="H34" s="45"/>
+      <c r="H34" s="43"/>
       <c r="I34" s="4">
         <f>IF(ISBLANK(B34),D34-C34+1,0)</f>
         <v>0</v>
@@ -3253,30 +3220,30 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="43">
         <v>64</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="43">
         <v>67</v>
       </c>
-      <c r="E35" s="46" t="str">
+      <c r="E35" s="44" t="str">
         <f>DEC2HEX(F35)</f>
         <v>6F</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="43">
         <v>111</v>
       </c>
-      <c r="G35" s="46" t="str">
+      <c r="G35" s="44" t="str">
         <f>CHAR(F35)</f>
         <v>o</v>
       </c>
-      <c r="H35" s="45"/>
+      <c r="H35" s="43"/>
       <c r="I35" s="4">
         <f>IF(ISBLANK(B35),D35-C35+1,0)</f>
         <v>0</v>
@@ -3287,30 +3254,30 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="43">
         <v>68</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="43">
         <v>71</v>
       </c>
-      <c r="E36" s="46" t="str">
+      <c r="E36" s="44" t="str">
         <f>DEC2HEX(F36)</f>
         <v>6F</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="43">
         <v>111</v>
       </c>
-      <c r="G36" s="46" t="str">
+      <c r="G36" s="44" t="str">
         <f>CHAR(F36)</f>
         <v>o</v>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H36" s="43"/>
       <c r="I36" s="4">
         <f>IF(ISBLANK(B36),D36-C36+1,0)</f>
         <v>0</v>
@@ -3523,7 +3490,7 @@
         <v>96</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C43" s="5">
         <v>752</v>
@@ -3819,51 +3786,51 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49" t="str">
+      <c r="B52" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47" t="str">
         <f>DEC2HEX(F52)</f>
         <v>F7</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="47">
         <v>247</v>
       </c>
-      <c r="G52" s="49" t="str">
+      <c r="G52" s="47" t="str">
         <f>CHAR(F52)</f>
         <v>÷</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="C53" s="44">
+      <c r="B53" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="C53" s="42">
         <v>126</v>
       </c>
-      <c r="D53" s="44">
+      <c r="D53" s="42">
         <v>139</v>
       </c>
-      <c r="E53" s="47" t="str">
+      <c r="E53" s="45" t="str">
         <f>DEC2HEX(F53)</f>
         <v>BE</v>
       </c>
-      <c r="F53" s="47">
+      <c r="F53" s="45">
         <v>190</v>
       </c>
-      <c r="G53" s="47" t="str">
+      <c r="G53" s="45" t="str">
         <f>CHAR(F53)</f>
         <v>¾</v>
       </c>
-      <c r="H53" s="44"/>
+      <c r="H53" s="42"/>
       <c r="I53" s="4">
         <f>IF(ISBLANK(B53),D53-C53+1,0)</f>
         <v>0</v>
@@ -4010,7 +3977,7 @@
         <v>131</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C58" s="5">
         <v>756</v>
@@ -4058,30 +4025,30 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="45" t="s">
+      <c r="A60" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="45">
+      <c r="C60" s="43">
         <v>104</v>
       </c>
-      <c r="D60" s="45">
+      <c r="D60" s="43">
         <v>107</v>
       </c>
-      <c r="E60" s="46" t="str">
+      <c r="E60" s="44" t="str">
         <f>DEC2HEX(F60)</f>
         <v>6E</v>
       </c>
-      <c r="F60" s="46">
+      <c r="F60" s="44">
         <v>110</v>
       </c>
-      <c r="G60" s="46" t="str">
+      <c r="G60" s="44" t="str">
         <f>CHAR(F60)</f>
         <v>n</v>
       </c>
-      <c r="H60" s="45"/>
+      <c r="H60" s="43"/>
       <c r="I60" s="4">
         <f>IF(ISBLANK(B60),D60-C60+1,0)</f>
         <v>0</v>
@@ -4092,30 +4059,30 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="C61" s="44">
+      <c r="A61" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="C61" s="42">
         <v>112</v>
       </c>
-      <c r="D61" s="44">
+      <c r="D61" s="42">
         <v>125</v>
       </c>
-      <c r="E61" s="47" t="str">
+      <c r="E61" s="45" t="str">
         <f>DEC2HEX(F61)</f>
         <v>BE</v>
       </c>
-      <c r="F61" s="47">
+      <c r="F61" s="45">
         <v>190</v>
       </c>
-      <c r="G61" s="47" t="str">
+      <c r="G61" s="45" t="str">
         <f>CHAR(F61)</f>
         <v>¾</v>
       </c>
-      <c r="H61" s="44"/>
+      <c r="H61" s="42"/>
       <c r="I61" s="4">
         <f>IF(ISBLANK(B61),D61-C61+1,0)</f>
         <v>0</v>
@@ -4461,16 +4428,16 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="C72" s="47">
+      <c r="A72" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="C72" s="45">
         <v>712</v>
       </c>
-      <c r="D72" s="47">
+      <c r="D72" s="45">
         <v>725</v>
       </c>
       <c r="I72" s="4">
@@ -4483,16 +4450,16 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="C73" s="44">
+      <c r="A73" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="C73" s="42">
         <v>726</v>
       </c>
-      <c r="D73" s="44">
+      <c r="D73" s="42">
         <v>739</v>
       </c>
       <c r="I73" s="4">
@@ -4571,43 +4538,43 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="48" t="s">
+      <c r="A76" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="49" t="str">
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="47" t="str">
         <f>DEC2HEX(F76)</f>
         <v>51</v>
       </c>
-      <c r="F76" s="49">
+      <c r="F76" s="47">
         <v>81</v>
       </c>
-      <c r="G76" s="49" t="str">
+      <c r="G76" s="47" t="str">
         <f>CHAR(F76)</f>
         <v>Q</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="48" t="s">
+      <c r="A77" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49" t="str">
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="47" t="str">
         <f>DEC2HEX(F77)</f>
         <v>52</v>
       </c>
-      <c r="F77" s="49">
+      <c r="F77" s="47">
         <v>82</v>
       </c>
-      <c r="G77" s="49" t="str">
+      <c r="G77" s="47" t="str">
         <f>CHAR(F77)</f>
         <v>R</v>
       </c>
@@ -4811,51 +4778,51 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="B84" s="48" t="s">
+      <c r="B84" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="49" t="str">
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="47" t="str">
         <f>DEC2HEX(F84)</f>
         <v>A3</v>
       </c>
-      <c r="F84" s="49">
+      <c r="F84" s="47">
         <v>163</v>
       </c>
-      <c r="G84" s="49" t="str">
+      <c r="G84" s="47" t="str">
         <f>CHAR(F84)</f>
         <v>£</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C85" s="45">
-        <v>0</v>
-      </c>
-      <c r="D85" s="45">
+      <c r="C85" s="43">
+        <v>0</v>
+      </c>
+      <c r="D85" s="43">
         <v>3</v>
       </c>
-      <c r="E85" s="46" t="str">
+      <c r="E85" s="44" t="str">
         <f>DEC2HEX(F85)</f>
         <v>6E</v>
       </c>
-      <c r="F85" s="46">
+      <c r="F85" s="44">
         <v>110</v>
       </c>
-      <c r="G85" s="46" t="str">
+      <c r="G85" s="44" t="str">
         <f>CHAR(F85)</f>
         <v>n</v>
       </c>
-      <c r="H85" s="45"/>
+      <c r="H85" s="43"/>
       <c r="I85" s="4">
         <f>IF(ISBLANK(B85),D85-C85+1,0)</f>
         <v>0</v>
@@ -4878,30 +4845,30 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="C86" s="45">
+      <c r="C86" s="43">
         <v>8</v>
       </c>
-      <c r="D86" s="45">
+      <c r="D86" s="43">
         <v>11</v>
       </c>
-      <c r="E86" s="46" t="str">
+      <c r="E86" s="44" t="str">
         <f>DEC2HEX(F86)</f>
         <v>6F</v>
       </c>
-      <c r="F86" s="45">
+      <c r="F86" s="43">
         <v>111</v>
       </c>
-      <c r="G86" s="46" t="str">
+      <c r="G86" s="44" t="str">
         <f>CHAR(F86)</f>
         <v>o</v>
       </c>
-      <c r="H86" s="45"/>
+      <c r="H86" s="43"/>
       <c r="I86" s="4">
         <f>IF(ISBLANK(B86),D86-C86+1,0)</f>
         <v>0</v>
@@ -4912,30 +4879,30 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="45" t="s">
+      <c r="A87" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="C87" s="45">
+      <c r="C87" s="43">
         <v>12</v>
       </c>
-      <c r="D87" s="45">
+      <c r="D87" s="43">
         <v>15</v>
       </c>
-      <c r="E87" s="46" t="str">
+      <c r="E87" s="44" t="str">
         <f>DEC2HEX(F87)</f>
         <v>6F</v>
       </c>
-      <c r="F87" s="45">
+      <c r="F87" s="43">
         <v>111</v>
       </c>
-      <c r="G87" s="46" t="str">
+      <c r="G87" s="44" t="str">
         <f>CHAR(F87)</f>
         <v>o</v>
       </c>
-      <c r="H87" s="45"/>
+      <c r="H87" s="43"/>
       <c r="I87" s="4">
         <f>IF(ISBLANK(B87),D87-C87+1,0)</f>
         <v>0</v>
@@ -4946,30 +4913,30 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C88" s="45">
+      <c r="C88" s="43">
         <v>16</v>
       </c>
-      <c r="D88" s="45">
+      <c r="D88" s="43">
         <v>19</v>
       </c>
-      <c r="E88" s="46" t="str">
+      <c r="E88" s="44" t="str">
         <f>DEC2HEX(F88)</f>
         <v>6F</v>
       </c>
-      <c r="F88" s="45">
+      <c r="F88" s="43">
         <v>111</v>
       </c>
-      <c r="G88" s="46" t="str">
+      <c r="G88" s="44" t="str">
         <f>CHAR(F88)</f>
         <v>o</v>
       </c>
-      <c r="H88" s="45"/>
+      <c r="H88" s="43"/>
       <c r="I88" s="4">
         <f>IF(ISBLANK(B88),D88-C88+1,0)</f>
         <v>0</v>
@@ -5049,10 +5016,10 @@
       <c r="A91" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="C91" s="53">
+      <c r="C91" s="51">
         <v>912</v>
       </c>
       <c r="D91" s="33">
@@ -5115,10 +5082,10 @@
       <c r="A93" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C93" s="53">
+      <c r="C93" s="51">
         <v>972</v>
       </c>
       <c r="D93" s="33">
@@ -5181,10 +5148,10 @@
       <c r="A95" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="53" t="s">
+      <c r="B95" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="53">
+      <c r="C95" s="51">
         <v>1004</v>
       </c>
       <c r="D95" s="33">
@@ -5247,10 +5214,10 @@
       <c r="A97" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="53" t="s">
+      <c r="B97" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C97" s="53">
+      <c r="C97" s="51">
         <v>1020</v>
       </c>
       <c r="D97" s="33">
@@ -5277,232 +5244,232 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B98" s="48" t="s">
+      <c r="B98" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="49" t="str">
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="47" t="str">
         <f>DEC2HEX(F98)</f>
         <v>43</v>
       </c>
-      <c r="F98" s="49">
+      <c r="F98" s="47">
         <v>67</v>
       </c>
-      <c r="G98" s="49" t="str">
+      <c r="G98" s="47" t="str">
         <f>CHAR(F98)</f>
         <v>C</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="48" t="s">
+      <c r="A99" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="48" t="s">
+      <c r="B99" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="49" t="str">
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="47" t="str">
         <f>DEC2HEX(F99)</f>
         <v>5A</v>
       </c>
-      <c r="F99" s="49">
+      <c r="F99" s="47">
         <v>90</v>
       </c>
-      <c r="G99" s="49" t="str">
+      <c r="G99" s="47" t="str">
         <f>CHAR(F99)</f>
         <v>Z</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="48" t="s">
+      <c r="A100" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="48" t="s">
+      <c r="B100" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="49" t="str">
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="47" t="str">
         <f>DEC2HEX(F100)</f>
         <v>5B</v>
       </c>
-      <c r="F100" s="49">
+      <c r="F100" s="47">
         <v>91</v>
       </c>
-      <c r="G100" s="49" t="str">
+      <c r="G100" s="47" t="str">
         <f>CHAR(F100)</f>
         <v>[</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="49" t="str">
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="47" t="str">
         <f>DEC2HEX(F101)</f>
         <v>63</v>
       </c>
-      <c r="F101" s="49">
+      <c r="F101" s="47">
         <v>99</v>
       </c>
-      <c r="G101" s="49" t="str">
+      <c r="G101" s="47" t="str">
         <f>CHAR(F101)</f>
         <v>c</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="48" t="s">
+      <c r="B102" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="49" t="str">
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="47" t="str">
         <f>DEC2HEX(F102)</f>
         <v>6B</v>
       </c>
-      <c r="F102" s="49">
+      <c r="F102" s="47">
         <v>107</v>
       </c>
-      <c r="G102" s="49" t="str">
+      <c r="G102" s="47" t="str">
         <f>CHAR(F102)</f>
         <v>k</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="48" t="s">
+      <c r="A103" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B103" s="48" t="s">
+      <c r="B103" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="49" t="str">
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="47" t="str">
         <f>DEC2HEX(F103)</f>
         <v>6C</v>
       </c>
-      <c r="F103" s="49">
+      <c r="F103" s="47">
         <v>108</v>
       </c>
-      <c r="G103" s="49" t="str">
+      <c r="G103" s="47" t="str">
         <f>CHAR(F103)</f>
         <v>l</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B104" s="48" t="s">
+      <c r="B104" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="49" t="str">
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="47" t="str">
         <f>DEC2HEX(F104)</f>
         <v>A5</v>
       </c>
-      <c r="F104" s="49">
+      <c r="F104" s="47">
         <v>165</v>
       </c>
-      <c r="G104" s="49" t="str">
+      <c r="G104" s="47" t="str">
         <f>CHAR(F104)</f>
         <v>¥</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="48" t="s">
+      <c r="A105" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B105" s="48" t="s">
+      <c r="B105" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="49" t="str">
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="47" t="str">
         <f>DEC2HEX(F105)</f>
         <v>A6</v>
       </c>
-      <c r="F105" s="49">
+      <c r="F105" s="47">
         <v>166</v>
       </c>
-      <c r="G105" s="49" t="str">
+      <c r="G105" s="47" t="str">
         <f>CHAR(F105)</f>
         <v>¦</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="49" t="str">
+      <c r="B106" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="47" t="str">
         <f>DEC2HEX(F106)</f>
         <v>AB</v>
       </c>
-      <c r="F106" s="49">
+      <c r="F106" s="47">
         <v>171</v>
       </c>
-      <c r="G106" s="49" t="str">
+      <c r="G106" s="47" t="str">
         <f>CHAR(F106)</f>
         <v>«</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="48" t="s">
+      <c r="A107" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B107" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="49" t="str">
+      <c r="B107" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="47" t="str">
         <f>DEC2HEX(F107)</f>
         <v>AC</v>
       </c>
-      <c r="F107" s="49">
+      <c r="F107" s="47">
         <v>172</v>
       </c>
-      <c r="G107" s="49" t="str">
+      <c r="G107" s="47" t="str">
         <f>CHAR(F107)</f>
         <v>¬</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="48" t="s">
+      <c r="A108" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B108" s="48" t="s">
+      <c r="B108" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="49" t="str">
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="47" t="str">
         <f>DEC2HEX(F108)</f>
         <v>58</v>
       </c>
-      <c r="F108" s="49">
+      <c r="F108" s="47">
         <v>88</v>
       </c>
-      <c r="G108" s="49" t="str">
+      <c r="G108" s="47" t="str">
         <f>CHAR(F108)</f>
         <v>X</v>
       </c>
@@ -5531,64 +5498,49 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="45" t="s">
+      <c r="A110" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E110" s="5" t="str">
+        <f>DEC2HEX(F110)</f>
+        <v>7C</v>
+      </c>
+      <c r="F110" s="5">
+        <v>124</v>
+      </c>
+      <c r="G110" s="5" t="str">
+        <f>CHAR(F110)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B111" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C110" s="45">
+      <c r="C111" s="43">
         <v>36</v>
       </c>
-      <c r="D110" s="45">
+      <c r="D111" s="43">
         <v>39</v>
       </c>
-      <c r="E110" s="46" t="str">
-        <f>DEC2HEX(F110)</f>
-        <v>6F</v>
-      </c>
-      <c r="F110" s="45">
-        <v>111</v>
-      </c>
-      <c r="G110" s="46" t="str">
-        <f>CHAR(F110)</f>
-        <v>o</v>
-      </c>
-      <c r="H110" s="45"/>
-      <c r="I110" s="4">
-        <f>IF(ISBLANK(B110),D110-C110+1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="4">
-        <f>IF(ISBLANK(B110),0,D110-C110+1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="B111" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="C111" s="45">
-        <v>40</v>
-      </c>
-      <c r="D111" s="45">
-        <v>43</v>
-      </c>
-      <c r="E111" s="46" t="str">
+      <c r="E111" s="44" t="str">
         <f>DEC2HEX(F111)</f>
         <v>6F</v>
       </c>
-      <c r="F111" s="45">
+      <c r="F111" s="43">
         <v>111</v>
       </c>
-      <c r="G111" s="46" t="str">
+      <c r="G111" s="44" t="str">
         <f>CHAR(F111)</f>
         <v>o</v>
       </c>
-      <c r="H111" s="45"/>
+      <c r="H111" s="43"/>
       <c r="I111" s="4">
         <f>IF(ISBLANK(B111),D111-C111+1,0)</f>
         <v>0</v>
@@ -5599,30 +5551,30 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="45" t="s">
+      <c r="A112" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="B112" s="45" t="s">
-        <v>375</v>
-      </c>
-      <c r="C112" s="45">
-        <v>92</v>
-      </c>
-      <c r="D112" s="45">
-        <v>95</v>
-      </c>
-      <c r="E112" s="46" t="str">
+      <c r="B112" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" s="43">
+        <v>40</v>
+      </c>
+      <c r="D112" s="43">
+        <v>43</v>
+      </c>
+      <c r="E112" s="44" t="str">
         <f>DEC2HEX(F112)</f>
         <v>6F</v>
       </c>
-      <c r="F112" s="45">
+      <c r="F112" s="43">
         <v>111</v>
       </c>
-      <c r="G112" s="46" t="str">
+      <c r="G112" s="44" t="str">
         <f>CHAR(F112)</f>
         <v>o</v>
       </c>
-      <c r="H112" s="45"/>
+      <c r="H112" s="43"/>
       <c r="I112" s="4">
         <f>IF(ISBLANK(B112),D112-C112+1,0)</f>
         <v>0</v>
@@ -5633,36 +5585,37 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C113" s="4">
-        <v>168</v>
-      </c>
-      <c r="D113" s="4">
-        <v>175</v>
-      </c>
-      <c r="E113" s="5" t="str">
+      <c r="B113" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="C113" s="43">
+        <v>92</v>
+      </c>
+      <c r="D113" s="43">
+        <v>95</v>
+      </c>
+      <c r="E113" s="44" t="str">
         <f>DEC2HEX(F113)</f>
-        <v>B5</v>
-      </c>
-      <c r="F113" s="5">
-        <v>181</v>
-      </c>
-      <c r="G113" s="5" t="str">
+        <v>6F</v>
+      </c>
+      <c r="F113" s="43">
+        <v>111</v>
+      </c>
+      <c r="G113" s="44" t="str">
         <f>CHAR(F113)</f>
-        <v>µ</v>
-      </c>
+        <v>o</v>
+      </c>
+      <c r="H113" s="43"/>
       <c r="I113" s="4">
         <f>IF(ISBLANK(B113),D113-C113+1,0)</f>
         <v>0</v>
       </c>
       <c r="J113" s="4">
         <f>IF(ISBLANK(B113),0,D113-C113+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5670,13 +5623,13 @@
         <v>186</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C114" s="4">
-        <v>340</v>
+        <v>168</v>
       </c>
       <c r="D114" s="4">
-        <v>347</v>
+        <v>175</v>
       </c>
       <c r="E114" s="5" t="str">
         <f>DEC2HEX(F114)</f>
@@ -5703,13 +5656,24 @@
         <v>186</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C115" s="5">
         <v>416</v>
       </c>
-      <c r="D115" s="5">
-        <v>419</v>
+      <c r="C115" s="4">
+        <v>340</v>
+      </c>
+      <c r="D115" s="4">
+        <v>347</v>
+      </c>
+      <c r="E115" s="5" t="str">
+        <f>DEC2HEX(F115)</f>
+        <v>B5</v>
+      </c>
+      <c r="F115" s="5">
+        <v>181</v>
+      </c>
+      <c r="G115" s="5" t="str">
+        <f>CHAR(F115)</f>
+        <v>µ</v>
       </c>
       <c r="I115" s="4">
         <f>IF(ISBLANK(B115),D115-C115+1,0)</f>
@@ -5717,7 +5681,7 @@
       </c>
       <c r="J115" s="4">
         <f>IF(ISBLANK(B115),0,D115-C115+1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5725,13 +5689,13 @@
         <v>186</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>174</v>
+        <v>377</v>
       </c>
       <c r="C116" s="5">
-        <v>444</v>
-      </c>
-      <c r="D116" s="4">
-        <v>451</v>
+        <v>416</v>
+      </c>
+      <c r="D116" s="5">
+        <v>419</v>
       </c>
       <c r="I116" s="4">
         <f>IF(ISBLANK(B116),D116-C116+1,0)</f>
@@ -5739,7 +5703,7 @@
       </c>
       <c r="J116" s="4">
         <f>IF(ISBLANK(B116),0,D116-C116+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5747,26 +5711,13 @@
         <v>186</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C117" s="4">
-        <v>456</v>
+        <v>174</v>
+      </c>
+      <c r="C117" s="5">
+        <v>444</v>
       </c>
       <c r="D117" s="4">
-        <v>459</v>
-      </c>
-      <c r="E117" s="5" t="str">
-        <f>DEC2HEX(F117)</f>
-        <v>6D</v>
-      </c>
-      <c r="F117" s="5">
-        <v>109</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>161</v>
+        <v>451</v>
       </c>
       <c r="I117" s="4">
         <f>IF(ISBLANK(B117),D117-C117+1,0)</f>
@@ -5774,7 +5725,7 @@
       </c>
       <c r="J117" s="4">
         <f>IF(ISBLANK(B117),0,D117-C117+1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -5782,13 +5733,26 @@
         <v>186</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>175</v>
+        <v>412</v>
       </c>
       <c r="C118" s="4">
-        <v>600</v>
+        <v>456</v>
       </c>
       <c r="D118" s="4">
-        <v>603</v>
+        <v>459</v>
+      </c>
+      <c r="E118" s="5" t="str">
+        <f>DEC2HEX(F118)</f>
+        <v>6D</v>
+      </c>
+      <c r="F118" s="5">
+        <v>109</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="I118" s="4">
         <f>IF(ISBLANK(B118),D118-C118+1,0)</f>
@@ -5804,13 +5768,13 @@
         <v>186</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C119" s="4">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D119" s="4">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I119" s="4">
         <f>IF(ISBLANK(B119),D119-C119+1,0)</f>
@@ -5826,24 +5790,13 @@
         <v>186</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C120" s="5">
-        <v>668</v>
-      </c>
-      <c r="D120" s="5">
-        <v>675</v>
-      </c>
-      <c r="E120" s="5" t="str">
-        <f>DEC2HEX(F120)</f>
-        <v>B5</v>
-      </c>
-      <c r="F120" s="5">
-        <v>181</v>
-      </c>
-      <c r="G120" s="5" t="str">
-        <f>CHAR(F120)</f>
-        <v>µ</v>
+        <v>176</v>
+      </c>
+      <c r="C120" s="4">
+        <v>604</v>
+      </c>
+      <c r="D120" s="4">
+        <v>607</v>
       </c>
       <c r="I120" s="4">
         <f>IF(ISBLANK(B120),D120-C120+1,0)</f>
@@ -5851,32 +5804,32 @@
       </c>
       <c r="J120" s="4">
         <f>IF(ISBLANK(B120),0,D120-C120+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="33" t="s">
+      <c r="A121" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B121" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C121" s="33">
-        <v>888</v>
-      </c>
-      <c r="D121" s="33">
-        <v>891</v>
-      </c>
-      <c r="E121" s="34" t="str">
+      <c r="B121" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C121" s="5">
+        <v>668</v>
+      </c>
+      <c r="D121" s="5">
+        <v>675</v>
+      </c>
+      <c r="E121" s="5" t="str">
         <f>DEC2HEX(F121)</f>
-        <v>B9</v>
-      </c>
-      <c r="F121" s="34">
-        <v>185</v>
-      </c>
-      <c r="G121" s="34" t="str">
+        <v>B5</v>
+      </c>
+      <c r="F121" s="5">
+        <v>181</v>
+      </c>
+      <c r="G121" s="5" t="str">
         <f>CHAR(F121)</f>
-        <v>¹</v>
+        <v>µ</v>
       </c>
       <c r="I121" s="4">
         <f>IF(ISBLANK(B121),D121-C121+1,0)</f>
@@ -5884,7 +5837,7 @@
       </c>
       <c r="J121" s="4">
         <f>IF(ISBLANK(B121),0,D121-C121+1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -5892,24 +5845,24 @@
         <v>186</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C122" s="33">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D122" s="33">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E122" s="34" t="str">
         <f>DEC2HEX(F122)</f>
-        <v>BA</v>
+        <v>B9</v>
       </c>
       <c r="F122" s="34">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G122" s="34" t="str">
         <f>CHAR(F122)</f>
-        <v>º</v>
+        <v>¹</v>
       </c>
       <c r="I122" s="4">
         <f>IF(ISBLANK(B122),D122-C122+1,0)</f>
@@ -5925,24 +5878,24 @@
         <v>186</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="C123" s="33">
-        <v>968</v>
+        <v>892</v>
       </c>
       <c r="D123" s="33">
-        <v>971</v>
+        <v>895</v>
       </c>
       <c r="E123" s="34" t="str">
         <f>DEC2HEX(F123)</f>
-        <v>B9</v>
+        <v>BA</v>
       </c>
       <c r="F123" s="34">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G123" s="34" t="str">
         <f>CHAR(F123)</f>
-        <v>¹</v>
+        <v>º</v>
       </c>
       <c r="I123" s="4">
         <f>IF(ISBLANK(B123),D123-C123+1,0)</f>
@@ -5958,24 +5911,24 @@
         <v>186</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C124" s="33">
-        <v>988</v>
+        <v>968</v>
       </c>
       <c r="D124" s="33">
-        <v>991</v>
+        <v>971</v>
       </c>
       <c r="E124" s="34" t="str">
         <f>DEC2HEX(F124)</f>
-        <v>BA</v>
+        <v>B9</v>
       </c>
       <c r="F124" s="34">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G124" s="34" t="str">
         <f>CHAR(F124)</f>
-        <v>º</v>
+        <v>¹</v>
       </c>
       <c r="I124" s="4">
         <f>IF(ISBLANK(B124),D124-C124+1,0)</f>
@@ -5991,24 +5944,24 @@
         <v>186</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C125" s="33">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="D125" s="33">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="E125" s="34" t="str">
         <f>DEC2HEX(F125)</f>
-        <v>B9</v>
+        <v>BA</v>
       </c>
       <c r="F125" s="34">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G125" s="34" t="str">
         <f>CHAR(F125)</f>
-        <v>¹</v>
+        <v>º</v>
       </c>
       <c r="I125" s="4">
         <f>IF(ISBLANK(B125),D125-C125+1,0)</f>
@@ -6024,24 +5977,24 @@
         <v>186</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C126" s="33">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="D126" s="33">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="E126" s="34" t="str">
         <f>DEC2HEX(F126)</f>
-        <v>BA</v>
+        <v>B9</v>
       </c>
       <c r="F126" s="34">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G126" s="34" t="str">
         <f>CHAR(F126)</f>
-        <v>º</v>
+        <v>¹</v>
       </c>
       <c r="I126" s="4">
         <f>IF(ISBLANK(B126),D126-C126+1,0)</f>
@@ -6053,130 +6006,129 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="48" t="s">
+      <c r="A127" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B127" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="C127" s="48"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="49" t="str">
+      <c r="B127" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" s="33">
+        <v>1012</v>
+      </c>
+      <c r="D127" s="33">
+        <v>1015</v>
+      </c>
+      <c r="E127" s="34" t="str">
         <f>DEC2HEX(F127)</f>
+        <v>BA</v>
+      </c>
+      <c r="F127" s="34">
+        <v>186</v>
+      </c>
+      <c r="G127" s="34" t="str">
+        <f>CHAR(F127)</f>
+        <v>º</v>
+      </c>
+      <c r="I127" s="4">
+        <f>IF(ISBLANK(B127),D127-C127+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="4">
+        <f>IF(ISBLANK(B127),0,D127-C127+1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B128" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="47" t="str">
+        <f>DEC2HEX(F128)</f>
         <v>B7</v>
       </c>
-      <c r="F127" s="49">
+      <c r="F128" s="47">
         <v>183</v>
       </c>
-      <c r="G127" s="49" t="str">
-        <f>CHAR(F127)</f>
+      <c r="G128" s="47" t="str">
+        <f>CHAR(F128)</f>
         <v>·</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="48" t="s">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="B128" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="C128" s="48"/>
-      <c r="D128" s="48"/>
-      <c r="E128" s="49" t="str">
-        <f>DEC2HEX(F128)</f>
+      <c r="B129" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="47" t="str">
+        <f>DEC2HEX(F129)</f>
         <v>B8</v>
       </c>
-      <c r="F128" s="49">
+      <c r="F129" s="47">
         <v>184</v>
       </c>
-      <c r="G128" s="49" t="str">
-        <f>CHAR(F128)</f>
+      <c r="G129" s="47" t="str">
+        <f>CHAR(F129)</f>
         <v>¸</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="48" t="s">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="B129" s="48" t="s">
+      <c r="B130" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C129" s="48"/>
-      <c r="D129" s="48"/>
-      <c r="E129" s="49" t="str">
-        <f>DEC2HEX(F129)</f>
+      <c r="C130" s="46"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="47" t="str">
+        <f>DEC2HEX(F130)</f>
         <v>ED</v>
       </c>
-      <c r="F129" s="49">
+      <c r="F130" s="47">
         <v>237</v>
       </c>
-      <c r="G129" s="49" t="str">
-        <f>CHAR(F129)</f>
+      <c r="G130" s="47" t="str">
+        <f>CHAR(F130)</f>
         <v>í</v>
       </c>
-      <c r="H129" s="4" t="s">
+      <c r="H130" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="45" t="s">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B130" s="45" t="s">
+      <c r="B131" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="45">
+      <c r="C131" s="43">
         <v>20</v>
       </c>
-      <c r="D130" s="45">
+      <c r="D131" s="43">
         <v>23</v>
       </c>
-      <c r="E130" s="46" t="str">
-        <f>DEC2HEX(F130)</f>
-        <v>66</v>
-      </c>
-      <c r="F130" s="46">
-        <v>102</v>
-      </c>
-      <c r="G130" s="46" t="str">
-        <f>CHAR(F130)</f>
-        <v>f</v>
-      </c>
-      <c r="H130" s="45"/>
-      <c r="I130" s="4">
-        <f>IF(ISBLANK(B130),D130-C130+1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J130" s="4">
-        <f>IF(ISBLANK(B130),0,D130-C130+1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B131" s="45" t="s">
-        <v>361</v>
-      </c>
-      <c r="C131" s="45">
-        <v>56</v>
-      </c>
-      <c r="D131" s="45">
-        <v>59</v>
-      </c>
-      <c r="E131" s="46" t="str">
+      <c r="E131" s="44" t="str">
         <f>DEC2HEX(F131)</f>
         <v>66</v>
       </c>
-      <c r="F131" s="46">
+      <c r="F131" s="44">
         <v>102</v>
       </c>
-      <c r="G131" s="46" t="str">
+      <c r="G131" s="44" t="str">
         <f>CHAR(F131)</f>
         <v>f</v>
       </c>
-      <c r="H131" s="45"/>
+      <c r="H131" s="43"/>
       <c r="I131" s="4">
         <f>IF(ISBLANK(B131),D131-C131+1,0)</f>
         <v>0</v>
@@ -6187,30 +6139,30 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="45" t="s">
+      <c r="A132" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B132" s="45" t="s">
-        <v>363</v>
-      </c>
-      <c r="C132" s="45">
-        <v>84</v>
-      </c>
-      <c r="D132" s="45">
-        <v>87</v>
-      </c>
-      <c r="E132" s="46" t="str">
+      <c r="B132" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C132" s="43">
+        <v>56</v>
+      </c>
+      <c r="D132" s="43">
+        <v>59</v>
+      </c>
+      <c r="E132" s="44" t="str">
         <f>DEC2HEX(F132)</f>
         <v>66</v>
       </c>
-      <c r="F132" s="46">
+      <c r="F132" s="44">
         <v>102</v>
       </c>
-      <c r="G132" s="46" t="str">
+      <c r="G132" s="44" t="str">
         <f>CHAR(F132)</f>
         <v>f</v>
       </c>
-      <c r="H132" s="45"/>
+      <c r="H132" s="43"/>
       <c r="I132" s="4">
         <f>IF(ISBLANK(B132),D132-C132+1,0)</f>
         <v>0</v>
@@ -6221,30 +6173,30 @@
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="45" t="s">
+      <c r="A133" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B133" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="C133" s="45">
-        <v>108</v>
-      </c>
-      <c r="D133" s="46">
-        <v>111</v>
-      </c>
-      <c r="E133" s="46" t="str">
+      <c r="B133" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C133" s="43">
+        <v>84</v>
+      </c>
+      <c r="D133" s="43">
+        <v>87</v>
+      </c>
+      <c r="E133" s="44" t="str">
         <f>DEC2HEX(F133)</f>
         <v>66</v>
       </c>
-      <c r="F133" s="46">
+      <c r="F133" s="44">
         <v>102</v>
       </c>
-      <c r="G133" s="46" t="str">
+      <c r="G133" s="44" t="str">
         <f>CHAR(F133)</f>
         <v>f</v>
       </c>
-      <c r="H133" s="45"/>
+      <c r="H133" s="43"/>
       <c r="I133" s="4">
         <f>IF(ISBLANK(B133),D133-C133+1,0)</f>
         <v>0</v>
@@ -6255,29 +6207,30 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C134" s="4">
-        <v>472</v>
-      </c>
-      <c r="D134" s="4">
-        <v>475</v>
-      </c>
-      <c r="E134" s="5" t="str">
+      <c r="B134" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="C134" s="43">
+        <v>108</v>
+      </c>
+      <c r="D134" s="44">
+        <v>111</v>
+      </c>
+      <c r="E134" s="44" t="str">
         <f>DEC2HEX(F134)</f>
-        <v>D0</v>
-      </c>
-      <c r="F134" s="5">
-        <v>208</v>
-      </c>
-      <c r="G134" s="5" t="str">
+        <v>66</v>
+      </c>
+      <c r="F134" s="44">
+        <v>102</v>
+      </c>
+      <c r="G134" s="44" t="str">
         <f>CHAR(F134)</f>
-        <v>Ð</v>
-      </c>
+        <v>f</v>
+      </c>
+      <c r="H134" s="43"/>
       <c r="I134" s="4">
         <f>IF(ISBLANK(B134),D134-C134+1,0)</f>
         <v>0</v>
@@ -6288,28 +6241,28 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B135" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C135" s="33">
-        <v>792</v>
-      </c>
-      <c r="D135" s="33">
-        <v>795</v>
-      </c>
-      <c r="E135" s="34" t="str">
+      <c r="B135" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C135" s="4">
+        <v>472</v>
+      </c>
+      <c r="D135" s="4">
+        <v>475</v>
+      </c>
+      <c r="E135" s="5" t="str">
         <f>DEC2HEX(F135)</f>
-        <v>3B</v>
-      </c>
-      <c r="F135" s="34">
-        <v>59</v>
-      </c>
-      <c r="G135" s="34" t="str">
+        <v>D0</v>
+      </c>
+      <c r="F135" s="5">
+        <v>208</v>
+      </c>
+      <c r="G135" s="5" t="str">
         <f>CHAR(F135)</f>
-        <v>;</v>
+        <v>Ð</v>
       </c>
       <c r="I135" s="4">
         <f>IF(ISBLANK(B135),D135-C135+1,0)</f>
@@ -6325,13 +6278,13 @@
         <v>126</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>362</v>
+        <v>125</v>
       </c>
       <c r="C136" s="33">
-        <v>836</v>
+        <v>792</v>
       </c>
       <c r="D136" s="33">
-        <v>839</v>
+        <v>795</v>
       </c>
       <c r="E136" s="34" t="str">
         <f>DEC2HEX(F136)</f>
@@ -6358,24 +6311,24 @@
         <v>126</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="C137" s="33">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D137" s="33">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="E137" s="34" t="str">
         <f>DEC2HEX(F137)</f>
-        <v>3A</v>
+        <v>3B</v>
       </c>
       <c r="F137" s="34">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G137" s="34" t="str">
         <f>CHAR(F137)</f>
-        <v>:</v>
+        <v>;</v>
       </c>
       <c r="I137" s="4">
         <f>IF(ISBLANK(B137),D137-C137+1,0)</f>
@@ -6391,13 +6344,13 @@
         <v>126</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C138" s="33">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D138" s="33">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E138" s="34" t="str">
         <f>DEC2HEX(F138)</f>
@@ -6418,32 +6371,30 @@
         <f>IF(ISBLANK(B138),0,D138-C138+1)</f>
         <v>4</v>
       </c>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="33" t="s">
         <v>126</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="C139" s="33">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D139" s="33">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E139" s="34" t="str">
         <f>DEC2HEX(F139)</f>
-        <v>3B</v>
+        <v>3A</v>
       </c>
       <c r="F139" s="34">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G139" s="34" t="str">
         <f>CHAR(F139)</f>
-        <v>;</v>
+        <v>:</v>
       </c>
       <c r="I139" s="4">
         <f>IF(ISBLANK(B139),D139-C139+1,0)</f>
@@ -6453,30 +6404,32 @@
         <f>IF(ISBLANK(B139),0,D139-C139+1)</f>
         <v>4</v>
       </c>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="33" t="s">
         <v>126</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>184</v>
+        <v>360</v>
       </c>
       <c r="C140" s="33">
-        <v>900</v>
+        <v>848</v>
       </c>
       <c r="D140" s="33">
-        <v>903</v>
+        <v>851</v>
       </c>
       <c r="E140" s="34" t="str">
         <f>DEC2HEX(F140)</f>
-        <v>3A</v>
+        <v>3B</v>
       </c>
       <c r="F140" s="34">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G140" s="34" t="str">
         <f>CHAR(F140)</f>
-        <v>:</v>
+        <v>;</v>
       </c>
       <c r="I140" s="4">
         <f>IF(ISBLANK(B140),D140-C140+1,0)</f>
@@ -6492,24 +6445,24 @@
         <v>126</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C141" s="33">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="D141" s="33">
-        <v>943</v>
+        <v>903</v>
       </c>
       <c r="E141" s="34" t="str">
         <f>DEC2HEX(F141)</f>
-        <v>3B</v>
+        <v>3A</v>
       </c>
       <c r="F141" s="34">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G141" s="34" t="str">
         <f>CHAR(F141)</f>
-        <v>;</v>
+        <v>:</v>
       </c>
       <c r="I141" s="4">
         <f>IF(ISBLANK(B141),D141-C141+1,0)</f>
@@ -6525,24 +6478,24 @@
         <v>126</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="C142" s="33">
-        <v>984</v>
+        <v>940</v>
       </c>
       <c r="D142" s="33">
-        <v>987</v>
+        <v>943</v>
       </c>
       <c r="E142" s="34" t="str">
         <f>DEC2HEX(F142)</f>
-        <v>3A</v>
+        <v>3B</v>
       </c>
       <c r="F142" s="34">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G142" s="34" t="str">
         <f>CHAR(F142)</f>
-        <v>:</v>
+        <v>;</v>
       </c>
       <c r="I142" s="4">
         <f>IF(ISBLANK(B142),D142-C142+1,0)</f>
@@ -6554,233 +6507,232 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="48" t="s">
+      <c r="A143" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B143" s="48" t="s">
+      <c r="B143" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" s="33">
+        <v>984</v>
+      </c>
+      <c r="D143" s="33">
+        <v>987</v>
+      </c>
+      <c r="E143" s="34" t="str">
+        <f>DEC2HEX(F143)</f>
+        <v>3A</v>
+      </c>
+      <c r="F143" s="34">
+        <v>58</v>
+      </c>
+      <c r="G143" s="34" t="str">
+        <f>CHAR(F143)</f>
+        <v>:</v>
+      </c>
+      <c r="I143" s="4">
+        <f>IF(ISBLANK(B143),D143-C143+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J143" s="4">
+        <f>IF(ISBLANK(B143),0,D143-C143+1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B144" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="48"/>
-      <c r="D143" s="48"/>
-      <c r="E143" s="49" t="str">
-        <f>DEC2HEX(F143)</f>
-        <v>5E</v>
-      </c>
-      <c r="F143" s="49">
-        <v>94</v>
-      </c>
-      <c r="G143" s="49" t="str">
-        <f>CHAR(F143)</f>
-        <v>^</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B144" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C144" s="48"/>
-      <c r="D144" s="48"/>
-      <c r="E144" s="49" t="str">
+      <c r="C144" s="46"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="47" t="str">
         <f>DEC2HEX(F144)</f>
         <v>5E</v>
       </c>
-      <c r="F144" s="49">
+      <c r="F144" s="47">
         <v>94</v>
       </c>
-      <c r="G144" s="49" t="str">
+      <c r="G144" s="47" t="str">
         <f>CHAR(F144)</f>
         <v>^</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="48" t="s">
+      <c r="A145" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B145" s="48" t="s">
+      <c r="B145" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="47" t="str">
+        <f>DEC2HEX(F145)</f>
+        <v>5E</v>
+      </c>
+      <c r="F145" s="47">
+        <v>94</v>
+      </c>
+      <c r="G145" s="47" t="str">
+        <f>CHAR(F145)</f>
+        <v>^</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B146" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C145" s="48"/>
-      <c r="D145" s="48"/>
-      <c r="E145" s="49" t="str">
-        <f>DEC2HEX(F145)</f>
-        <v>5F</v>
-      </c>
-      <c r="F145" s="49">
-        <v>95</v>
-      </c>
-      <c r="G145" s="49" t="str">
-        <f>CHAR(F145)</f>
-        <v>_</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B146" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" s="48"/>
-      <c r="D146" s="48"/>
-      <c r="E146" s="49" t="str">
+      <c r="C146" s="46"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="47" t="str">
         <f>DEC2HEX(F146)</f>
         <v>5F</v>
       </c>
-      <c r="F146" s="49">
+      <c r="F146" s="47">
         <v>95</v>
       </c>
-      <c r="G146" s="49" t="str">
+      <c r="G146" s="47" t="str">
         <f>CHAR(F146)</f>
         <v>_</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="48" t="s">
+      <c r="A147" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B147" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="C147" s="48"/>
-      <c r="D147" s="48"/>
-      <c r="E147" s="49" t="str">
+      <c r="B147" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="46"/>
+      <c r="D147" s="46"/>
+      <c r="E147" s="47" t="str">
         <f>DEC2HEX(F147)</f>
+        <v>5F</v>
+      </c>
+      <c r="F147" s="47">
+        <v>95</v>
+      </c>
+      <c r="G147" s="47" t="str">
+        <f>CHAR(F147)</f>
+        <v>_</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B148" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="C148" s="46"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="47" t="str">
+        <f>DEC2HEX(F148)</f>
         <v>64</v>
       </c>
-      <c r="F147" s="49">
+      <c r="F148" s="47">
         <v>100</v>
       </c>
-      <c r="G147" s="49" t="str">
-        <f>CHAR(F147)</f>
+      <c r="G148" s="47" t="str">
+        <f>CHAR(F148)</f>
         <v>d</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="48" t="s">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B148" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="C148" s="48"/>
-      <c r="D148" s="48"/>
-      <c r="E148" s="49" t="str">
-        <f>DEC2HEX(F148)</f>
+      <c r="B149" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="C149" s="46"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="47" t="str">
+        <f>DEC2HEX(F149)</f>
         <v>65</v>
       </c>
-      <c r="F148" s="49">
+      <c r="F149" s="47">
         <v>101</v>
       </c>
-      <c r="G148" s="49" t="str">
-        <f>CHAR(F148)</f>
+      <c r="G149" s="47" t="str">
+        <f>CHAR(F149)</f>
         <v>e</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="B149" s="48" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B150" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="C149" s="48"/>
-      <c r="D149" s="48"/>
-      <c r="E149" s="49" t="str">
-        <f>DEC2HEX(F149)</f>
+      <c r="C150" s="46"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="47" t="str">
+        <f>DEC2HEX(F150)</f>
         <v>4E</v>
       </c>
-      <c r="F149" s="49">
+      <c r="F150" s="47">
         <v>78</v>
       </c>
-      <c r="G149" s="49" t="str">
-        <f>CHAR(F149)</f>
+      <c r="G150" s="47" t="str">
+        <f>CHAR(F150)</f>
         <v>N</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="53" t="s">
-        <v>464</v>
-      </c>
-      <c r="B150" s="53" t="s">
-        <v>465</v>
-      </c>
-      <c r="C150" s="53"/>
-      <c r="D150" s="53"/>
-      <c r="E150" s="52" t="str">
-        <f>DEC2HEX(F150)</f>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="B151" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="C151" s="51"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="50" t="str">
+        <f>DEC2HEX(F151)</f>
         <v>40</v>
       </c>
-      <c r="F150" s="52">
+      <c r="F151" s="50">
         <v>64</v>
       </c>
-      <c r="G150" s="52" t="str">
-        <f>CHAR(F150)</f>
+      <c r="G151" s="50" t="str">
+        <f>CHAR(F151)</f>
         <v>@</v>
       </c>
-      <c r="H150" s="53"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="45" t="s">
+      <c r="H151" s="51"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B151" s="45" t="s">
+      <c r="B152" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="C151" s="46">
-        <v>4</v>
-      </c>
-      <c r="D151" s="46">
+      <c r="C152" s="44">
+        <v>4</v>
+      </c>
+      <c r="D152" s="44">
         <v>7</v>
       </c>
-      <c r="E151" s="46" t="str">
-        <f>DEC2HEX(F151)</f>
+      <c r="E152" s="44" t="str">
+        <f>DEC2HEX(F152)</f>
         <v>6E</v>
       </c>
-      <c r="F151" s="46">
+      <c r="F152" s="44">
         <v>110</v>
       </c>
-      <c r="G151" s="46" t="str">
-        <f>CHAR(F151)</f>
+      <c r="G152" s="44" t="str">
+        <f>CHAR(F152)</f>
         <v>n</v>
       </c>
-      <c r="H151" s="45"/>
-      <c r="I151" s="4">
-        <f>IF(ISBLANK(B151),D151-C151+1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J151" s="4">
-        <f>IF(ISBLANK(B151),0,D151-C151+1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="B152" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="C152" s="45">
-        <v>48</v>
-      </c>
-      <c r="D152" s="45">
-        <v>51</v>
-      </c>
-      <c r="E152" s="46" t="str">
-        <f>DEC2HEX(F152)</f>
-        <v>6F</v>
-      </c>
-      <c r="F152" s="45">
-        <v>111</v>
-      </c>
-      <c r="G152" s="46" t="str">
-        <f>CHAR(F152)</f>
-        <v>o</v>
-      </c>
-      <c r="H152" s="45"/>
+      <c r="H152" s="43"/>
       <c r="I152" s="4">
         <f>IF(ISBLANK(B152),D152-C152+1,0)</f>
         <v>0</v>
@@ -6791,30 +6743,30 @@
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="45" t="s">
+      <c r="A153" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B153" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C153" s="45">
-        <v>88</v>
-      </c>
-      <c r="D153" s="45">
-        <v>91</v>
-      </c>
-      <c r="E153" s="46" t="str">
+      <c r="B153" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="C153" s="43">
+        <v>48</v>
+      </c>
+      <c r="D153" s="43">
+        <v>51</v>
+      </c>
+      <c r="E153" s="44" t="str">
         <f>DEC2HEX(F153)</f>
         <v>6F</v>
       </c>
-      <c r="F153" s="45">
+      <c r="F153" s="43">
         <v>111</v>
       </c>
-      <c r="G153" s="46" t="str">
+      <c r="G153" s="44" t="str">
         <f>CHAR(F153)</f>
         <v>o</v>
       </c>
-      <c r="H153" s="45"/>
+      <c r="H153" s="43"/>
       <c r="I153" s="4">
         <f>IF(ISBLANK(B153),D153-C153+1,0)</f>
         <v>0</v>
@@ -6825,30 +6777,30 @@
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="45" t="s">
+      <c r="A154" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B154" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C154" s="45">
-        <v>96</v>
-      </c>
-      <c r="D154" s="45">
-        <v>99</v>
-      </c>
-      <c r="E154" s="46" t="str">
+      <c r="B154" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C154" s="43">
+        <v>88</v>
+      </c>
+      <c r="D154" s="43">
+        <v>91</v>
+      </c>
+      <c r="E154" s="44" t="str">
         <f>DEC2HEX(F154)</f>
         <v>6F</v>
       </c>
-      <c r="F154" s="45">
+      <c r="F154" s="43">
         <v>111</v>
       </c>
-      <c r="G154" s="46" t="str">
+      <c r="G154" s="44" t="str">
         <f>CHAR(F154)</f>
         <v>o</v>
       </c>
-      <c r="H154" s="45"/>
+      <c r="H154" s="43"/>
       <c r="I154" s="4">
         <f>IF(ISBLANK(B154),D154-C154+1,0)</f>
         <v>0</v>
@@ -6859,36 +6811,37 @@
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C155" s="5">
-        <v>232</v>
-      </c>
-      <c r="D155" s="5">
-        <v>239</v>
-      </c>
-      <c r="E155" s="5" t="str">
+      <c r="B155" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" s="43">
+        <v>96</v>
+      </c>
+      <c r="D155" s="43">
+        <v>99</v>
+      </c>
+      <c r="E155" s="44" t="str">
         <f>DEC2HEX(F155)</f>
-        <v>D6</v>
-      </c>
-      <c r="F155" s="5">
-        <v>214</v>
-      </c>
-      <c r="G155" s="5" t="str">
+        <v>6F</v>
+      </c>
+      <c r="F155" s="43">
+        <v>111</v>
+      </c>
+      <c r="G155" s="44" t="str">
         <f>CHAR(F155)</f>
-        <v>Ö</v>
-      </c>
+        <v>o</v>
+      </c>
+      <c r="H155" s="43"/>
       <c r="I155" s="4">
         <f>IF(ISBLANK(B155),D155-C155+1,0)</f>
         <v>0</v>
       </c>
       <c r="J155" s="4">
         <f>IF(ISBLANK(B155),0,D155-C155+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -6896,24 +6849,24 @@
         <v>139</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C156" s="5">
-        <v>308</v>
+        <v>451</v>
+      </c>
+      <c r="C156" s="55">
+        <v>232</v>
       </c>
       <c r="D156" s="5">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="E156" s="5" t="str">
         <f>DEC2HEX(F156)</f>
-        <v>D5</v>
-      </c>
-      <c r="F156" s="5">
-        <v>213</v>
+        <v>D6</v>
+      </c>
+      <c r="F156" s="55">
+        <v>214</v>
       </c>
       <c r="G156" s="5" t="str">
         <f>CHAR(F156)</f>
-        <v>Õ</v>
+        <v>Ö</v>
       </c>
       <c r="I156" s="4">
         <f>IF(ISBLANK(B156),D156-C156+1,0)</f>
@@ -6923,32 +6876,30 @@
         <f>IF(ISBLANK(B156),0,D156-C156+1)</f>
         <v>8</v>
       </c>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C157" s="5">
-        <v>324</v>
+        <v>453</v>
+      </c>
+      <c r="C157" s="55">
+        <v>308</v>
       </c>
       <c r="D157" s="5">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="E157" s="5" t="str">
         <f>DEC2HEX(F157)</f>
-        <v>CD</v>
-      </c>
-      <c r="F157" s="5">
-        <v>205</v>
+        <v>D5</v>
+      </c>
+      <c r="F157" s="35">
+        <v>213</v>
       </c>
       <c r="G157" s="5" t="str">
         <f>CHAR(F157)</f>
-        <v>Í</v>
+        <v>Õ</v>
       </c>
       <c r="I157" s="4">
         <f>IF(ISBLANK(B157),D157-C157+1,0)</f>
@@ -6958,33 +6909,32 @@
         <f>IF(ISBLANK(B157),0,D157-C157+1)</f>
         <v>8</v>
       </c>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C158" s="5">
-        <v>464</v>
+        <v>452</v>
+      </c>
+      <c r="C158" s="55">
+        <v>324</v>
       </c>
       <c r="D158" s="5">
-        <v>467</v>
+        <v>331</v>
       </c>
       <c r="E158" s="5" t="str">
         <f>DEC2HEX(F158)</f>
-        <v>EE</v>
-      </c>
-      <c r="F158" s="5">
-        <v>238</v>
+        <v>CD</v>
+      </c>
+      <c r="F158" s="55">
+        <v>205</v>
       </c>
       <c r="G158" s="5" t="str">
         <f>CHAR(F158)</f>
-        <v>î</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>161</v>
+        <v>Í</v>
       </c>
       <c r="I158" s="4">
         <f>IF(ISBLANK(B158),D158-C158+1,0)</f>
@@ -6992,7 +6942,7 @@
       </c>
       <c r="J158" s="4">
         <f>IF(ISBLANK(B158),0,D158-C158+1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -7000,24 +6950,27 @@
         <v>139</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>451</v>
+        <v>144</v>
       </c>
       <c r="C159" s="5">
-        <v>556</v>
+        <v>464</v>
       </c>
       <c r="D159" s="5">
-        <v>559</v>
+        <v>467</v>
       </c>
       <c r="E159" s="5" t="str">
         <f>DEC2HEX(F159)</f>
-        <v>D4</v>
+        <v>EE</v>
       </c>
       <c r="F159" s="5">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G159" s="5" t="str">
         <f>CHAR(F159)</f>
-        <v>Ô</v>
+        <v>î</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="I159" s="4">
         <f>IF(ISBLANK(B159),D159-C159+1,0)</f>
@@ -7033,24 +6986,24 @@
         <v>139</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C160" s="4">
-        <v>560</v>
-      </c>
-      <c r="D160" s="4">
-        <v>563</v>
+        <v>437</v>
+      </c>
+      <c r="C160" s="5">
+        <v>556</v>
+      </c>
+      <c r="D160" s="5">
+        <v>559</v>
       </c>
       <c r="E160" s="5" t="str">
         <f>DEC2HEX(F160)</f>
-        <v>57</v>
+        <v>D4</v>
       </c>
       <c r="F160" s="5">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="G160" s="5" t="str">
         <f>CHAR(F160)</f>
-        <v>W</v>
+        <v>Ô</v>
       </c>
       <c r="I160" s="4">
         <f>IF(ISBLANK(B160),D160-C160+1,0)</f>
@@ -7066,24 +7019,24 @@
         <v>139</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C161" s="5">
-        <v>740</v>
-      </c>
-      <c r="D161" s="5">
-        <v>743</v>
+        <v>111</v>
+      </c>
+      <c r="C161" s="4">
+        <v>560</v>
+      </c>
+      <c r="D161" s="4">
+        <v>563</v>
       </c>
       <c r="E161" s="5" t="str">
         <f>DEC2HEX(F161)</f>
-        <v>CB</v>
+        <v>57</v>
       </c>
       <c r="F161" s="5">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="G161" s="5" t="str">
         <f>CHAR(F161)</f>
-        <v>Ë</v>
+        <v>W</v>
       </c>
       <c r="I161" s="4">
         <f>IF(ISBLANK(B161),D161-C161+1,0)</f>
@@ -7093,32 +7046,30 @@
         <f>IF(ISBLANK(B161),0,D161-C161+1)</f>
         <v>4</v>
       </c>
-      <c r="L161" s="5"/>
-      <c r="M161" s="5"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C162" s="5">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D162" s="5">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="E162" s="5" t="str">
         <f>DEC2HEX(F162)</f>
-        <v>CC</v>
+        <v>CB</v>
       </c>
       <c r="F162" s="5">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G162" s="5" t="str">
         <f>CHAR(F162)</f>
-        <v>Ì</v>
+        <v>Ë</v>
       </c>
       <c r="I162" s="4">
         <f>IF(ISBLANK(B162),D162-C162+1,0)</f>
@@ -7126,34 +7077,34 @@
       </c>
       <c r="J162" s="4">
         <f>IF(ISBLANK(B162),0,D162-C162+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="33" t="s">
+      <c r="A163" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B163" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="C163" s="33">
-        <v>796</v>
-      </c>
-      <c r="D163" s="33">
-        <v>799</v>
-      </c>
-      <c r="E163" s="34" t="str">
+      <c r="B163" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C163" s="55">
+        <v>744</v>
+      </c>
+      <c r="D163" s="5">
+        <v>751</v>
+      </c>
+      <c r="E163" s="5" t="str">
         <f>DEC2HEX(F163)</f>
-        <v>B9</v>
-      </c>
-      <c r="F163" s="34">
-        <v>185</v>
-      </c>
-      <c r="G163" s="34" t="str">
+        <v>CC</v>
+      </c>
+      <c r="F163" s="35">
+        <v>204</v>
+      </c>
+      <c r="G163" s="5" t="str">
         <f>CHAR(F163)</f>
-        <v>¹</v>
+        <v>Ì</v>
       </c>
       <c r="I163" s="4">
         <f>IF(ISBLANK(B163),D163-C163+1,0)</f>
@@ -7161,34 +7112,35 @@
       </c>
       <c r="J163" s="4">
         <f>IF(ISBLANK(B163),0,D163-C163+1)</f>
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="33" t="s">
         <v>139</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C164" s="33">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D164" s="33">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E164" s="34" t="str">
         <f>DEC2HEX(F164)</f>
-        <v>BA</v>
+        <v>B9</v>
       </c>
       <c r="F164" s="34">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G164" s="34" t="str">
         <f>CHAR(F164)</f>
-        <v>º</v>
-      </c>
-      <c r="H164" s="5"/>
+        <v>¹</v>
+      </c>
       <c r="I164" s="4">
         <f>IF(ISBLANK(B164),D164-C164+1,0)</f>
         <v>0</v>
@@ -7203,25 +7155,26 @@
         <v>139</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C165" s="39">
-        <v>896</v>
-      </c>
-      <c r="D165" s="34">
-        <v>899</v>
+        <v>381</v>
+      </c>
+      <c r="C165" s="33">
+        <v>800</v>
+      </c>
+      <c r="D165" s="33">
+        <v>803</v>
       </c>
       <c r="E165" s="34" t="str">
         <f>DEC2HEX(F165)</f>
-        <v>3A</v>
+        <v>BA</v>
       </c>
       <c r="F165" s="34">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="G165" s="34" t="str">
         <f>CHAR(F165)</f>
-        <v>:</v>
-      </c>
+        <v>º</v>
+      </c>
+      <c r="H165" s="5"/>
       <c r="I165" s="4">
         <f>IF(ISBLANK(B165),D165-C165+1,0)</f>
         <v>0</v>
@@ -7236,24 +7189,24 @@
         <v>139</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C166" s="34">
-        <v>932</v>
+        <v>147</v>
+      </c>
+      <c r="C166" s="37">
+        <v>896</v>
       </c>
       <c r="D166" s="34">
-        <v>935</v>
+        <v>899</v>
       </c>
       <c r="E166" s="34" t="str">
         <f>DEC2HEX(F166)</f>
-        <v>BA</v>
+        <v>3A</v>
       </c>
       <c r="F166" s="34">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="G166" s="34" t="str">
         <f>CHAR(F166)</f>
-        <v>º</v>
+        <v>:</v>
       </c>
       <c r="I166" s="4">
         <f>IF(ISBLANK(B166),D166-C166+1,0)</f>
@@ -7269,24 +7222,24 @@
         <v>139</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C167" s="34">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D167" s="34">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E167" s="34" t="str">
         <f>DEC2HEX(F167)</f>
-        <v>3B</v>
+        <v>BA</v>
       </c>
       <c r="F167" s="34">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="G167" s="34" t="str">
         <f>CHAR(F167)</f>
-        <v>;</v>
+        <v>º</v>
       </c>
       <c r="I167" s="4">
         <f>IF(ISBLANK(B167),D167-C167+1,0)</f>
@@ -7302,24 +7255,24 @@
         <v>139</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C168" s="34">
-        <v>960</v>
+        <v>936</v>
       </c>
       <c r="D168" s="34">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="E168" s="34" t="str">
         <f>DEC2HEX(F168)</f>
-        <v>B9</v>
+        <v>3B</v>
       </c>
       <c r="F168" s="34">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="G168" s="34" t="str">
         <f>CHAR(F168)</f>
-        <v>¹</v>
+        <v>;</v>
       </c>
       <c r="I168" s="4">
         <f>IF(ISBLANK(B168),D168-C168+1,0)</f>
@@ -7335,13 +7288,13 @@
         <v>139</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C169" s="34">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D169" s="34">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E169" s="34" t="str">
         <f>DEC2HEX(F169)</f>
@@ -7368,24 +7321,24 @@
         <v>139</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="C170" s="33">
-        <v>980</v>
-      </c>
-      <c r="D170" s="33">
-        <v>983</v>
+        <v>151</v>
+      </c>
+      <c r="C170" s="34">
+        <v>964</v>
+      </c>
+      <c r="D170" s="34">
+        <v>967</v>
       </c>
       <c r="E170" s="34" t="str">
         <f>DEC2HEX(F170)</f>
-        <v>BA</v>
+        <v>B9</v>
       </c>
       <c r="F170" s="34">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G170" s="34" t="str">
         <f>CHAR(F170)</f>
-        <v>º</v>
+        <v>¹</v>
       </c>
       <c r="I170" s="4">
         <f>IF(ISBLANK(B170),D170-C170+1,0)</f>
@@ -7397,83 +7350,81 @@
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E171" s="5" t="str">
+      <c r="B171" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="C171" s="33">
+        <v>980</v>
+      </c>
+      <c r="D171" s="33">
+        <v>983</v>
+      </c>
+      <c r="E171" s="34" t="str">
         <f>DEC2HEX(F171)</f>
+        <v>BA</v>
+      </c>
+      <c r="F171" s="34">
+        <v>186</v>
+      </c>
+      <c r="G171" s="34" t="str">
+        <f>CHAR(F171)</f>
+        <v>º</v>
+      </c>
+      <c r="I171" s="4">
+        <f>IF(ISBLANK(B171),D171-C171+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J171" s="4">
+        <f>IF(ISBLANK(B171),0,D171-C171+1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E172" s="5" t="str">
+        <f>DEC2HEX(F172)</f>
         <v>C6</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F172" s="5">
         <v>198</v>
       </c>
-      <c r="G171" s="5" t="str">
-        <f>CHAR(F171)</f>
+      <c r="G172" s="5" t="str">
+        <f>CHAR(F172)</f>
         <v>Æ</v>
       </c>
-      <c r="I171" s="5"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="B172" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C172" s="33">
-        <v>760</v>
-      </c>
-      <c r="D172" s="33">
-        <v>763</v>
-      </c>
-      <c r="E172" s="34" t="str">
-        <f>DEC2HEX(F172)</f>
-        <v>E8</v>
-      </c>
-      <c r="F172" s="34">
-        <v>232</v>
-      </c>
-      <c r="G172" s="34" t="str">
-        <f>CHAR(F172)</f>
-        <v>è</v>
-      </c>
-      <c r="I172" s="4">
-        <f>IF(ISBLANK(B172),D172-C172+1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J172" s="4">
-        <f>IF(ISBLANK(B172),0,D172-C172+1)</f>
-        <v>4</v>
-      </c>
-      <c r="L172" s="5"/>
-      <c r="M172" s="5"/>
+      <c r="I172" s="5"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="33" t="s">
         <v>357</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C173" s="34">
-        <v>764</v>
-      </c>
-      <c r="D173" s="34">
-        <v>767</v>
+        <v>78</v>
+      </c>
+      <c r="C173" s="33">
+        <v>760</v>
+      </c>
+      <c r="D173" s="33">
+        <v>763</v>
       </c>
       <c r="E173" s="34" t="str">
         <f>DEC2HEX(F173)</f>
-        <v>E9</v>
+        <v>E8</v>
       </c>
       <c r="F173" s="34">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G173" s="34" t="str">
         <f>CHAR(F173)</f>
-        <v>é</v>
+        <v>è</v>
       </c>
       <c r="I173" s="4">
         <f>IF(ISBLANK(B173),D173-C173+1,0)</f>
@@ -7483,30 +7434,32 @@
         <f>IF(ISBLANK(B173),0,D173-C173+1)</f>
         <v>4</v>
       </c>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
         <v>357</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="C174" s="33">
-        <v>768</v>
-      </c>
-      <c r="D174" s="33">
-        <v>771</v>
+        <v>79</v>
+      </c>
+      <c r="C174" s="34">
+        <v>764</v>
+      </c>
+      <c r="D174" s="34">
+        <v>767</v>
       </c>
       <c r="E174" s="34" t="str">
         <f>DEC2HEX(F174)</f>
-        <v>EA</v>
+        <v>E9</v>
       </c>
       <c r="F174" s="34">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G174" s="34" t="str">
         <f>CHAR(F174)</f>
-        <v>ê</v>
+        <v>é</v>
       </c>
       <c r="I174" s="4">
         <f>IF(ISBLANK(B174),D174-C174+1,0)</f>
@@ -7516,32 +7469,30 @@
         <f>IF(ISBLANK(B174),0,D174-C174+1)</f>
         <v>4</v>
       </c>
-      <c r="L174" s="5"/>
-      <c r="M174" s="5"/>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
         <v>357</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="C175" s="33">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D175" s="33">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E175" s="34" t="str">
         <f>DEC2HEX(F175)</f>
-        <v>EB</v>
+        <v>EA</v>
       </c>
       <c r="F175" s="34">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G175" s="34" t="str">
         <f>CHAR(F175)</f>
-        <v>ë</v>
+        <v>ê</v>
       </c>
       <c r="I175" s="4">
         <f>IF(ISBLANK(B175),D175-C175+1,0)</f>
@@ -7551,30 +7502,32 @@
         <f>IF(ISBLANK(B175),0,D175-C175+1)</f>
         <v>4</v>
       </c>
+      <c r="L175" s="5"/>
+      <c r="M175" s="5"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="33" t="s">
         <v>357</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C176" s="33">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D176" s="33">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E176" s="34" t="str">
         <f>DEC2HEX(F176)</f>
-        <v>EA</v>
+        <v>EB</v>
       </c>
       <c r="F176" s="34">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G176" s="34" t="str">
         <f>CHAR(F176)</f>
-        <v>ê</v>
+        <v>ë</v>
       </c>
       <c r="I176" s="4">
         <f>IF(ISBLANK(B176),D176-C176+1,0)</f>
@@ -7590,24 +7543,24 @@
         <v>357</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="C177" s="33">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D177" s="33">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E177" s="34" t="str">
         <f>DEC2HEX(F177)</f>
-        <v>EB</v>
+        <v>EA</v>
       </c>
       <c r="F177" s="34">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G177" s="34" t="str">
         <f>CHAR(F177)</f>
-        <v>ë</v>
+        <v>ê</v>
       </c>
       <c r="I177" s="4">
         <f>IF(ISBLANK(B177),D177-C177+1,0)</f>
@@ -7623,24 +7576,24 @@
         <v>357</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C178" s="33">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D178" s="33">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E178" s="34" t="str">
         <f>DEC2HEX(F178)</f>
-        <v>EA</v>
+        <v>EB</v>
       </c>
       <c r="F178" s="34">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G178" s="34" t="str">
         <f>CHAR(F178)</f>
-        <v>ê</v>
+        <v>ë</v>
       </c>
       <c r="I178" s="4">
         <f>IF(ISBLANK(B178),D178-C178+1,0)</f>
@@ -7656,24 +7609,24 @@
         <v>357</v>
       </c>
       <c r="B179" s="33" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="C179" s="33">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D179" s="33">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E179" s="34" t="str">
         <f>DEC2HEX(F179)</f>
-        <v>EB</v>
+        <v>EA</v>
       </c>
       <c r="F179" s="34">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G179" s="34" t="str">
         <f>CHAR(F179)</f>
-        <v>ë</v>
+        <v>ê</v>
       </c>
       <c r="I179" s="4">
         <f>IF(ISBLANK(B179),D179-C179+1,0)</f>
@@ -7685,106 +7638,103 @@
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="48" t="s">
+      <c r="A180" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B180" s="48" t="s">
+      <c r="B180" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C180" s="33">
+        <v>788</v>
+      </c>
+      <c r="D180" s="33">
+        <v>791</v>
+      </c>
+      <c r="E180" s="34" t="str">
+        <f>DEC2HEX(F180)</f>
+        <v>EB</v>
+      </c>
+      <c r="F180" s="34">
+        <v>235</v>
+      </c>
+      <c r="G180" s="34" t="str">
+        <f>CHAR(F180)</f>
+        <v>ë</v>
+      </c>
+      <c r="I180" s="4">
+        <f>IF(ISBLANK(B180),D180-C180+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J180" s="4">
+        <f>IF(ISBLANK(B180),0,D180-C180+1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="C180" s="48"/>
-      <c r="D180" s="48"/>
-      <c r="E180" s="49" t="str">
-        <f>DEC2HEX(F180)</f>
+      <c r="C181" s="46"/>
+      <c r="D181" s="46"/>
+      <c r="E181" s="47" t="str">
+        <f>DEC2HEX(F181)</f>
         <v>A4</v>
       </c>
-      <c r="F180" s="49">
+      <c r="F181" s="47">
         <v>164</v>
       </c>
-      <c r="G180" s="49" t="str">
-        <f>CHAR(F180)</f>
+      <c r="G181" s="47" t="str">
+        <f>CHAR(F181)</f>
         <v>¤</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="48" t="s">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B181" s="48" t="s">
+      <c r="B182" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="C181" s="48"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="49" t="str">
-        <f>DEC2HEX(F181)</f>
+      <c r="C182" s="46"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="47" t="str">
+        <f>DEC2HEX(F182)</f>
         <v>62</v>
       </c>
-      <c r="F181" s="49">
+      <c r="F182" s="47">
         <v>98</v>
       </c>
-      <c r="G181" s="49" t="str">
-        <f>CHAR(F181)</f>
+      <c r="G182" s="47" t="str">
+        <f>CHAR(F182)</f>
         <v>b</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C182" s="5">
-        <v>148</v>
-      </c>
-      <c r="D182" s="5">
-        <v>151</v>
-      </c>
-      <c r="E182" s="5" t="str">
-        <f>DEC2HEX(F182)</f>
-        <v>C3</v>
-      </c>
-      <c r="F182" s="5">
-        <v>195</v>
-      </c>
-      <c r="G182" s="5" t="str">
-        <f>CHAR(F182)</f>
-        <v>Ã</v>
-      </c>
-      <c r="I182" s="4">
-        <f>IF(ISBLANK(B182),D182-C182+1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J182" s="4">
-        <f>IF(ISBLANK(B182),0,D182-C182+1)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C183" s="4">
-        <v>260</v>
-      </c>
-      <c r="D183" s="4">
-        <v>263</v>
+        <v>421</v>
+      </c>
+      <c r="C183" s="5">
+        <v>148</v>
+      </c>
+      <c r="D183" s="5">
+        <v>151</v>
       </c>
       <c r="E183" s="5" t="str">
         <f>DEC2HEX(F183)</f>
-        <v>DB</v>
+        <v>C3</v>
       </c>
       <c r="F183" s="5">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="G183" s="5" t="str">
         <f>CHAR(F183)</f>
-        <v>Û</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>165</v>
+        <v>Ã</v>
       </c>
       <c r="I183" s="4">
         <f>IF(ISBLANK(B183),D183-C183+1,0)</f>
@@ -7797,16 +7747,30 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="C184" s="4">
-        <v>388</v>
+        <v>260</v>
       </c>
       <c r="D184" s="4">
-        <v>391</v>
+        <v>263</v>
+      </c>
+      <c r="E184" s="5" t="str">
+        <f>DEC2HEX(F184)</f>
+        <v>DB</v>
+      </c>
+      <c r="F184" s="5">
+        <v>219</v>
+      </c>
+      <c r="G184" s="5" t="str">
+        <f>CHAR(F184)</f>
+        <v>Û</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="I184" s="4">
         <f>IF(ISBLANK(B184),D184-C184+1,0)</f>
@@ -7818,95 +7782,84 @@
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="B185" s="40" t="s">
-        <v>440</v>
+      <c r="A185" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C185" s="4">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="D185" s="4">
-        <v>415</v>
-      </c>
-      <c r="E185" s="41" t="str">
-        <f>DEC2HEX(F185)</f>
-        <v>74</v>
-      </c>
-      <c r="F185" s="41">
-        <v>116</v>
-      </c>
-      <c r="G185" s="41" t="str">
-        <f>CHAR(F185)</f>
-        <v>t</v>
-      </c>
-      <c r="H185" s="40"/>
+        <v>391</v>
+      </c>
       <c r="I185" s="4">
         <f>IF(ISBLANK(B185),D185-C185+1,0)</f>
         <v>0</v>
       </c>
       <c r="J185" s="4">
         <f>IF(ISBLANK(B185),0,D185-C185+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>10</v>
+      <c r="A186" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="B186" s="38" t="s">
+        <v>427</v>
       </c>
       <c r="C186" s="4">
-        <v>540</v>
+        <v>408</v>
       </c>
       <c r="D186" s="4">
-        <v>543</v>
-      </c>
-      <c r="E186" s="5" t="str">
+        <v>415</v>
+      </c>
+      <c r="E186" s="39" t="str">
         <f>DEC2HEX(F186)</f>
-        <v>76</v>
-      </c>
-      <c r="F186" s="5">
-        <v>118</v>
-      </c>
-      <c r="G186" s="5" t="str">
+        <v>74</v>
+      </c>
+      <c r="F186" s="39">
+        <v>116</v>
+      </c>
+      <c r="G186" s="39" t="str">
         <f>CHAR(F186)</f>
-        <v>v</v>
-      </c>
+        <v>t</v>
+      </c>
+      <c r="H186" s="38"/>
       <c r="I186" s="4">
         <f>IF(ISBLANK(B186),D186-C186+1,0)</f>
         <v>0</v>
       </c>
       <c r="J186" s="4">
         <f>IF(ISBLANK(B186),0,D186-C186+1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C187" s="4">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D187" s="4">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E187" s="5" t="str">
         <f>DEC2HEX(F187)</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F187" s="5">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G187" s="5" t="str">
         <f>CHAR(F187)</f>
-        <v>w</v>
+        <v>v</v>
       </c>
       <c r="I187" s="4">
         <f>IF(ISBLANK(B187),D187-C187+1,0)</f>
@@ -7919,27 +7872,27 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="C188" s="4">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D188" s="4">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E188" s="5" t="str">
         <f>DEC2HEX(F188)</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F188" s="5">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G188" s="5" t="str">
         <f>CHAR(F188)</f>
-        <v>x</v>
+        <v>w</v>
       </c>
       <c r="I188" s="4">
         <f>IF(ISBLANK(B188),D188-C188+1,0)</f>
@@ -7947,32 +7900,32 @@
       </c>
       <c r="J188" s="4">
         <f>IF(ISBLANK(B188),0,D188-C188+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>436</v>
+        <v>171</v>
       </c>
       <c r="C189" s="4">
-        <v>212</v>
+        <v>548</v>
       </c>
       <c r="D189" s="4">
-        <v>215</v>
+        <v>555</v>
       </c>
       <c r="E189" s="5" t="str">
         <f>DEC2HEX(F189)</f>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F189" s="5">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G189" s="5" t="str">
         <f>CHAR(F189)</f>
-        <v>p</v>
+        <v>x</v>
       </c>
       <c r="I189" s="4">
         <f>IF(ISBLANK(B189),D189-C189+1,0)</f>
@@ -7980,32 +7933,32 @@
       </c>
       <c r="J189" s="4">
         <f>IF(ISBLANK(B189),0,D189-C189+1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>170</v>
+        <v>423</v>
       </c>
       <c r="C190" s="4">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="D190" s="4">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="E190" s="5" t="str">
         <f>DEC2HEX(F190)</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F190" s="5">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G190" s="5" t="str">
         <f>CHAR(F190)</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="I190" s="4">
         <f>IF(ISBLANK(B190),D190-C190+1,0)</f>
@@ -8018,30 +7971,27 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C191" s="4">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D191" s="4">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E191" s="5" t="str">
         <f>DEC2HEX(F191)</f>
-        <v>D8</v>
+        <v>72</v>
       </c>
       <c r="F191" s="5">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="G191" s="5" t="str">
         <f>CHAR(F191)</f>
-        <v>Ø</v>
-      </c>
-      <c r="H191" s="4" t="s">
-        <v>165</v>
+        <v>r</v>
       </c>
       <c r="I191" s="4">
         <f>IF(ISBLANK(B191),D191-C191+1,0)</f>
@@ -8054,27 +8004,30 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C192" s="38">
-        <v>268</v>
-      </c>
-      <c r="D192" s="38">
-        <v>275</v>
+        <v>166</v>
+      </c>
+      <c r="C192" s="4">
+        <v>248</v>
+      </c>
+      <c r="D192" s="4">
+        <v>251</v>
       </c>
       <c r="E192" s="5" t="str">
         <f>DEC2HEX(F192)</f>
-        <v>73</v>
+        <v>D8</v>
       </c>
       <c r="F192" s="5">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="G192" s="5" t="str">
         <f>CHAR(F192)</f>
-        <v>s</v>
+        <v>Ø</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="I192" s="4">
         <f>IF(ISBLANK(B192),D192-C192+1,0)</f>
@@ -8082,35 +8035,32 @@
       </c>
       <c r="J192" s="4">
         <f>IF(ISBLANK(B192),0,D192-C192+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C193" s="4">
-        <v>256</v>
-      </c>
-      <c r="D193" s="4">
-        <v>259</v>
+        <v>13</v>
+      </c>
+      <c r="C193" s="36">
+        <v>268</v>
+      </c>
+      <c r="D193" s="36">
+        <v>275</v>
       </c>
       <c r="E193" s="5" t="str">
         <f>DEC2HEX(F193)</f>
-        <v>DA</v>
+        <v>73</v>
       </c>
       <c r="F193" s="5">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="G193" s="5" t="str">
         <f>CHAR(F193)</f>
-        <v>Ú</v>
-      </c>
-      <c r="H193" s="4" t="s">
-        <v>165</v>
+        <v>s</v>
       </c>
       <c r="I193" s="4">
         <f>IF(ISBLANK(B193),D193-C193+1,0)</f>
@@ -8118,24 +8068,36 @@
       </c>
       <c r="J193" s="4">
         <f>IF(ISBLANK(B193),0,D193-C193+1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="C194" s="4">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="D194" s="4">
-        <v>387</v>
-      </c>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
+        <v>259</v>
+      </c>
+      <c r="E194" s="5" t="str">
+        <f>DEC2HEX(F194)</f>
+        <v>DA</v>
+      </c>
+      <c r="F194" s="5">
+        <v>218</v>
+      </c>
+      <c r="G194" s="5" t="str">
+        <f>CHAR(F194)</f>
+        <v>Ú</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="I194" s="4">
         <f>IF(ISBLANK(B194),D194-C194+1,0)</f>
         <v>0</v>
@@ -8147,28 +8109,19 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C195" s="4">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="D195" s="4">
-        <v>483</v>
-      </c>
-      <c r="E195" s="5" t="str">
-        <f>DEC2HEX(F195)</f>
-        <v>BB</v>
-      </c>
-      <c r="F195" s="5">
-        <v>187</v>
-      </c>
-      <c r="G195" s="5" t="str">
-        <f>CHAR(F195)</f>
-        <v>»</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
       <c r="I195" s="4">
         <f>IF(ISBLANK(B195),D195-C195+1,0)</f>
         <v>0</v>
@@ -8180,27 +8133,27 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C196" s="4">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D196" s="4">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E196" s="5" t="str">
         <f>DEC2HEX(F196)</f>
-        <v>BC</v>
+        <v>BB</v>
       </c>
       <c r="F196" s="5">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G196" s="5" t="str">
         <f>CHAR(F196)</f>
-        <v>¼</v>
+        <v>»</v>
       </c>
       <c r="I196" s="4">
         <f>IF(ISBLANK(B196),D196-C196+1,0)</f>
@@ -8213,27 +8166,27 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C197" s="4">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D197" s="4">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E197" s="5" t="str">
         <f>DEC2HEX(F197)</f>
-        <v>BD</v>
+        <v>BC</v>
       </c>
       <c r="F197" s="5">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G197" s="5" t="str">
         <f>CHAR(F197)</f>
-        <v>½</v>
+        <v>¼</v>
       </c>
       <c r="I197" s="4">
         <f>IF(ISBLANK(B197),D197-C197+1,0)</f>
@@ -8241,35 +8194,32 @@
       </c>
       <c r="J197" s="4">
         <f>IF(ISBLANK(B197),0,D197-C197+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="C198" s="4">
-        <v>252</v>
+        <v>488</v>
       </c>
       <c r="D198" s="4">
-        <v>255</v>
+        <v>495</v>
       </c>
       <c r="E198" s="5" t="str">
         <f>DEC2HEX(F198)</f>
-        <v>D9</v>
+        <v>BD</v>
       </c>
       <c r="F198" s="5">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="G198" s="5" t="str">
         <f>CHAR(F198)</f>
-        <v>Ù</v>
-      </c>
-      <c r="H198" s="4" t="s">
-        <v>165</v>
+        <v>½</v>
       </c>
       <c r="I198" s="4">
         <f>IF(ISBLANK(B198),D198-C198+1,0)</f>
@@ -8277,23 +8227,36 @@
       </c>
       <c r="J198" s="4">
         <f>IF(ISBLANK(B198),0,D198-C198+1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="C199" s="4">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="D199" s="4">
-        <v>383</v>
-      </c>
-      <c r="E199" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E199" s="5" t="str">
+        <f>DEC2HEX(F199)</f>
+        <v>D9</v>
+      </c>
+      <c r="F199" s="5">
+        <v>217</v>
+      </c>
+      <c r="G199" s="5" t="str">
+        <f>CHAR(F199)</f>
+        <v>Ù</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="I199" s="4">
         <f>IF(ISBLANK(B199),D199-C199+1,0)</f>
         <v>0</v>
@@ -8305,28 +8268,18 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C200" s="4">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="D200" s="4">
-        <v>463</v>
-      </c>
-      <c r="E200" s="5" t="str">
-        <f>DEC2HEX(F200)</f>
-        <v>79</v>
-      </c>
-      <c r="F200" s="5">
-        <v>121</v>
-      </c>
-      <c r="G200" s="5" t="str">
-        <f>CHAR(F200)</f>
-        <v>y</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="E200" s="4"/>
       <c r="I200" s="4">
         <f>IF(ISBLANK(B200),D200-C200+1,0)</f>
         <v>0</v>
@@ -8338,27 +8291,27 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="C201" s="4">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D201" s="4">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E201" s="5" t="str">
         <f>DEC2HEX(F201)</f>
-        <v>7A</v>
+        <v>79</v>
       </c>
       <c r="F201" s="5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G201" s="5" t="str">
         <f>CHAR(F201)</f>
-        <v>z</v>
+        <v>y</v>
       </c>
       <c r="I201" s="4">
         <f>IF(ISBLANK(B201),D201-C201+1,0)</f>
@@ -8371,27 +8324,27 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="C202" s="4">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="D202" s="4">
-        <v>519</v>
+        <v>471</v>
       </c>
       <c r="E202" s="5" t="str">
         <f>DEC2HEX(F202)</f>
-        <v>7B</v>
+        <v>7A</v>
       </c>
       <c r="F202" s="5">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G202" s="5" t="str">
         <f>CHAR(F202)</f>
-        <v>{</v>
+        <v>z</v>
       </c>
       <c r="I202" s="4">
         <f>IF(ISBLANK(B202),D202-C202+1,0)</f>
@@ -8399,89 +8352,88 @@
       </c>
       <c r="J202" s="4">
         <f>IF(ISBLANK(B202),0,D202-C202+1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C203" s="4">
+        <v>512</v>
+      </c>
+      <c r="D203" s="4">
+        <v>519</v>
+      </c>
+      <c r="E203" s="5" t="str">
+        <f>DEC2HEX(F203)</f>
+        <v>7B</v>
+      </c>
+      <c r="F203" s="5">
+        <v>123</v>
+      </c>
+      <c r="G203" s="5" t="str">
+        <f>CHAR(F203)</f>
+        <v>{</v>
+      </c>
+      <c r="I203" s="4">
+        <f>IF(ISBLANK(B203),D203-C203+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J203" s="4">
+        <f>IF(ISBLANK(B203),0,D203-C203+1)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="48" t="s">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B203" s="48" t="s">
+      <c r="B204" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C203" s="48"/>
-      <c r="D203" s="48"/>
-      <c r="E203" s="49" t="str">
-        <f>DEC2HEX(F203)</f>
+      <c r="C204" s="46"/>
+      <c r="D204" s="46"/>
+      <c r="E204" s="47" t="str">
+        <f>DEC2HEX(F204)</f>
         <v>41</v>
       </c>
-      <c r="F203" s="49">
+      <c r="F204" s="47">
         <v>65</v>
       </c>
-      <c r="G203" s="49" t="str">
-        <f>CHAR(F203)</f>
+      <c r="G204" s="47" t="str">
+        <f>CHAR(F204)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="45" t="s">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B204" s="45" t="s">
+      <c r="B205" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="C204" s="45">
+      <c r="C205" s="43">
         <v>24</v>
       </c>
-      <c r="D204" s="45">
+      <c r="D205" s="43">
         <v>27</v>
       </c>
-      <c r="E204" s="46" t="str">
-        <f>DEC2HEX(F204)</f>
-        <v>6F</v>
-      </c>
-      <c r="F204" s="45">
-        <v>111</v>
-      </c>
-      <c r="G204" s="46" t="str">
-        <f>CHAR(F204)</f>
-        <v>o</v>
-      </c>
-      <c r="H204" s="45"/>
-      <c r="I204" s="4">
-        <f>IF(ISBLANK(B204),D204-C204+1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J204" s="4">
-        <f>IF(ISBLANK(B204),0,D204-C204+1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B205" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="C205" s="45">
-        <v>72</v>
-      </c>
-      <c r="D205" s="45">
-        <v>75</v>
-      </c>
-      <c r="E205" s="46" t="str">
+      <c r="E205" s="44" t="str">
         <f>DEC2HEX(F205)</f>
         <v>6F</v>
       </c>
-      <c r="F205" s="45">
+      <c r="F205" s="43">
         <v>111</v>
       </c>
-      <c r="G205" s="46" t="str">
+      <c r="G205" s="44" t="str">
         <f>CHAR(F205)</f>
         <v>o</v>
       </c>
-      <c r="H205" s="45"/>
+      <c r="H205" s="43"/>
       <c r="I205" s="4">
         <f>IF(ISBLANK(B205),D205-C205+1,0)</f>
         <v>0</v>
@@ -8492,30 +8444,30 @@
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="45" t="s">
+      <c r="A206" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B206" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C206" s="45">
-        <v>76</v>
-      </c>
-      <c r="D206" s="45">
-        <v>79</v>
-      </c>
-      <c r="E206" s="46" t="str">
+      <c r="B206" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="C206" s="43">
+        <v>72</v>
+      </c>
+      <c r="D206" s="43">
+        <v>75</v>
+      </c>
+      <c r="E206" s="44" t="str">
         <f>DEC2HEX(F206)</f>
-        <v>6E</v>
-      </c>
-      <c r="F206" s="46">
-        <v>110</v>
-      </c>
-      <c r="G206" s="46" t="str">
+        <v>6F</v>
+      </c>
+      <c r="F206" s="43">
+        <v>111</v>
+      </c>
+      <c r="G206" s="44" t="str">
         <f>CHAR(F206)</f>
-        <v>n</v>
-      </c>
-      <c r="H206" s="45"/>
+        <v>o</v>
+      </c>
+      <c r="H206" s="43"/>
       <c r="I206" s="4">
         <f>IF(ISBLANK(B206),D206-C206+1,0)</f>
         <v>0</v>
@@ -8526,30 +8478,30 @@
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="45" t="s">
+      <c r="A207" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B207" s="45" t="s">
-        <v>418</v>
-      </c>
-      <c r="C207" s="45">
-        <v>80</v>
-      </c>
-      <c r="D207" s="45">
-        <v>83</v>
-      </c>
-      <c r="E207" s="46" t="str">
+      <c r="B207" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C207" s="43">
+        <v>76</v>
+      </c>
+      <c r="D207" s="43">
+        <v>79</v>
+      </c>
+      <c r="E207" s="44" t="str">
         <f>DEC2HEX(F207)</f>
-        <v>6F</v>
-      </c>
-      <c r="F207" s="45">
-        <v>111</v>
-      </c>
-      <c r="G207" s="46" t="str">
+        <v>6E</v>
+      </c>
+      <c r="F207" s="44">
+        <v>110</v>
+      </c>
+      <c r="G207" s="44" t="str">
         <f>CHAR(F207)</f>
-        <v>o</v>
-      </c>
-      <c r="H207" s="45"/>
+        <v>n</v>
+      </c>
+      <c r="H207" s="43"/>
       <c r="I207" s="4">
         <f>IF(ISBLANK(B207),D207-C207+1,0)</f>
         <v>0</v>
@@ -8560,29 +8512,30 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B208" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C208" s="4">
-        <v>420</v>
-      </c>
-      <c r="D208" s="4">
-        <v>423</v>
-      </c>
-      <c r="E208" s="5" t="str">
+      <c r="B208" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C208" s="43">
+        <v>80</v>
+      </c>
+      <c r="D208" s="43">
+        <v>83</v>
+      </c>
+      <c r="E208" s="44" t="str">
         <f>DEC2HEX(F208)</f>
-        <v>49</v>
-      </c>
-      <c r="F208" s="5">
-        <v>73</v>
-      </c>
-      <c r="G208" s="5" t="str">
+        <v>6F</v>
+      </c>
+      <c r="F208" s="43">
+        <v>111</v>
+      </c>
+      <c r="G208" s="44" t="str">
         <f>CHAR(F208)</f>
-        <v>I</v>
-      </c>
+        <v>o</v>
+      </c>
+      <c r="H208" s="43"/>
       <c r="I208" s="4">
         <f>IF(ISBLANK(B208),D208-C208+1,0)</f>
         <v>0</v>
@@ -8597,24 +8550,24 @@
         <v>95</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>422</v>
+        <v>39</v>
       </c>
       <c r="C209" s="4">
-        <v>608</v>
+        <v>420</v>
       </c>
       <c r="D209" s="4">
-        <v>611</v>
+        <v>423</v>
       </c>
       <c r="E209" s="5" t="str">
         <f>DEC2HEX(F209)</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F209" s="5">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G209" s="5" t="str">
         <f>CHAR(F209)</f>
-        <v>B</v>
+        <v>I</v>
       </c>
       <c r="I209" s="4">
         <f>IF(ISBLANK(B209),D209-C209+1,0)</f>
@@ -8630,24 +8583,24 @@
         <v>95</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="C210" s="4">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D210" s="4">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E210" s="5" t="str">
         <f>DEC2HEX(F210)</f>
-        <v>C0</v>
+        <v>42</v>
       </c>
       <c r="F210" s="5">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="G210" s="5" t="str">
         <f>CHAR(F210)</f>
-        <v>À</v>
+        <v>B</v>
       </c>
       <c r="I210" s="4">
         <f>IF(ISBLANK(B210),D210-C210+1,0)</f>
@@ -8655,7 +8608,7 @@
       </c>
       <c r="J210" s="4">
         <f>IF(ISBLANK(B210),0,D210-C210+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -8663,24 +8616,24 @@
         <v>95</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="C211" s="4">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="D211" s="4">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="E211" s="5" t="str">
         <f>DEC2HEX(F211)</f>
-        <v>C1</v>
+        <v>C0</v>
       </c>
       <c r="F211" s="5">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G211" s="5" t="str">
         <f>CHAR(F211)</f>
-        <v>Á</v>
+        <v>À</v>
       </c>
       <c r="I211" s="4">
         <f>IF(ISBLANK(B211),D211-C211+1,0)</f>
@@ -8692,28 +8645,28 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="33" t="s">
+      <c r="A212" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B212" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="C212" s="33">
-        <v>884</v>
-      </c>
-      <c r="D212" s="33">
-        <v>887</v>
-      </c>
-      <c r="E212" s="34" t="str">
+      <c r="B212" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C212" s="4">
+        <v>628</v>
+      </c>
+      <c r="D212" s="4">
+        <v>635</v>
+      </c>
+      <c r="E212" s="5" t="str">
         <f>DEC2HEX(F212)</f>
-        <v>3A</v>
-      </c>
-      <c r="F212" s="34">
-        <v>58</v>
-      </c>
-      <c r="G212" s="34" t="str">
+        <v>C1</v>
+      </c>
+      <c r="F212" s="5">
+        <v>193</v>
+      </c>
+      <c r="G212" s="5" t="str">
         <f>CHAR(F212)</f>
-        <v>:</v>
+        <v>Á</v>
       </c>
       <c r="I212" s="4">
         <f>IF(ISBLANK(B212),D212-C212+1,0)</f>
@@ -8721,7 +8674,7 @@
       </c>
       <c r="J212" s="4">
         <f>IF(ISBLANK(B212),0,D212-C212+1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -8729,24 +8682,24 @@
         <v>95</v>
       </c>
       <c r="B213" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="C213" s="34">
-        <v>908</v>
-      </c>
-      <c r="D213" s="34">
-        <v>911</v>
+        <v>366</v>
+      </c>
+      <c r="C213" s="33">
+        <v>884</v>
+      </c>
+      <c r="D213" s="33">
+        <v>887</v>
       </c>
       <c r="E213" s="34" t="str">
         <f>DEC2HEX(F213)</f>
-        <v>BA</v>
+        <v>3A</v>
       </c>
       <c r="F213" s="34">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="G213" s="34" t="str">
         <f>CHAR(F213)</f>
-        <v>º</v>
+        <v>:</v>
       </c>
       <c r="I213" s="4">
         <f>IF(ISBLANK(B213),D213-C213+1,0)</f>
@@ -8762,24 +8715,24 @@
         <v>95</v>
       </c>
       <c r="B214" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C214" s="33">
-        <v>924</v>
-      </c>
-      <c r="D214" s="33">
-        <v>927</v>
+        <v>374</v>
+      </c>
+      <c r="C214" s="34">
+        <v>908</v>
+      </c>
+      <c r="D214" s="34">
+        <v>911</v>
       </c>
       <c r="E214" s="34" t="str">
         <f>DEC2HEX(F214)</f>
-        <v>3B</v>
+        <v>BA</v>
       </c>
       <c r="F214" s="34">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="G214" s="34" t="str">
         <f>CHAR(F214)</f>
-        <v>;</v>
+        <v>º</v>
       </c>
       <c r="I214" s="4">
         <f>IF(ISBLANK(B214),D214-C214+1,0)</f>
@@ -8795,24 +8748,24 @@
         <v>95</v>
       </c>
       <c r="B215" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C215" s="34">
-        <v>928</v>
-      </c>
-      <c r="D215" s="34">
-        <v>931</v>
+        <v>59</v>
+      </c>
+      <c r="C215" s="33">
+        <v>924</v>
+      </c>
+      <c r="D215" s="33">
+        <v>927</v>
       </c>
       <c r="E215" s="34" t="str">
         <f>DEC2HEX(F215)</f>
-        <v>B9</v>
+        <v>3B</v>
       </c>
       <c r="F215" s="34">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="G215" s="34" t="str">
         <f>CHAR(F215)</f>
-        <v>¹</v>
+        <v>;</v>
       </c>
       <c r="I215" s="4">
         <f>IF(ISBLANK(B215),D215-C215+1,0)</f>
@@ -8828,13 +8781,13 @@
         <v>95</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C216" s="33">
-        <v>956</v>
-      </c>
-      <c r="D216" s="33">
-        <v>959</v>
+        <v>373</v>
+      </c>
+      <c r="C216" s="34">
+        <v>928</v>
+      </c>
+      <c r="D216" s="34">
+        <v>931</v>
       </c>
       <c r="E216" s="34" t="str">
         <f>DEC2HEX(F216)</f>
@@ -8861,24 +8814,24 @@
         <v>95</v>
       </c>
       <c r="B217" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C217" s="33">
-        <v>976</v>
+        <v>956</v>
       </c>
       <c r="D217" s="33">
-        <v>979</v>
+        <v>959</v>
       </c>
       <c r="E217" s="34" t="str">
         <f>DEC2HEX(F217)</f>
-        <v>BA</v>
+        <v>B9</v>
       </c>
       <c r="F217" s="34">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G217" s="34" t="str">
         <f>CHAR(F217)</f>
-        <v>º</v>
+        <v>¹</v>
       </c>
       <c r="I217" s="4">
         <f>IF(ISBLANK(B217),D217-C217+1,0)</f>
@@ -8894,24 +8847,24 @@
         <v>95</v>
       </c>
       <c r="B218" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C218" s="33">
-        <v>996</v>
+        <v>976</v>
       </c>
       <c r="D218" s="33">
-        <v>999</v>
+        <v>979</v>
       </c>
       <c r="E218" s="34" t="str">
         <f>DEC2HEX(F218)</f>
-        <v>B9</v>
+        <v>BA</v>
       </c>
       <c r="F218" s="34">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G218" s="34" t="str">
         <f>CHAR(F218)</f>
-        <v>¹</v>
+        <v>º</v>
       </c>
       <c r="I218" s="4">
         <f>IF(ISBLANK(B218),D218-C218+1,0)</f>
@@ -8927,24 +8880,24 @@
         <v>95</v>
       </c>
       <c r="B219" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C219" s="33">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="D219" s="33">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="E219" s="34" t="str">
         <f>DEC2HEX(F219)</f>
-        <v>BA</v>
+        <v>B9</v>
       </c>
       <c r="F219" s="34">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G219" s="34" t="str">
         <f>CHAR(F219)</f>
-        <v>º</v>
+        <v>¹</v>
       </c>
       <c r="I219" s="4">
         <f>IF(ISBLANK(B219),D219-C219+1,0)</f>
@@ -8956,80 +8909,91 @@
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="48" t="s">
+      <c r="A220" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B220" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="C220" s="48"/>
-      <c r="D220" s="48"/>
-      <c r="E220" s="49" t="str">
+      <c r="B220" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C220" s="33">
+        <v>1008</v>
+      </c>
+      <c r="D220" s="33">
+        <v>1011</v>
+      </c>
+      <c r="E220" s="34" t="str">
         <f>DEC2HEX(F220)</f>
+        <v>BA</v>
+      </c>
+      <c r="F220" s="34">
+        <v>186</v>
+      </c>
+      <c r="G220" s="34" t="str">
+        <f>CHAR(F220)</f>
+        <v>º</v>
+      </c>
+      <c r="I220" s="4">
+        <f>IF(ISBLANK(B220),D220-C220+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J220" s="4">
+        <f>IF(ISBLANK(B220),0,D220-C220+1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B221" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="C221" s="46"/>
+      <c r="D221" s="46"/>
+      <c r="E221" s="47" t="str">
+        <f>DEC2HEX(F221)</f>
         <v>4A</v>
       </c>
-      <c r="F220" s="49">
+      <c r="F221" s="47">
         <v>74</v>
       </c>
-      <c r="G220" s="49" t="str">
-        <f>CHAR(F220)</f>
+      <c r="G221" s="47" t="str">
+        <f>CHAR(F221)</f>
         <v>J</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="48" t="s">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B221" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="C221" s="48"/>
-      <c r="D221" s="48"/>
-      <c r="E221" s="49" t="str">
-        <f>DEC2HEX(F221)</f>
+      <c r="B222" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="C222" s="46"/>
+      <c r="D222" s="46"/>
+      <c r="E222" s="47" t="str">
+        <f>DEC2HEX(F222)</f>
         <v>4B</v>
       </c>
-      <c r="F221" s="49">
+      <c r="F222" s="47">
         <v>75</v>
       </c>
-      <c r="G221" s="49" t="str">
-        <f>CHAR(F221)</f>
+      <c r="G222" s="47" t="str">
+        <f>CHAR(F222)</f>
         <v>K</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="42"/>
-      <c r="B222" s="42"/>
-      <c r="C222" s="42">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="40"/>
+      <c r="B223" s="40"/>
+      <c r="C223" s="40">
         <v>140</v>
       </c>
-      <c r="D222" s="42">
+      <c r="D223" s="40">
         <v>143</v>
       </c>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I222" s="4">
-        <f>IF(ISBLANK(B222),D222-C222+1,0)</f>
-        <v>4</v>
-      </c>
-      <c r="J222" s="4">
-        <f>IF(ISBLANK(B222),0,D222-C222+1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" s="42"/>
-      <c r="B223" s="42"/>
-      <c r="C223" s="42">
-        <v>144</v>
-      </c>
-      <c r="D223" s="42">
-        <v>147</v>
-      </c>
-      <c r="E223" s="4"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
       <c r="H223" s="4" t="s">
         <v>350</v>
       </c>
@@ -9043,17 +9007,15 @@
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" s="42"/>
-      <c r="B224" s="42"/>
-      <c r="C224" s="43">
-        <v>176</v>
-      </c>
-      <c r="D224" s="43">
-        <v>179</v>
-      </c>
-      <c r="E224" s="43"/>
-      <c r="F224" s="43"/>
-      <c r="G224" s="43"/>
+      <c r="A224" s="40"/>
+      <c r="B224" s="40"/>
+      <c r="C224" s="40">
+        <v>144</v>
+      </c>
+      <c r="D224" s="40">
+        <v>147</v>
+      </c>
+      <c r="E224" s="4"/>
       <c r="H224" s="4" t="s">
         <v>350</v>
       </c>
@@ -9067,17 +9029,17 @@
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="42"/>
-      <c r="B225" s="42"/>
-      <c r="C225" s="43">
-        <v>180</v>
-      </c>
-      <c r="D225" s="43">
-        <v>183</v>
-      </c>
-      <c r="E225" s="43"/>
-      <c r="F225" s="43"/>
-      <c r="G225" s="43"/>
+      <c r="A225" s="40"/>
+      <c r="B225" s="40"/>
+      <c r="C225" s="41">
+        <v>176</v>
+      </c>
+      <c r="D225" s="41">
+        <v>179</v>
+      </c>
+      <c r="E225" s="41"/>
+      <c r="F225" s="41"/>
+      <c r="G225" s="41"/>
       <c r="H225" s="4" t="s">
         <v>350</v>
       </c>
@@ -9091,17 +9053,17 @@
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="42"/>
-      <c r="B226" s="42"/>
-      <c r="C226" s="43">
-        <v>184</v>
-      </c>
-      <c r="D226" s="43">
-        <v>187</v>
-      </c>
-      <c r="E226" s="43"/>
-      <c r="F226" s="43"/>
-      <c r="G226" s="43"/>
+      <c r="A226" s="40"/>
+      <c r="B226" s="40"/>
+      <c r="C226" s="41">
+        <v>180</v>
+      </c>
+      <c r="D226" s="41">
+        <v>183</v>
+      </c>
+      <c r="E226" s="41"/>
+      <c r="F226" s="41"/>
+      <c r="G226" s="41"/>
       <c r="H226" s="4" t="s">
         <v>350</v>
       </c>
@@ -9115,17 +9077,17 @@
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="42"/>
-      <c r="B227" s="42"/>
-      <c r="C227" s="43">
-        <v>188</v>
-      </c>
-      <c r="D227" s="43">
-        <v>191</v>
-      </c>
-      <c r="E227" s="43"/>
-      <c r="F227" s="43"/>
-      <c r="G227" s="43"/>
+      <c r="A227" s="40"/>
+      <c r="B227" s="40"/>
+      <c r="C227" s="41">
+        <v>184</v>
+      </c>
+      <c r="D227" s="41">
+        <v>187</v>
+      </c>
+      <c r="E227" s="41"/>
+      <c r="F227" s="41"/>
+      <c r="G227" s="41"/>
       <c r="H227" s="4" t="s">
         <v>350</v>
       </c>
@@ -9137,17 +9099,19 @@
         <f>IF(ISBLANK(B227),0,D227-C227+1)</f>
         <v>0</v>
       </c>
-      <c r="L227" s="5"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B228" s="42"/>
-      <c r="C228" s="43">
-        <v>196</v>
-      </c>
-      <c r="D228" s="43">
-        <v>199</v>
-      </c>
-      <c r="E228" s="4"/>
+      <c r="A228" s="40"/>
+      <c r="B228" s="40"/>
+      <c r="C228" s="41">
+        <v>188</v>
+      </c>
+      <c r="D228" s="41">
+        <v>191</v>
+      </c>
+      <c r="E228" s="41"/>
+      <c r="F228" s="41"/>
+      <c r="G228" s="41"/>
       <c r="H228" s="4" t="s">
         <v>350</v>
       </c>
@@ -9159,14 +9123,15 @@
         <f>IF(ISBLANK(B228),0,D228-C228+1)</f>
         <v>0</v>
       </c>
+      <c r="L228" s="5"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B229" s="42"/>
-      <c r="C229" s="43">
-        <v>204</v>
-      </c>
-      <c r="D229" s="43">
-        <v>207</v>
+      <c r="B229" s="40"/>
+      <c r="C229" s="41">
+        <v>196</v>
+      </c>
+      <c r="D229" s="41">
+        <v>199</v>
       </c>
       <c r="E229" s="4"/>
       <c r="H229" s="4" t="s">
@@ -9182,13 +9147,12 @@
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230" s="42"/>
-      <c r="B230" s="42"/>
-      <c r="C230" s="43">
-        <v>216</v>
-      </c>
-      <c r="D230" s="43">
-        <v>223</v>
+      <c r="B230" s="40"/>
+      <c r="C230" s="41">
+        <v>204</v>
+      </c>
+      <c r="D230" s="41">
+        <v>207</v>
       </c>
       <c r="E230" s="4"/>
       <c r="H230" s="4" t="s">
@@ -9196,7 +9160,7 @@
       </c>
       <c r="I230" s="4">
         <f>IF(ISBLANK(B230),D230-C230+1,0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J230" s="4">
         <f>IF(ISBLANK(B230),0,D230-C230+1)</f>
@@ -9204,22 +9168,21 @@
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="42"/>
-      <c r="B231" s="42"/>
-      <c r="C231" s="42">
-        <v>264</v>
-      </c>
-      <c r="D231" s="42">
-        <v>267</v>
-      </c>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
+      <c r="A231" s="40"/>
+      <c r="B231" s="40"/>
+      <c r="C231" s="41">
+        <v>216</v>
+      </c>
+      <c r="D231" s="41">
+        <v>223</v>
+      </c>
+      <c r="E231" s="4"/>
       <c r="H231" s="4" t="s">
         <v>350</v>
       </c>
       <c r="I231" s="4">
         <f>IF(ISBLANK(B231),D231-C231+1,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J231" s="4">
         <f>IF(ISBLANK(B231),0,D231-C231+1)</f>
@@ -9227,37 +9190,36 @@
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="42"/>
-      <c r="B232" s="42"/>
-      <c r="C232" s="43">
-        <v>316</v>
-      </c>
-      <c r="D232" s="43">
-        <v>323</v>
-      </c>
-      <c r="E232" s="4"/>
+      <c r="A232" s="40"/>
+      <c r="B232" s="40"/>
+      <c r="C232" s="40">
+        <v>264</v>
+      </c>
+      <c r="D232" s="40">
+        <v>267</v>
+      </c>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
       <c r="H232" s="4" t="s">
         <v>350</v>
       </c>
       <c r="I232" s="4">
         <f>IF(ISBLANK(B232),D232-C232+1,0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J232" s="4">
         <f>IF(ISBLANK(B232),0,D232-C232+1)</f>
         <v>0</v>
       </c>
-      <c r="K232" s="5"/>
-      <c r="L232" s="5"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="42"/>
-      <c r="B233" s="42"/>
-      <c r="C233" s="43">
-        <v>332</v>
-      </c>
-      <c r="D233" s="43">
-        <v>339</v>
+      <c r="A233" s="40"/>
+      <c r="B233" s="40"/>
+      <c r="C233" s="41">
+        <v>316</v>
+      </c>
+      <c r="D233" s="41">
+        <v>323</v>
       </c>
       <c r="E233" s="4"/>
       <c r="H233" s="4" t="s">
@@ -9271,24 +9233,25 @@
         <f>IF(ISBLANK(B233),0,D233-C233+1)</f>
         <v>0</v>
       </c>
+      <c r="K233" s="5"/>
+      <c r="L233" s="5"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="42"/>
-      <c r="B234" s="42"/>
-      <c r="C234" s="43">
-        <v>348</v>
-      </c>
-      <c r="D234" s="43">
-        <v>351</v>
-      </c>
-      <c r="F234" s="5"/>
-      <c r="G234" s="5"/>
+      <c r="A234" s="40"/>
+      <c r="B234" s="40"/>
+      <c r="C234" s="41">
+        <v>332</v>
+      </c>
+      <c r="D234" s="41">
+        <v>339</v>
+      </c>
+      <c r="E234" s="4"/>
       <c r="H234" s="4" t="s">
         <v>350</v>
       </c>
       <c r="I234" s="4">
         <f>IF(ISBLANK(B234),D234-C234+1,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J234" s="4">
         <f>IF(ISBLANK(B234),0,D234-C234+1)</f>
@@ -9296,13 +9259,13 @@
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="42"/>
-      <c r="B235" s="42"/>
-      <c r="C235" s="43">
-        <v>372</v>
-      </c>
-      <c r="D235" s="43">
-        <v>379</v>
+      <c r="A235" s="40"/>
+      <c r="B235" s="40"/>
+      <c r="C235" s="41">
+        <v>348</v>
+      </c>
+      <c r="D235" s="41">
+        <v>351</v>
       </c>
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
@@ -9311,7 +9274,7 @@
       </c>
       <c r="I235" s="4">
         <f>IF(ISBLANK(B235),D235-C235+1,0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J235" s="4">
         <f>IF(ISBLANK(B235),0,D235-C235+1)</f>
@@ -9319,15 +9282,16 @@
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="42"/>
-      <c r="B236" s="42"/>
-      <c r="C236" s="43">
-        <v>396</v>
-      </c>
-      <c r="D236" s="43">
-        <v>403</v>
-      </c>
-      <c r="E236" s="4"/>
+      <c r="A236" s="40"/>
+      <c r="B236" s="40"/>
+      <c r="C236" s="41">
+        <v>372</v>
+      </c>
+      <c r="D236" s="41">
+        <v>379</v>
+      </c>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
       <c r="H236" s="4" t="s">
         <v>350</v>
       </c>
@@ -9341,13 +9305,13 @@
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="42"/>
-      <c r="B237" s="42"/>
-      <c r="C237" s="42">
-        <v>404</v>
-      </c>
-      <c r="D237" s="42">
-        <v>407</v>
+      <c r="A237" s="40"/>
+      <c r="B237" s="40"/>
+      <c r="C237" s="41">
+        <v>396</v>
+      </c>
+      <c r="D237" s="41">
+        <v>403</v>
       </c>
       <c r="E237" s="4"/>
       <c r="H237" s="4" t="s">
@@ -9355,7 +9319,7 @@
       </c>
       <c r="I237" s="4">
         <f>IF(ISBLANK(B237),D237-C237+1,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J237" s="4">
         <f>IF(ISBLANK(B237),0,D237-C237+1)</f>
@@ -9363,16 +9327,15 @@
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A238" s="42"/>
-      <c r="B238" s="42"/>
-      <c r="C238" s="42">
-        <v>428</v>
-      </c>
-      <c r="D238" s="43">
-        <v>431</v>
-      </c>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
+      <c r="A238" s="40"/>
+      <c r="B238" s="40"/>
+      <c r="C238" s="40">
+        <v>404</v>
+      </c>
+      <c r="D238" s="40">
+        <v>407</v>
+      </c>
+      <c r="E238" s="4"/>
       <c r="H238" s="4" t="s">
         <v>350</v>
       </c>
@@ -9386,13 +9349,13 @@
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A239" s="42"/>
-      <c r="B239" s="42"/>
-      <c r="C239" s="42">
-        <v>440</v>
-      </c>
-      <c r="D239" s="42">
-        <v>443</v>
+      <c r="A239" s="40"/>
+      <c r="B239" s="40"/>
+      <c r="C239" s="40">
+        <v>428</v>
+      </c>
+      <c r="D239" s="41">
+        <v>431</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
@@ -9409,21 +9372,22 @@
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A240" s="42"/>
-      <c r="B240" s="42"/>
-      <c r="C240" s="42">
-        <v>500</v>
-      </c>
-      <c r="D240" s="42">
-        <v>507</v>
-      </c>
-      <c r="E240" s="4"/>
+      <c r="A240" s="40"/>
+      <c r="B240" s="40"/>
+      <c r="C240" s="40">
+        <v>440</v>
+      </c>
+      <c r="D240" s="40">
+        <v>443</v>
+      </c>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
       <c r="H240" s="4" t="s">
         <v>350</v>
       </c>
       <c r="I240" s="4">
         <f>IF(ISBLANK(B240),D240-C240+1,0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J240" s="4">
         <f>IF(ISBLANK(B240),0,D240-C240+1)</f>
@@ -9431,22 +9395,21 @@
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" s="42"/>
-      <c r="B241" s="42"/>
-      <c r="C241" s="43">
-        <v>508</v>
-      </c>
-      <c r="D241" s="43">
-        <v>511</v>
-      </c>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
+      <c r="A241" s="40"/>
+      <c r="B241" s="40"/>
+      <c r="C241" s="40">
+        <v>500</v>
+      </c>
+      <c r="D241" s="40">
+        <v>507</v>
+      </c>
+      <c r="E241" s="4"/>
       <c r="H241" s="4" t="s">
         <v>350</v>
       </c>
       <c r="I241" s="4">
         <f>IF(ISBLANK(B241),D241-C241+1,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J241" s="4">
         <f>IF(ISBLANK(B241),0,D241-C241+1)</f>
@@ -9454,13 +9417,13 @@
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" s="42"/>
-      <c r="B242" s="42"/>
-      <c r="C242" s="42">
-        <v>536</v>
-      </c>
-      <c r="D242" s="42">
-        <v>539</v>
+      <c r="A242" s="40"/>
+      <c r="B242" s="40"/>
+      <c r="C242" s="41">
+        <v>508</v>
+      </c>
+      <c r="D242" s="41">
+        <v>511</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
@@ -9477,13 +9440,13 @@
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A243" s="42"/>
-      <c r="B243" s="42"/>
-      <c r="C243" s="43">
-        <v>588</v>
-      </c>
-      <c r="D243" s="43">
-        <v>591</v>
+      <c r="A243" s="40"/>
+      <c r="B243" s="40"/>
+      <c r="C243" s="40">
+        <v>536</v>
+      </c>
+      <c r="D243" s="40">
+        <v>539</v>
       </c>
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
@@ -9500,13 +9463,13 @@
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="42"/>
-      <c r="B244" s="42"/>
-      <c r="C244" s="43">
-        <v>644</v>
-      </c>
-      <c r="D244" s="43">
-        <v>667</v>
+      <c r="A244" s="40"/>
+      <c r="B244" s="40"/>
+      <c r="C244" s="41">
+        <v>588</v>
+      </c>
+      <c r="D244" s="41">
+        <v>591</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
@@ -9515,7 +9478,7 @@
       </c>
       <c r="I244" s="4">
         <f>IF(ISBLANK(B244),D244-C244+1,0)</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J244" s="4">
         <f>IF(ISBLANK(B244),0,D244-C244+1)</f>
@@ -9523,13 +9486,13 @@
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" s="42"/>
-      <c r="B245" s="42"/>
-      <c r="C245" s="43">
-        <v>704</v>
-      </c>
-      <c r="D245" s="43">
-        <v>707</v>
+      <c r="A245" s="40"/>
+      <c r="B245" s="40"/>
+      <c r="C245" s="41">
+        <v>644</v>
+      </c>
+      <c r="D245" s="41">
+        <v>667</v>
       </c>
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
@@ -9538,7 +9501,7 @@
       </c>
       <c r="I245" s="4">
         <f>IF(ISBLANK(B245),D245-C245+1,0)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J245" s="4">
         <f>IF(ISBLANK(B245),0,D245-C245+1)</f>
@@ -9546,18 +9509,17 @@
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="42"/>
-      <c r="B246" s="42"/>
-      <c r="C246" s="42">
-        <v>916</v>
-      </c>
-      <c r="D246" s="42">
-        <v>919</v>
-      </c>
-      <c r="E246" s="43"/>
-      <c r="F246" s="43"/>
-      <c r="G246" s="43"/>
-      <c r="H246" s="42" t="s">
+      <c r="A246" s="40"/>
+      <c r="B246" s="40"/>
+      <c r="C246" s="41">
+        <v>704</v>
+      </c>
+      <c r="D246" s="41">
+        <v>707</v>
+      </c>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="4" t="s">
         <v>350</v>
       </c>
       <c r="I246" s="4">
@@ -9570,18 +9532,18 @@
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="42"/>
-      <c r="B247" s="42"/>
-      <c r="C247" s="42">
-        <v>920</v>
-      </c>
-      <c r="D247" s="42">
-        <v>923</v>
-      </c>
-      <c r="E247" s="43"/>
-      <c r="F247" s="43"/>
-      <c r="G247" s="43"/>
-      <c r="H247" s="42" t="s">
+      <c r="A247" s="40"/>
+      <c r="B247" s="40"/>
+      <c r="C247" s="40">
+        <v>916</v>
+      </c>
+      <c r="D247" s="40">
+        <v>919</v>
+      </c>
+      <c r="E247" s="41"/>
+      <c r="F247" s="41"/>
+      <c r="G247" s="41"/>
+      <c r="H247" s="40" t="s">
         <v>350</v>
       </c>
       <c r="I247" s="4">
@@ -9594,223 +9556,227 @@
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="53"/>
-      <c r="B248" s="53"/>
-      <c r="C248" s="53"/>
-      <c r="D248" s="53"/>
-      <c r="E248" s="52" t="str">
-        <f>DEC2HEX(F248)</f>
+      <c r="A248" s="40"/>
+      <c r="B248" s="40"/>
+      <c r="C248" s="40">
+        <v>920</v>
+      </c>
+      <c r="D248" s="40">
+        <v>923</v>
+      </c>
+      <c r="E248" s="41"/>
+      <c r="F248" s="41"/>
+      <c r="G248" s="41"/>
+      <c r="H248" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="I248" s="4">
+        <f>IF(ISBLANK(B248),D248-C248+1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="J248" s="4">
+        <f>IF(ISBLANK(B248),0,D248-C248+1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="51"/>
+      <c r="B249" s="51"/>
+      <c r="C249" s="51"/>
+      <c r="D249" s="51"/>
+      <c r="E249" s="50" t="str">
+        <f>DEC2HEX(F249)</f>
         <v>21</v>
       </c>
-      <c r="F248" s="52">
+      <c r="F249" s="50">
         <v>33</v>
       </c>
-      <c r="G248" s="52" t="str">
-        <f>CHAR(F248)</f>
+      <c r="G249" s="50" t="str">
+        <f>CHAR(F249)</f>
         <v>!</v>
       </c>
-      <c r="H248" s="53" t="s">
+      <c r="H249" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="53"/>
-      <c r="B249" s="53"/>
-      <c r="C249" s="53"/>
-      <c r="D249" s="53"/>
-      <c r="E249" s="52" t="str">
-        <f>DEC2HEX(F249)</f>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="51"/>
+      <c r="B250" s="51"/>
+      <c r="C250" s="51"/>
+      <c r="D250" s="51"/>
+      <c r="E250" s="50" t="str">
+        <f>DEC2HEX(F250)</f>
         <v>22</v>
       </c>
-      <c r="F249" s="52">
+      <c r="F250" s="50">
         <v>34</v>
       </c>
-      <c r="G249" s="52" t="str">
-        <f>CHAR(F249)</f>
+      <c r="G250" s="50" t="str">
+        <f>CHAR(F250)</f>
         <v>"</v>
       </c>
-      <c r="H249" s="53" t="s">
+      <c r="H250" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="53"/>
-      <c r="B250" s="53"/>
-      <c r="C250" s="53"/>
-      <c r="D250" s="53"/>
-      <c r="E250" s="52" t="str">
-        <f>DEC2HEX(F250)</f>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="51"/>
+      <c r="B251" s="51"/>
+      <c r="C251" s="51"/>
+      <c r="D251" s="51"/>
+      <c r="E251" s="50" t="str">
+        <f>DEC2HEX(F251)</f>
         <v>23</v>
       </c>
-      <c r="F250" s="52">
+      <c r="F251" s="50">
         <v>35</v>
       </c>
-      <c r="G250" s="52" t="str">
-        <f>CHAR(F250)</f>
+      <c r="G251" s="50" t="str">
+        <f>CHAR(F251)</f>
         <v>#</v>
       </c>
-      <c r="H250" s="53" t="s">
+      <c r="H251" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="53"/>
-      <c r="B251" s="53"/>
-      <c r="C251" s="53"/>
-      <c r="D251" s="53"/>
-      <c r="E251" s="52" t="str">
-        <f>DEC2HEX(F251)</f>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="51"/>
+      <c r="B252" s="51"/>
+      <c r="C252" s="51"/>
+      <c r="D252" s="51"/>
+      <c r="E252" s="50" t="str">
+        <f>DEC2HEX(F252)</f>
         <v>24</v>
       </c>
-      <c r="F251" s="52">
+      <c r="F252" s="50">
         <v>36</v>
       </c>
-      <c r="G251" s="52" t="str">
-        <f>CHAR(F251)</f>
+      <c r="G252" s="50" t="str">
+        <f>CHAR(F252)</f>
         <v>$</v>
       </c>
-      <c r="H251" s="53" t="s">
+      <c r="H252" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="53"/>
-      <c r="B252" s="53"/>
-      <c r="C252" s="53"/>
-      <c r="D252" s="53"/>
-      <c r="E252" s="52" t="str">
-        <f>DEC2HEX(F252)</f>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="51"/>
+      <c r="B253" s="51"/>
+      <c r="C253" s="51"/>
+      <c r="D253" s="51"/>
+      <c r="E253" s="50" t="str">
+        <f>DEC2HEX(F253)</f>
         <v>25</v>
       </c>
-      <c r="F252" s="52">
+      <c r="F253" s="50">
         <v>37</v>
       </c>
-      <c r="G252" s="52" t="str">
-        <f>CHAR(F252)</f>
+      <c r="G253" s="50" t="str">
+        <f>CHAR(F253)</f>
         <v>%</v>
       </c>
-      <c r="H252" s="53" t="s">
+      <c r="H253" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="53"/>
-      <c r="B253" s="53"/>
-      <c r="C253" s="53"/>
-      <c r="D253" s="53"/>
-      <c r="E253" s="52" t="str">
-        <f>DEC2HEX(F253)</f>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="51"/>
+      <c r="B254" s="51"/>
+      <c r="C254" s="51"/>
+      <c r="D254" s="51"/>
+      <c r="E254" s="50" t="str">
+        <f>DEC2HEX(F254)</f>
         <v>26</v>
       </c>
-      <c r="F253" s="52">
+      <c r="F254" s="50">
         <v>38</v>
       </c>
-      <c r="G253" s="52" t="str">
-        <f>CHAR(F253)</f>
+      <c r="G254" s="50" t="str">
+        <f>CHAR(F254)</f>
         <v>&amp;</v>
       </c>
-      <c r="H253" s="53" t="s">
+      <c r="H254" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="53"/>
-      <c r="B254" s="53"/>
-      <c r="C254" s="53"/>
-      <c r="D254" s="53"/>
-      <c r="E254" s="52" t="str">
-        <f>DEC2HEX(F254)</f>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="51"/>
+      <c r="B255" s="51"/>
+      <c r="C255" s="51"/>
+      <c r="D255" s="51"/>
+      <c r="E255" s="50" t="str">
+        <f>DEC2HEX(F255)</f>
         <v>27</v>
       </c>
-      <c r="F254" s="52">
+      <c r="F255" s="50">
         <v>39</v>
       </c>
-      <c r="G254" s="52" t="str">
-        <f>CHAR(F254)</f>
+      <c r="G255" s="50" t="str">
+        <f>CHAR(F255)</f>
         <v>'</v>
       </c>
-      <c r="H254" s="53" t="s">
+      <c r="H255" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="53"/>
-      <c r="B255" s="53"/>
-      <c r="C255" s="53"/>
-      <c r="D255" s="53"/>
-      <c r="E255" s="52" t="str">
-        <f>DEC2HEX(F255)</f>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="51"/>
+      <c r="B256" s="51"/>
+      <c r="C256" s="51"/>
+      <c r="D256" s="51"/>
+      <c r="E256" s="50" t="str">
+        <f>DEC2HEX(F256)</f>
         <v>28</v>
       </c>
-      <c r="F255" s="52">
+      <c r="F256" s="50">
         <v>40</v>
       </c>
-      <c r="G255" s="52" t="str">
-        <f>CHAR(F255)</f>
+      <c r="G256" s="50" t="str">
+        <f>CHAR(F256)</f>
         <v>(</v>
       </c>
-      <c r="H255" s="53" t="s">
+      <c r="H256" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="53"/>
-      <c r="B256" s="53"/>
-      <c r="C256" s="53"/>
-      <c r="D256" s="53"/>
-      <c r="E256" s="52" t="str">
-        <f>DEC2HEX(F256)</f>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="51"/>
+      <c r="B257" s="51"/>
+      <c r="C257" s="51"/>
+      <c r="D257" s="51"/>
+      <c r="E257" s="50" t="str">
+        <f>DEC2HEX(F257)</f>
         <v>29</v>
       </c>
-      <c r="F256" s="52">
+      <c r="F257" s="50">
         <v>41</v>
       </c>
-      <c r="G256" s="52" t="str">
-        <f>CHAR(F256)</f>
+      <c r="G257" s="50" t="str">
+        <f>CHAR(F257)</f>
         <v>)</v>
       </c>
-      <c r="H256" s="53" t="s">
+      <c r="H257" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="53"/>
-      <c r="B257" s="53"/>
-      <c r="C257" s="53"/>
-      <c r="D257" s="53"/>
-      <c r="E257" s="52" t="str">
-        <f>DEC2HEX(F257)</f>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="51"/>
+      <c r="B258" s="51"/>
+      <c r="C258" s="51"/>
+      <c r="D258" s="51"/>
+      <c r="E258" s="50" t="str">
+        <f>DEC2HEX(F258)</f>
         <v>2A</v>
       </c>
-      <c r="F257" s="52">
+      <c r="F258" s="50">
         <v>42</v>
       </c>
-      <c r="G257" s="52" t="str">
-        <f>CHAR(F257)</f>
+      <c r="G258" s="50" t="str">
+        <f>CHAR(F258)</f>
         <v>*</v>
       </c>
-      <c r="H257" s="53" t="s">
+      <c r="H258" s="51" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="2" t="str">
-        <f>DEC2HEX(F258)</f>
-        <v>2F</v>
-      </c>
-      <c r="F258" s="2">
-        <v>47</v>
-      </c>
-      <c r="G258" s="2" t="str">
-        <f>CHAR(F258)</f>
-        <v>/</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -9820,14 +9786,14 @@
       <c r="D259" s="1"/>
       <c r="E259" s="2" t="str">
         <f>DEC2HEX(F259)</f>
-        <v>30</v>
+        <v>2F</v>
       </c>
       <c r="F259" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G259" s="2" t="str">
         <f>CHAR(F259)</f>
-        <v>0</v>
+        <v>/</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>135</v>
@@ -9840,14 +9806,14 @@
       <c r="D260" s="1"/>
       <c r="E260" s="2" t="str">
         <f>DEC2HEX(F260)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F260" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G260" s="2" t="str">
         <f>CHAR(F260)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>135</v>
@@ -9860,14 +9826,14 @@
       <c r="D261" s="1"/>
       <c r="E261" s="2" t="str">
         <f>DEC2HEX(F261)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F261" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G261" s="2" t="str">
         <f>CHAR(F261)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>135</v>
@@ -9880,14 +9846,14 @@
       <c r="D262" s="1"/>
       <c r="E262" s="2" t="str">
         <f>DEC2HEX(F262)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F262" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G262" s="2" t="str">
         <f>CHAR(F262)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>135</v>
@@ -9900,14 +9866,14 @@
       <c r="D263" s="1"/>
       <c r="E263" s="2" t="str">
         <f>DEC2HEX(F263)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F263" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G263" s="2" t="str">
         <f>CHAR(F263)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>135</v>
@@ -9920,14 +9886,14 @@
       <c r="D264" s="1"/>
       <c r="E264" s="2" t="str">
         <f>DEC2HEX(F264)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F264" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G264" s="2" t="str">
         <f>CHAR(F264)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>135</v>
@@ -9940,14 +9906,14 @@
       <c r="D265" s="1"/>
       <c r="E265" s="2" t="str">
         <f>DEC2HEX(F265)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F265" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G265" s="2" t="str">
         <f>CHAR(F265)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>135</v>
@@ -9960,14 +9926,14 @@
       <c r="D266" s="1"/>
       <c r="E266" s="2" t="str">
         <f>DEC2HEX(F266)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F266" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G266" s="2" t="str">
         <f>CHAR(F266)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>135</v>
@@ -9980,14 +9946,14 @@
       <c r="D267" s="1"/>
       <c r="E267" s="2" t="str">
         <f>DEC2HEX(F267)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F267" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G267" s="2" t="str">
         <f>CHAR(F267)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>135</v>
@@ -10000,402 +9966,403 @@
       <c r="D268" s="1"/>
       <c r="E268" s="2" t="str">
         <f>DEC2HEX(F268)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F268" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G268" s="2" t="str">
         <f>CHAR(F268)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="53"/>
-      <c r="B269" s="53"/>
-      <c r="C269" s="53"/>
-      <c r="D269" s="53"/>
-      <c r="E269" s="52" t="str">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="2" t="str">
         <f>DEC2HEX(F269)</f>
+        <v>39</v>
+      </c>
+      <c r="F269" s="2">
+        <v>57</v>
+      </c>
+      <c r="G269" s="2" t="str">
+        <f>CHAR(F269)</f>
+        <v>9</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="51"/>
+      <c r="B270" s="51"/>
+      <c r="C270" s="51"/>
+      <c r="D270" s="51"/>
+      <c r="E270" s="50" t="str">
+        <f>DEC2HEX(F270)</f>
         <v>3C</v>
       </c>
-      <c r="F269" s="52">
+      <c r="F270" s="50">
         <v>60</v>
       </c>
-      <c r="G269" s="52" t="str">
-        <f>CHAR(F269)</f>
+      <c r="G270" s="50" t="str">
+        <f>CHAR(F270)</f>
         <v>&lt;</v>
       </c>
-      <c r="H269" s="53" t="s">
+      <c r="H270" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="53"/>
-      <c r="B270" s="53"/>
-      <c r="C270" s="52"/>
-      <c r="D270" s="52"/>
-      <c r="E270" s="52" t="str">
-        <f>DEC2HEX(F270)</f>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="51"/>
+      <c r="B271" s="51"/>
+      <c r="C271" s="50"/>
+      <c r="D271" s="50"/>
+      <c r="E271" s="50" t="str">
+        <f>DEC2HEX(F271)</f>
         <v>3E</v>
       </c>
-      <c r="F270" s="52">
+      <c r="F271" s="50">
         <v>62</v>
       </c>
-      <c r="G270" s="52" t="str">
-        <f>CHAR(F270)</f>
+      <c r="G271" s="50" t="str">
+        <f>CHAR(F271)</f>
         <v>&gt;</v>
       </c>
-      <c r="H270" s="53" t="s">
+      <c r="H271" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="53"/>
-      <c r="B271" s="53"/>
-      <c r="C271" s="53"/>
-      <c r="D271" s="53"/>
-      <c r="E271" s="52" t="str">
-        <f>DEC2HEX(F271)</f>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="51"/>
+      <c r="B272" s="51"/>
+      <c r="C272" s="51"/>
+      <c r="D272" s="51"/>
+      <c r="E272" s="50" t="str">
+        <f>DEC2HEX(F272)</f>
         <v>3F</v>
       </c>
-      <c r="F271" s="52">
+      <c r="F272" s="50">
         <v>63</v>
       </c>
-      <c r="G271" s="52" t="str">
-        <f>CHAR(F271)</f>
+      <c r="G272" s="50" t="str">
+        <f>CHAR(F272)</f>
         <v>?</v>
       </c>
-      <c r="H271" s="53" t="s">
+      <c r="H272" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="53"/>
-      <c r="B272" s="53"/>
-      <c r="C272" s="52"/>
-      <c r="D272" s="52"/>
-      <c r="E272" s="52" t="str">
-        <f>DEC2HEX(F272)</f>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="51"/>
+      <c r="B273" s="51"/>
+      <c r="C273" s="50"/>
+      <c r="D273" s="50"/>
+      <c r="E273" s="50" t="str">
+        <f>DEC2HEX(F273)</f>
         <v>44</v>
       </c>
-      <c r="F272" s="52">
+      <c r="F273" s="50">
         <v>68</v>
       </c>
-      <c r="G272" s="52" t="str">
-        <f>CHAR(F272)</f>
+      <c r="G273" s="50" t="str">
+        <f>CHAR(F273)</f>
         <v>D</v>
       </c>
-      <c r="H272" s="53" t="s">
+      <c r="H273" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="53"/>
-      <c r="B273" s="53"/>
-      <c r="C273" s="53"/>
-      <c r="D273" s="53"/>
-      <c r="E273" s="52" t="str">
-        <f>DEC2HEX(F273)</f>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="51"/>
+      <c r="B274" s="51"/>
+      <c r="C274" s="51"/>
+      <c r="D274" s="51"/>
+      <c r="E274" s="50" t="str">
+        <f>DEC2HEX(F274)</f>
         <v>47</v>
       </c>
-      <c r="F273" s="52">
+      <c r="F274" s="50">
         <v>71</v>
       </c>
-      <c r="G273" s="52" t="str">
-        <f>CHAR(F273)</f>
+      <c r="G274" s="50" t="str">
+        <f>CHAR(F274)</f>
         <v>G</v>
       </c>
-      <c r="H273" s="53" t="s">
+      <c r="H274" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="53"/>
-      <c r="B274" s="53"/>
-      <c r="C274" s="52"/>
-      <c r="D274" s="52"/>
-      <c r="E274" s="52" t="str">
-        <f>DEC2HEX(F274)</f>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="51"/>
+      <c r="B275" s="51"/>
+      <c r="C275" s="50"/>
+      <c r="D275" s="50"/>
+      <c r="E275" s="50" t="str">
+        <f>DEC2HEX(F275)</f>
         <v>4F</v>
       </c>
-      <c r="F274" s="52">
+      <c r="F275" s="50">
         <v>79</v>
       </c>
-      <c r="G274" s="52" t="str">
-        <f>CHAR(F274)</f>
+      <c r="G275" s="50" t="str">
+        <f>CHAR(F275)</f>
         <v>O</v>
       </c>
-      <c r="H274" s="53" t="s">
+      <c r="H275" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="53"/>
-      <c r="B275" s="53"/>
-      <c r="C275" s="53"/>
-      <c r="D275" s="53"/>
-      <c r="E275" s="52" t="str">
-        <f>DEC2HEX(F275)</f>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="51"/>
+      <c r="B276" s="51"/>
+      <c r="C276" s="51"/>
+      <c r="D276" s="51"/>
+      <c r="E276" s="50" t="str">
+        <f>DEC2HEX(F276)</f>
         <v>53</v>
       </c>
-      <c r="F275" s="52">
+      <c r="F276" s="50">
         <v>83</v>
       </c>
-      <c r="G275" s="52" t="str">
-        <f>CHAR(F275)</f>
+      <c r="G276" s="50" t="str">
+        <f>CHAR(F276)</f>
         <v>S</v>
       </c>
-      <c r="H275" s="53" t="s">
+      <c r="H276" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="53"/>
-      <c r="B276" s="53"/>
-      <c r="C276" s="53"/>
-      <c r="D276" s="53"/>
-      <c r="E276" s="52" t="str">
-        <f>DEC2HEX(F276)</f>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="51"/>
+      <c r="B277" s="51"/>
+      <c r="C277" s="51"/>
+      <c r="D277" s="51"/>
+      <c r="E277" s="50" t="str">
+        <f>DEC2HEX(F277)</f>
         <v>56</v>
       </c>
-      <c r="F276" s="52">
+      <c r="F277" s="50">
         <v>86</v>
       </c>
-      <c r="G276" s="52" t="str">
-        <f>CHAR(F276)</f>
+      <c r="G277" s="50" t="str">
+        <f>CHAR(F277)</f>
         <v>V</v>
       </c>
-      <c r="H276" s="53" t="s">
+      <c r="H277" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="53"/>
-      <c r="B277" s="53"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="2" t="str">
-        <f>DEC2HEX(F277)</f>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="51"/>
+      <c r="B278" s="51"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="2" t="str">
+        <f>DEC2HEX(F278)</f>
         <v>5C</v>
       </c>
-      <c r="F277" s="2">
+      <c r="F278" s="2">
         <v>92</v>
       </c>
-      <c r="G277" s="2" t="str">
-        <f>CHAR(F277)</f>
+      <c r="G278" s="2" t="str">
+        <f>CHAR(F278)</f>
         <v>\</v>
       </c>
-      <c r="H277" s="1" t="s">
+      <c r="H278" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="53"/>
-      <c r="B278" s="53"/>
-      <c r="C278" s="52"/>
-      <c r="D278" s="52"/>
-      <c r="E278" s="52" t="str">
-        <f>DEC2HEX(F278)</f>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="51"/>
+      <c r="B279" s="51"/>
+      <c r="C279" s="50"/>
+      <c r="D279" s="50"/>
+      <c r="E279" s="50" t="str">
+        <f>DEC2HEX(F279)</f>
         <v>5D</v>
       </c>
-      <c r="F278" s="52">
+      <c r="F279" s="50">
         <v>93</v>
       </c>
-      <c r="G278" s="52" t="str">
-        <f>CHAR(F278)</f>
+      <c r="G279" s="50" t="str">
+        <f>CHAR(F279)</f>
         <v>]</v>
       </c>
-      <c r="H278" s="53" t="s">
+      <c r="H279" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="53"/>
-      <c r="B279" s="53"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="2" t="str">
-        <f>DEC2HEX(F279)</f>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="51"/>
+      <c r="B280" s="51"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="2" t="str">
+        <f>DEC2HEX(F280)</f>
         <v>60</v>
       </c>
-      <c r="F279" s="2">
+      <c r="F280" s="2">
         <v>96</v>
       </c>
-      <c r="G279" s="2" t="str">
-        <f>CHAR(F279)</f>
+      <c r="G280" s="2" t="str">
+        <f>CHAR(F280)</f>
         <v>`</v>
       </c>
-      <c r="H279" s="1" t="s">
+      <c r="H280" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="53"/>
-      <c r="B280" s="53"/>
-      <c r="C280" s="53"/>
-      <c r="D280" s="53"/>
-      <c r="E280" s="52" t="str">
-        <f>DEC2HEX(F280)</f>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="51"/>
+      <c r="B281" s="51"/>
+      <c r="C281" s="51"/>
+      <c r="D281" s="51"/>
+      <c r="E281" s="50" t="str">
+        <f>DEC2HEX(F281)</f>
         <v>61</v>
       </c>
-      <c r="F280" s="52">
+      <c r="F281" s="50">
         <v>97</v>
       </c>
-      <c r="G280" s="52" t="str">
-        <f>CHAR(F280)</f>
+      <c r="G281" s="50" t="str">
+        <f>CHAR(F281)</f>
         <v>a</v>
       </c>
-      <c r="H280" s="53" t="s">
+      <c r="H281" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="53"/>
-      <c r="B281" s="53"/>
-      <c r="C281" s="53"/>
-      <c r="D281" s="53"/>
-      <c r="E281" s="52" t="str">
-        <f>DEC2HEX(F281)</f>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="51"/>
+      <c r="B282" s="51"/>
+      <c r="C282" s="51"/>
+      <c r="D282" s="51"/>
+      <c r="E282" s="50" t="str">
+        <f>DEC2HEX(F282)</f>
         <v>67</v>
       </c>
-      <c r="F281" s="52">
+      <c r="F282" s="50">
         <v>103</v>
       </c>
-      <c r="G281" s="52" t="str">
-        <f>CHAR(F281)</f>
+      <c r="G282" s="50" t="str">
+        <f>CHAR(F282)</f>
         <v>g</v>
       </c>
-      <c r="H281" s="53" t="s">
+      <c r="H282" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="53"/>
-      <c r="B282" s="53"/>
-      <c r="C282" s="53"/>
-      <c r="D282" s="53"/>
-      <c r="E282" s="52" t="str">
-        <f>DEC2HEX(F282)</f>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="51"/>
+      <c r="B283" s="51"/>
+      <c r="C283" s="51"/>
+      <c r="D283" s="51"/>
+      <c r="E283" s="50" t="str">
+        <f>DEC2HEX(F283)</f>
         <v>68</v>
       </c>
-      <c r="F282" s="52">
+      <c r="F283" s="50">
         <v>104</v>
       </c>
-      <c r="G282" s="52" t="str">
-        <f>CHAR(F282)</f>
+      <c r="G283" s="50" t="str">
+        <f>CHAR(F283)</f>
         <v>h</v>
       </c>
-      <c r="H282" s="53" t="s">
+      <c r="H283" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="53"/>
-      <c r="B283" s="53"/>
-      <c r="C283" s="53"/>
-      <c r="D283" s="53"/>
-      <c r="E283" s="52" t="str">
-        <f>DEC2HEX(F283)</f>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="51"/>
+      <c r="B284" s="51"/>
+      <c r="C284" s="51"/>
+      <c r="D284" s="51"/>
+      <c r="E284" s="50" t="str">
+        <f>DEC2HEX(F284)</f>
         <v>6A</v>
       </c>
-      <c r="F283" s="52">
+      <c r="F284" s="50">
         <v>106</v>
       </c>
-      <c r="G283" s="52" t="str">
-        <f>CHAR(F283)</f>
+      <c r="G284" s="50" t="str">
+        <f>CHAR(F284)</f>
         <v>j</v>
       </c>
-      <c r="H283" s="53" t="s">
+      <c r="H284" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="53"/>
-      <c r="B284" s="53"/>
-      <c r="C284" s="53"/>
-      <c r="D284" s="53"/>
-      <c r="E284" s="52" t="str">
-        <f>DEC2HEX(F284)</f>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="51"/>
+      <c r="B285" s="51"/>
+      <c r="C285" s="51"/>
+      <c r="D285" s="51"/>
+      <c r="E285" s="50" t="str">
+        <f>DEC2HEX(F285)</f>
         <v>71</v>
       </c>
-      <c r="F284" s="52">
+      <c r="F285" s="50">
         <v>113</v>
       </c>
-      <c r="G284" s="52" t="str">
-        <f>CHAR(F284)</f>
+      <c r="G285" s="50" t="str">
+        <f>CHAR(F285)</f>
         <v>q</v>
       </c>
-      <c r="H284" s="53" t="s">
+      <c r="H285" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="53"/>
-      <c r="B285" s="53"/>
-      <c r="C285" s="53"/>
-      <c r="D285" s="53"/>
-      <c r="E285" s="52" t="str">
-        <f>DEC2HEX(F285)</f>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="51"/>
+      <c r="B286" s="51"/>
+      <c r="C286" s="51"/>
+      <c r="D286" s="51"/>
+      <c r="E286" s="50" t="str">
+        <f>DEC2HEX(F286)</f>
         <v>75</v>
       </c>
-      <c r="F285" s="52">
+      <c r="F286" s="50">
         <v>117</v>
       </c>
-      <c r="G285" s="52" t="str">
-        <f>CHAR(F285)</f>
+      <c r="G286" s="50" t="str">
+        <f>CHAR(F286)</f>
         <v>u</v>
       </c>
-      <c r="H285" s="53" t="s">
+      <c r="H286" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="53"/>
-      <c r="B286" s="53"/>
-      <c r="C286" s="53"/>
-      <c r="D286" s="53"/>
-      <c r="E286" s="52" t="str">
-        <f>DEC2HEX(F286)</f>
-        <v>7C</v>
-      </c>
-      <c r="F286" s="52">
-        <v>124</v>
-      </c>
-      <c r="G286" s="52" t="str">
-        <f>CHAR(F286)</f>
-        <v>|</v>
-      </c>
-      <c r="H286" s="53" t="s">
-        <v>134</v>
-      </c>
-    </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="53"/>
-      <c r="B287" s="53"/>
-      <c r="C287" s="52"/>
-      <c r="D287" s="52"/>
-      <c r="E287" s="52" t="str">
+      <c r="B287" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5" t="str">
         <f>DEC2HEX(F287)</f>
         <v>7D</v>
       </c>
-      <c r="F287" s="52">
+      <c r="F287" s="5">
         <v>125</v>
       </c>
-      <c r="G287" s="52" t="str">
+      <c r="G287" s="5" t="str">
         <f>CHAR(F287)</f>
         <v>}</v>
       </c>
-      <c r="H287" s="53" t="s">
-        <v>134</v>
+      <c r="H287" s="4" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="53"/>
-      <c r="B288" s="53"/>
+      <c r="A288" s="51"/>
+      <c r="B288" s="51"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="2" t="str">
@@ -10414,8 +10381,8 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="53"/>
-      <c r="B289" s="53"/>
+      <c r="A289" s="51"/>
+      <c r="B289" s="51"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="2" t="str">
@@ -11074,128 +11041,128 @@
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A322" s="53"/>
-      <c r="B322" s="53"/>
-      <c r="C322" s="53"/>
-      <c r="D322" s="53"/>
-      <c r="E322" s="52" t="str">
+      <c r="A322" s="51"/>
+      <c r="B322" s="51"/>
+      <c r="C322" s="51"/>
+      <c r="D322" s="51"/>
+      <c r="E322" s="50" t="str">
         <f>DEC2HEX(F322)</f>
         <v>A1</v>
       </c>
-      <c r="F322" s="52">
+      <c r="F322" s="50">
         <v>161</v>
       </c>
-      <c r="G322" s="52" t="str">
+      <c r="G322" s="50" t="str">
         <f>CHAR(F322)</f>
         <v>¡</v>
       </c>
-      <c r="H322" s="53" t="s">
+      <c r="H322" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A323" s="53"/>
-      <c r="B323" s="53"/>
-      <c r="C323" s="53"/>
-      <c r="D323" s="53"/>
-      <c r="E323" s="52" t="str">
+      <c r="A323" s="51"/>
+      <c r="B323" s="51"/>
+      <c r="C323" s="51"/>
+      <c r="D323" s="51"/>
+      <c r="E323" s="50" t="str">
         <f>DEC2HEX(F323)</f>
         <v>A2</v>
       </c>
-      <c r="F323" s="52">
+      <c r="F323" s="50">
         <v>162</v>
       </c>
-      <c r="G323" s="52" t="str">
+      <c r="G323" s="50" t="str">
         <f>CHAR(F323)</f>
         <v>¢</v>
       </c>
-      <c r="H323" s="53" t="s">
+      <c r="H323" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A324" s="53"/>
-      <c r="B324" s="53"/>
-      <c r="C324" s="53"/>
-      <c r="D324" s="53"/>
-      <c r="E324" s="52" t="str">
+      <c r="A324" s="51"/>
+      <c r="B324" s="51"/>
+      <c r="C324" s="51"/>
+      <c r="D324" s="51"/>
+      <c r="E324" s="50" t="str">
         <f>DEC2HEX(F324)</f>
         <v>A7</v>
       </c>
-      <c r="F324" s="52">
+      <c r="F324" s="50">
         <v>167</v>
       </c>
-      <c r="G324" s="52" t="str">
+      <c r="G324" s="50" t="str">
         <f>CHAR(F324)</f>
         <v>§</v>
       </c>
-      <c r="H324" s="53" t="s">
+      <c r="H324" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A325" s="53"/>
-      <c r="B325" s="53"/>
-      <c r="C325" s="53"/>
-      <c r="D325" s="53"/>
-      <c r="E325" s="52" t="str">
+      <c r="A325" s="51"/>
+      <c r="B325" s="51"/>
+      <c r="C325" s="51"/>
+      <c r="D325" s="51"/>
+      <c r="E325" s="50" t="str">
         <f>DEC2HEX(F325)</f>
         <v>A8</v>
       </c>
-      <c r="F325" s="52">
+      <c r="F325" s="50">
         <v>168</v>
       </c>
-      <c r="G325" s="52" t="str">
+      <c r="G325" s="50" t="str">
         <f>CHAR(F325)</f>
         <v>¨</v>
       </c>
-      <c r="H325" s="53" t="s">
+      <c r="H325" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A326" s="53"/>
-      <c r="B326" s="53"/>
-      <c r="C326" s="53"/>
-      <c r="D326" s="53"/>
-      <c r="E326" s="52" t="str">
+      <c r="A326" s="51"/>
+      <c r="B326" s="51"/>
+      <c r="C326" s="51"/>
+      <c r="D326" s="51"/>
+      <c r="E326" s="50" t="str">
         <f>DEC2HEX(F326)</f>
         <v>A9</v>
       </c>
-      <c r="F326" s="52">
+      <c r="F326" s="50">
         <v>169</v>
       </c>
-      <c r="G326" s="52" t="str">
+      <c r="G326" s="50" t="str">
         <f>CHAR(F326)</f>
         <v>©</v>
       </c>
-      <c r="H326" s="53" t="s">
+      <c r="H326" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A327" s="53"/>
-      <c r="B327" s="53"/>
-      <c r="C327" s="53"/>
-      <c r="D327" s="53"/>
-      <c r="E327" s="52" t="str">
+      <c r="A327" s="51"/>
+      <c r="B327" s="51"/>
+      <c r="C327" s="51"/>
+      <c r="D327" s="51"/>
+      <c r="E327" s="50" t="str">
         <f>DEC2HEX(F327)</f>
         <v>AA</v>
       </c>
-      <c r="F327" s="52">
+      <c r="F327" s="50">
         <v>170</v>
       </c>
-      <c r="G327" s="52" t="str">
+      <c r="G327" s="50" t="str">
         <f>CHAR(F327)</f>
         <v>ª</v>
       </c>
-      <c r="H327" s="53" t="s">
+      <c r="H327" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A328" s="53"/>
-      <c r="B328" s="53"/>
+      <c r="A328" s="51"/>
+      <c r="B328" s="51"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="2" t="str">
@@ -11214,129 +11181,129 @@
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A329" s="53"/>
-      <c r="B329" s="53"/>
-      <c r="C329" s="53"/>
-      <c r="D329" s="53"/>
-      <c r="E329" s="52" t="str">
+      <c r="A329" s="51"/>
+      <c r="B329" s="51"/>
+      <c r="C329" s="51"/>
+      <c r="D329" s="51"/>
+      <c r="E329" s="50" t="str">
         <f>DEC2HEX(F329)</f>
         <v>AE</v>
       </c>
-      <c r="F329" s="52">
+      <c r="F329" s="50">
         <v>174</v>
       </c>
-      <c r="G329" s="52" t="str">
+      <c r="G329" s="50" t="str">
         <f>CHAR(F329)</f>
         <v>®</v>
       </c>
-      <c r="H329" s="53" t="s">
+      <c r="H329" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A330" s="53"/>
-      <c r="B330" s="53"/>
-      <c r="C330" s="52"/>
-      <c r="D330" s="52"/>
-      <c r="E330" s="52" t="str">
+      <c r="A330" s="51"/>
+      <c r="B330" s="51"/>
+      <c r="C330" s="50"/>
+      <c r="D330" s="50"/>
+      <c r="E330" s="50" t="str">
         <f>DEC2HEX(F330)</f>
         <v>AF</v>
       </c>
-      <c r="F330" s="52">
+      <c r="F330" s="50">
         <v>175</v>
       </c>
-      <c r="G330" s="52" t="str">
+      <c r="G330" s="50" t="str">
         <f>CHAR(F330)</f>
         <v>¯</v>
       </c>
-      <c r="H330" s="53" t="s">
+      <c r="H330" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="L330" s="57"/>
+      <c r="L330" s="54"/>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A331" s="53"/>
-      <c r="B331" s="53"/>
-      <c r="C331" s="53"/>
-      <c r="D331" s="53"/>
-      <c r="E331" s="52" t="str">
+      <c r="A331" s="51"/>
+      <c r="B331" s="51"/>
+      <c r="C331" s="51"/>
+      <c r="D331" s="51"/>
+      <c r="E331" s="50" t="str">
         <f>DEC2HEX(F331)</f>
         <v>B0</v>
       </c>
-      <c r="F331" s="52">
+      <c r="F331" s="50">
         <v>176</v>
       </c>
-      <c r="G331" s="52" t="str">
+      <c r="G331" s="50" t="str">
         <f>CHAR(F331)</f>
         <v>°</v>
       </c>
-      <c r="H331" s="53" t="s">
+      <c r="H331" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A332" s="53"/>
-      <c r="B332" s="53"/>
-      <c r="C332" s="53"/>
-      <c r="D332" s="53"/>
-      <c r="E332" s="52" t="str">
+      <c r="A332" s="51"/>
+      <c r="B332" s="51"/>
+      <c r="C332" s="51"/>
+      <c r="D332" s="51"/>
+      <c r="E332" s="50" t="str">
         <f>DEC2HEX(F332)</f>
         <v>B1</v>
       </c>
-      <c r="F332" s="52">
+      <c r="F332" s="50">
         <v>177</v>
       </c>
-      <c r="G332" s="52" t="str">
+      <c r="G332" s="50" t="str">
         <f>CHAR(F332)</f>
         <v>±</v>
       </c>
-      <c r="H332" s="53" t="s">
+      <c r="H332" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A333" s="53"/>
-      <c r="B333" s="53"/>
-      <c r="C333" s="53"/>
-      <c r="D333" s="53"/>
-      <c r="E333" s="52" t="str">
+      <c r="A333" s="51"/>
+      <c r="B333" s="51"/>
+      <c r="C333" s="51"/>
+      <c r="D333" s="51"/>
+      <c r="E333" s="50" t="str">
         <f>DEC2HEX(F333)</f>
         <v>B2</v>
       </c>
-      <c r="F333" s="52">
+      <c r="F333" s="50">
         <v>178</v>
       </c>
-      <c r="G333" s="52" t="str">
+      <c r="G333" s="50" t="str">
         <f>CHAR(F333)</f>
         <v>²</v>
       </c>
-      <c r="H333" s="53" t="s">
+      <c r="H333" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A334" s="53"/>
-      <c r="B334" s="53"/>
-      <c r="C334" s="52"/>
-      <c r="D334" s="52"/>
-      <c r="E334" s="52" t="str">
+      <c r="A334" s="51"/>
+      <c r="B334" s="51"/>
+      <c r="C334" s="50"/>
+      <c r="D334" s="50"/>
+      <c r="E334" s="50" t="str">
         <f>DEC2HEX(F334)</f>
         <v>B3</v>
       </c>
-      <c r="F334" s="52">
+      <c r="F334" s="50">
         <v>179</v>
       </c>
-      <c r="G334" s="52" t="str">
+      <c r="G334" s="50" t="str">
         <f>CHAR(F334)</f>
         <v>³</v>
       </c>
-      <c r="H334" s="53" t="s">
+      <c r="H334" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A335" s="53"/>
-      <c r="B335" s="53"/>
+      <c r="A335" s="51"/>
+      <c r="B335" s="51"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="2" t="str">
@@ -11355,411 +11322,411 @@
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A336" s="53"/>
-      <c r="B336" s="53"/>
-      <c r="C336" s="52"/>
-      <c r="D336" s="52"/>
-      <c r="E336" s="52" t="str">
+      <c r="A336" s="51"/>
+      <c r="B336" s="51"/>
+      <c r="C336" s="50"/>
+      <c r="D336" s="50"/>
+      <c r="E336" s="50" t="str">
         <f>DEC2HEX(F336)</f>
         <v>C2</v>
       </c>
-      <c r="F336" s="52">
+      <c r="F336" s="50">
         <v>194</v>
       </c>
-      <c r="G336" s="52" t="str">
+      <c r="G336" s="50" t="str">
         <f>CHAR(F336)</f>
         <v>Â</v>
       </c>
-      <c r="H336" s="53" t="s">
+      <c r="H336" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A337" s="53"/>
-      <c r="B337" s="53"/>
-      <c r="C337" s="53"/>
-      <c r="D337" s="53"/>
-      <c r="E337" s="52" t="str">
+      <c r="A337" s="51"/>
+      <c r="B337" s="51"/>
+      <c r="C337" s="51"/>
+      <c r="D337" s="51"/>
+      <c r="E337" s="50" t="str">
         <f>DEC2HEX(F337)</f>
         <v>C7</v>
       </c>
-      <c r="F337" s="52">
+      <c r="F337" s="50">
         <v>199</v>
       </c>
-      <c r="G337" s="52" t="str">
+      <c r="G337" s="50" t="str">
         <f>CHAR(F337)</f>
         <v>Ç</v>
       </c>
-      <c r="H337" s="53" t="s">
+      <c r="H337" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A338" s="53"/>
-      <c r="B338" s="53"/>
-      <c r="C338" s="53"/>
-      <c r="D338" s="53"/>
-      <c r="E338" s="52" t="str">
+      <c r="A338" s="51"/>
+      <c r="B338" s="51"/>
+      <c r="C338" s="51"/>
+      <c r="D338" s="51"/>
+      <c r="E338" s="50" t="str">
         <f>DEC2HEX(F338)</f>
         <v>C8</v>
       </c>
-      <c r="F338" s="52">
+      <c r="F338" s="50">
         <v>200</v>
       </c>
-      <c r="G338" s="52" t="str">
+      <c r="G338" s="50" t="str">
         <f>CHAR(F338)</f>
         <v>È</v>
       </c>
-      <c r="H338" s="53" t="s">
+      <c r="H338" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A339" s="53"/>
-      <c r="B339" s="53"/>
-      <c r="C339" s="53"/>
-      <c r="D339" s="53"/>
-      <c r="E339" s="52" t="str">
+      <c r="A339" s="51"/>
+      <c r="B339" s="51"/>
+      <c r="C339" s="51"/>
+      <c r="D339" s="51"/>
+      <c r="E339" s="50" t="str">
         <f>DEC2HEX(F339)</f>
         <v>CA</v>
       </c>
-      <c r="F339" s="52">
+      <c r="F339" s="50">
         <v>202</v>
       </c>
-      <c r="G339" s="52" t="str">
+      <c r="G339" s="50" t="str">
         <f>CHAR(F339)</f>
         <v>Ê</v>
       </c>
-      <c r="H339" s="53" t="s">
+      <c r="H339" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A340" s="53"/>
-      <c r="B340" s="53"/>
-      <c r="C340" s="53"/>
-      <c r="D340" s="53"/>
-      <c r="E340" s="52" t="str">
+      <c r="A340" s="51"/>
+      <c r="B340" s="51"/>
+      <c r="C340" s="51"/>
+      <c r="D340" s="51"/>
+      <c r="E340" s="50" t="str">
         <f>DEC2HEX(F340)</f>
         <v>CF</v>
       </c>
-      <c r="F340" s="52">
+      <c r="F340" s="50">
         <v>207</v>
       </c>
-      <c r="G340" s="52" t="str">
+      <c r="G340" s="50" t="str">
         <f>CHAR(F340)</f>
         <v>Ï</v>
       </c>
-      <c r="H340" s="53" t="s">
+      <c r="H340" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A341" s="53"/>
-      <c r="B341" s="53"/>
-      <c r="C341" s="53"/>
-      <c r="D341" s="53"/>
-      <c r="E341" s="52" t="str">
+      <c r="A341" s="51"/>
+      <c r="B341" s="51"/>
+      <c r="C341" s="51"/>
+      <c r="D341" s="51"/>
+      <c r="E341" s="50" t="str">
         <f>DEC2HEX(F341)</f>
         <v>D1</v>
       </c>
-      <c r="F341" s="52">
+      <c r="F341" s="50">
         <v>209</v>
       </c>
-      <c r="G341" s="52" t="str">
+      <c r="G341" s="50" t="str">
         <f>CHAR(F341)</f>
         <v>Ñ</v>
       </c>
-      <c r="H341" s="53" t="s">
+      <c r="H341" s="51" t="s">
         <v>134</v>
       </c>
       <c r="I341" s="5"/>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A342" s="53"/>
-      <c r="B342" s="53"/>
-      <c r="C342" s="53"/>
-      <c r="D342" s="53"/>
-      <c r="E342" s="52" t="str">
+      <c r="A342" s="51"/>
+      <c r="B342" s="51"/>
+      <c r="C342" s="51"/>
+      <c r="D342" s="51"/>
+      <c r="E342" s="50" t="str">
         <f>DEC2HEX(F342)</f>
         <v>D2</v>
       </c>
-      <c r="F342" s="52">
+      <c r="F342" s="50">
         <v>210</v>
       </c>
-      <c r="G342" s="52" t="str">
+      <c r="G342" s="50" t="str">
         <f>CHAR(F342)</f>
         <v>Ò</v>
       </c>
-      <c r="H342" s="53" t="s">
+      <c r="H342" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A343" s="53"/>
-      <c r="B343" s="53"/>
-      <c r="C343" s="52"/>
-      <c r="D343" s="52"/>
-      <c r="E343" s="52" t="str">
+      <c r="A343" s="51"/>
+      <c r="B343" s="51"/>
+      <c r="C343" s="50"/>
+      <c r="D343" s="50"/>
+      <c r="E343" s="50" t="str">
         <f>DEC2HEX(F343)</f>
         <v>D3</v>
       </c>
-      <c r="F343" s="52">
+      <c r="F343" s="50">
         <v>211</v>
       </c>
-      <c r="G343" s="52" t="str">
+      <c r="G343" s="50" t="str">
         <f>CHAR(F343)</f>
         <v>Ó</v>
       </c>
-      <c r="H343" s="53" t="s">
+      <c r="H343" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A344" s="53"/>
-      <c r="B344" s="53"/>
-      <c r="C344" s="53"/>
-      <c r="D344" s="53"/>
-      <c r="E344" s="52" t="str">
+      <c r="A344" s="51"/>
+      <c r="B344" s="51"/>
+      <c r="C344" s="51"/>
+      <c r="D344" s="51"/>
+      <c r="E344" s="50" t="str">
         <f>DEC2HEX(F344)</f>
         <v>E2</v>
       </c>
-      <c r="F344" s="52">
+      <c r="F344" s="50">
         <v>226</v>
       </c>
-      <c r="G344" s="52" t="str">
+      <c r="G344" s="50" t="str">
         <f>CHAR(F344)</f>
         <v>â</v>
       </c>
-      <c r="H344" s="53" t="s">
+      <c r="H344" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A345" s="53"/>
-      <c r="B345" s="53"/>
-      <c r="C345" s="53"/>
-      <c r="D345" s="53"/>
-      <c r="E345" s="52" t="str">
+      <c r="A345" s="51"/>
+      <c r="B345" s="51"/>
+      <c r="C345" s="51"/>
+      <c r="D345" s="51"/>
+      <c r="E345" s="50" t="str">
         <f>DEC2HEX(F345)</f>
         <v>E5</v>
       </c>
-      <c r="F345" s="52">
+      <c r="F345" s="50">
         <v>229</v>
       </c>
-      <c r="G345" s="52" t="str">
+      <c r="G345" s="50" t="str">
         <f>CHAR(F345)</f>
         <v>å</v>
       </c>
-      <c r="H345" s="53" t="s">
+      <c r="H345" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A346" s="53"/>
-      <c r="B346" s="53"/>
-      <c r="C346" s="52"/>
-      <c r="D346" s="52"/>
-      <c r="E346" s="52" t="str">
+      <c r="A346" s="51"/>
+      <c r="B346" s="51"/>
+      <c r="C346" s="50"/>
+      <c r="D346" s="50"/>
+      <c r="E346" s="50" t="str">
         <f>DEC2HEX(F346)</f>
         <v>EF</v>
       </c>
-      <c r="F346" s="52">
+      <c r="F346" s="50">
         <v>239</v>
       </c>
-      <c r="G346" s="52" t="str">
+      <c r="G346" s="50" t="str">
         <f>CHAR(F346)</f>
         <v>ï</v>
       </c>
-      <c r="H346" s="53" t="s">
+      <c r="H346" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A347" s="53"/>
-      <c r="B347" s="53"/>
-      <c r="C347" s="52"/>
-      <c r="D347" s="52"/>
-      <c r="E347" s="52" t="str">
+      <c r="A347" s="51"/>
+      <c r="B347" s="51"/>
+      <c r="C347" s="50"/>
+      <c r="D347" s="50"/>
+      <c r="E347" s="50" t="str">
         <f>DEC2HEX(F347)</f>
         <v>F0</v>
       </c>
-      <c r="F347" s="52">
+      <c r="F347" s="50">
         <v>240</v>
       </c>
-      <c r="G347" s="52" t="str">
+      <c r="G347" s="50" t="str">
         <f>CHAR(F347)</f>
         <v>ð</v>
       </c>
-      <c r="H347" s="53" t="s">
+      <c r="H347" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A348" s="53"/>
-      <c r="B348" s="53"/>
-      <c r="C348" s="52"/>
-      <c r="D348" s="52"/>
-      <c r="E348" s="52" t="str">
+      <c r="A348" s="51"/>
+      <c r="B348" s="51"/>
+      <c r="C348" s="50"/>
+      <c r="D348" s="50"/>
+      <c r="E348" s="50" t="str">
         <f>DEC2HEX(F348)</f>
         <v>F1</v>
       </c>
-      <c r="F348" s="52">
+      <c r="F348" s="50">
         <v>241</v>
       </c>
-      <c r="G348" s="52" t="str">
+      <c r="G348" s="50" t="str">
         <f>CHAR(F348)</f>
         <v>ñ</v>
       </c>
-      <c r="H348" s="53" t="s">
+      <c r="H348" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A349" s="53"/>
-      <c r="B349" s="53"/>
-      <c r="C349" s="52"/>
-      <c r="D349" s="52"/>
-      <c r="E349" s="52" t="str">
+      <c r="A349" s="51"/>
+      <c r="B349" s="51"/>
+      <c r="C349" s="50"/>
+      <c r="D349" s="50"/>
+      <c r="E349" s="50" t="str">
         <f>DEC2HEX(F349)</f>
         <v>F2</v>
       </c>
-      <c r="F349" s="52">
+      <c r="F349" s="50">
         <v>242</v>
       </c>
-      <c r="G349" s="52" t="str">
+      <c r="G349" s="50" t="str">
         <f>CHAR(F349)</f>
         <v>ò</v>
       </c>
-      <c r="H349" s="53" t="s">
+      <c r="H349" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A350" s="53"/>
-      <c r="B350" s="53"/>
-      <c r="C350" s="52"/>
-      <c r="D350" s="52"/>
-      <c r="E350" s="52" t="str">
+      <c r="A350" s="51"/>
+      <c r="B350" s="51"/>
+      <c r="C350" s="50"/>
+      <c r="D350" s="50"/>
+      <c r="E350" s="50" t="str">
         <f>DEC2HEX(F350)</f>
         <v>F3</v>
       </c>
-      <c r="F350" s="52">
+      <c r="F350" s="50">
         <v>243</v>
       </c>
-      <c r="G350" s="52" t="str">
+      <c r="G350" s="50" t="str">
         <f>CHAR(F350)</f>
         <v>ó</v>
       </c>
-      <c r="H350" s="53" t="s">
+      <c r="H350" s="51" t="s">
         <v>134</v>
       </c>
       <c r="K350" s="5"/>
       <c r="L350" s="5"/>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A351" s="53"/>
-      <c r="B351" s="53"/>
-      <c r="C351" s="52"/>
-      <c r="D351" s="52"/>
-      <c r="E351" s="52" t="str">
+      <c r="A351" s="51"/>
+      <c r="B351" s="51"/>
+      <c r="C351" s="50"/>
+      <c r="D351" s="50"/>
+      <c r="E351" s="50" t="str">
         <f>DEC2HEX(F351)</f>
         <v>F4</v>
       </c>
-      <c r="F351" s="52">
+      <c r="F351" s="50">
         <v>244</v>
       </c>
-      <c r="G351" s="52" t="str">
+      <c r="G351" s="50" t="str">
         <f>CHAR(F351)</f>
         <v>ô</v>
       </c>
-      <c r="H351" s="53" t="s">
+      <c r="H351" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A352" s="53"/>
-      <c r="B352" s="53"/>
-      <c r="C352" s="53"/>
-      <c r="D352" s="53"/>
-      <c r="E352" s="52" t="str">
+      <c r="A352" s="51"/>
+      <c r="B352" s="51"/>
+      <c r="C352" s="51"/>
+      <c r="D352" s="51"/>
+      <c r="E352" s="50" t="str">
         <f>DEC2HEX(F352)</f>
         <v>F5</v>
       </c>
-      <c r="F352" s="52">
+      <c r="F352" s="50">
         <v>245</v>
       </c>
-      <c r="G352" s="52" t="str">
+      <c r="G352" s="50" t="str">
         <f>CHAR(F352)</f>
         <v>õ</v>
       </c>
-      <c r="H352" s="53" t="s">
+      <c r="H352" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" s="53"/>
-      <c r="B353" s="53"/>
-      <c r="C353" s="53"/>
-      <c r="D353" s="53"/>
-      <c r="E353" s="52" t="str">
+      <c r="A353" s="51"/>
+      <c r="B353" s="51"/>
+      <c r="C353" s="51"/>
+      <c r="D353" s="51"/>
+      <c r="E353" s="50" t="str">
         <f>DEC2HEX(F353)</f>
         <v>F8</v>
       </c>
-      <c r="F353" s="52">
+      <c r="F353" s="50">
         <v>248</v>
       </c>
-      <c r="G353" s="52" t="str">
+      <c r="G353" s="50" t="str">
         <f>CHAR(F353)</f>
         <v>ø</v>
       </c>
-      <c r="H353" s="53" t="s">
+      <c r="H353" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" s="53"/>
-      <c r="B354" s="53"/>
-      <c r="C354" s="52"/>
-      <c r="D354" s="52"/>
-      <c r="E354" s="52" t="str">
+      <c r="A354" s="51"/>
+      <c r="B354" s="51"/>
+      <c r="C354" s="50"/>
+      <c r="D354" s="50"/>
+      <c r="E354" s="50" t="str">
         <f>DEC2HEX(F354)</f>
         <v>F9</v>
       </c>
-      <c r="F354" s="52">
+      <c r="F354" s="50">
         <v>249</v>
       </c>
-      <c r="G354" s="52" t="str">
+      <c r="G354" s="50" t="str">
         <f>CHAR(F354)</f>
         <v>ù</v>
       </c>
-      <c r="H354" s="53" t="s">
+      <c r="H354" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355" s="53"/>
-      <c r="B355" s="53"/>
-      <c r="C355" s="53"/>
-      <c r="D355" s="53"/>
-      <c r="E355" s="52" t="str">
+      <c r="A355" s="51"/>
+      <c r="B355" s="51"/>
+      <c r="C355" s="51"/>
+      <c r="D355" s="51"/>
+      <c r="E355" s="50" t="str">
         <f>DEC2HEX(F355)</f>
         <v>FA</v>
       </c>
-      <c r="F355" s="52">
+      <c r="F355" s="50">
         <v>250</v>
       </c>
-      <c r="G355" s="52" t="str">
+      <c r="G355" s="50" t="str">
         <f>CHAR(F355)</f>
         <v>ú</v>
       </c>
-      <c r="H355" s="53" t="s">
+      <c r="H355" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" s="53"/>
-      <c r="B356" s="53"/>
+      <c r="A356" s="51"/>
+      <c r="B356" s="51"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="2" t="str">
@@ -11777,8 +11744,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="357" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E357" s="50"/>
+    <row r="357" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E357" s="48"/>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F359" s="5"/>
@@ -11910,9 +11877,9 @@
       <c r="G391" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R413">
-    <sortCondition ref="A2:A413"/>
-    <sortCondition ref="C2:C413"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O392">
+    <sortCondition ref="A2:A392"/>
+    <sortCondition ref="C2:C392"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11921,269 +11888,520 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCBF3F3-FF41-4C02-8701-7BCC901F5CE2}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1">
-        <f>SUM(F2:F9)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="D2" s="36">
-        <v>144</v>
-      </c>
-      <c r="E2" s="36">
-        <v>147</v>
-      </c>
-      <c r="F2" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" s="37">
-        <v>176</v>
-      </c>
-      <c r="E3" s="37">
-        <v>183</v>
-      </c>
-      <c r="F3" s="36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="D4" s="37">
-        <v>396</v>
-      </c>
-      <c r="E4" s="37">
-        <v>403</v>
-      </c>
-      <c r="F4" s="36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="D5" s="36">
-        <v>404</v>
-      </c>
-      <c r="E5" s="36">
-        <v>407</v>
-      </c>
-      <c r="F5" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="D6" s="36">
-        <v>500</v>
-      </c>
-      <c r="E6" s="36">
-        <v>511</v>
-      </c>
-      <c r="F6" s="36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="D8" s="36">
-        <v>520</v>
-      </c>
-      <c r="E8" s="36">
-        <v>527</v>
-      </c>
-      <c r="F8" s="36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="D9" s="36">
-        <v>528</v>
-      </c>
-      <c r="E9" s="36">
-        <v>535</v>
-      </c>
-      <c r="F9" s="36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H19">
-        <v>520</v>
-      </c>
-      <c r="I19">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>395</v>
-      </c>
-      <c r="D21">
-        <v>440</v>
-      </c>
-      <c r="F21" s="53">
-        <v>190</v>
-      </c>
-      <c r="G21" s="53">
-        <v>235</v>
-      </c>
-      <c r="H21">
-        <v>245</v>
-      </c>
-      <c r="I21">
-        <v>290</v>
-      </c>
-      <c r="J21" s="53">
-        <v>295</v>
-      </c>
-      <c r="K21" s="53">
-        <v>340</v>
-      </c>
-      <c r="L21" s="53">
-        <v>340</v>
-      </c>
-      <c r="M21">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="F23">
-        <v>45</v>
-      </c>
-      <c r="G23">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>40</v>
-      </c>
-      <c r="F24">
-        <v>40</v>
-      </c>
-      <c r="G24">
-        <v>40</v>
-      </c>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5">
+        <v>200</v>
+      </c>
+      <c r="E4" s="5">
+        <v>265</v>
+      </c>
+      <c r="F4" s="4">
+        <v>300</v>
+      </c>
+      <c r="G4" s="4">
+        <v>375</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>234</v>
+      </c>
+      <c r="E5" s="4">
+        <v>234</v>
+      </c>
+      <c r="F5" s="4">
+        <v>234</v>
+      </c>
+      <c r="G5" s="4">
+        <v>234</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>197</v>
+      </c>
+      <c r="E10" s="4">
+        <v>230</v>
+      </c>
+      <c r="F10" s="4">
+        <v>265</v>
+      </c>
+      <c r="G10" s="4">
+        <v>292</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>201</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12896,17 +13114,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="52">
         <f>D18</f>
         <v>52</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="53">
         <v>375</v>
       </c>
       <c r="J7" s="13" t="s">

--- a/Nextion/EEPROM_settings_N14.xlsx
+++ b/Nextion/EEPROM_settings_N14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadd\RoseEngine\Nextion\RoseEngine_14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A89F732-3C22-47E5-98EC-283E2601FD1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{864F0ABD-98B7-4290-86BC-E0F104F1738A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="345" windowWidth="16350" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eeprom" sheetId="3" r:id="rId1"/>
@@ -2156,8 +2156,8 @@
   <dimension ref="A1:O391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,14 +2229,14 @@
         <v>695</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f>DEC2HEX(F2)</f>
+        <f t="shared" ref="E2:E33" si="0">DEC2HEX(F2)</f>
         <v>FE</v>
       </c>
       <c r="F2" s="5">
         <v>254</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f>CHAR(F2)</f>
+        <f t="shared" ref="G2:G33" si="1">CHAR(F2)</f>
         <v>þ</v>
       </c>
       <c r="I2" s="4">
@@ -2258,14 +2258,14 @@
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="47" t="str">
-        <f>DEC2HEX(F3)</f>
+        <f t="shared" si="0"/>
         <v>2D</v>
       </c>
       <c r="F3" s="47">
         <v>45</v>
       </c>
       <c r="G3" s="47" t="str">
-        <f>CHAR(F3)</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -2279,14 +2279,14 @@
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="47" t="str">
-        <f>DEC2HEX(F4)</f>
+        <f t="shared" si="0"/>
         <v>CE</v>
       </c>
       <c r="F4" s="47">
         <v>206</v>
       </c>
       <c r="G4" s="47" t="str">
-        <f>CHAR(F4)</f>
+        <f t="shared" si="1"/>
         <v>Î</v>
       </c>
     </row>
@@ -2300,14 +2300,14 @@
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="47" t="str">
-        <f>DEC2HEX(F5)</f>
+        <f t="shared" si="0"/>
         <v>D7</v>
       </c>
       <c r="F5" s="47">
         <v>215</v>
       </c>
       <c r="G5" s="47" t="str">
-        <f>CHAR(F5)</f>
+        <f t="shared" si="1"/>
         <v>×</v>
       </c>
     </row>
@@ -2321,14 +2321,14 @@
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="47" t="str">
-        <f>DEC2HEX(F6)</f>
+        <f t="shared" si="0"/>
         <v>EC</v>
       </c>
       <c r="F6" s="47">
         <v>236</v>
       </c>
       <c r="G6" s="47" t="str">
-        <f>CHAR(F6)</f>
+        <f t="shared" si="1"/>
         <v>ì</v>
       </c>
     </row>
@@ -2342,14 +2342,14 @@
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="47" t="str">
-        <f>DEC2HEX(F7)</f>
+        <f t="shared" si="0"/>
         <v>7E</v>
       </c>
       <c r="F7" s="47">
         <v>126</v>
       </c>
       <c r="G7" s="47" t="str">
-        <f>CHAR(F7)</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -2367,23 +2367,23 @@
         <v>35</v>
       </c>
       <c r="E8" s="44" t="str">
-        <f>DEC2HEX(F8)</f>
+        <f t="shared" si="0"/>
         <v>6F</v>
       </c>
       <c r="F8" s="43">
         <v>111</v>
       </c>
       <c r="G8" s="44" t="str">
-        <f>CHAR(F8)</f>
+        <f t="shared" si="1"/>
         <v>o</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="4">
-        <f>IF(ISBLANK(B8),D8-C8+1,0)</f>
+        <f t="shared" ref="I8:I29" si="2">IF(ISBLANK(B8),D8-C8+1,0)</f>
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f>IF(ISBLANK(B8),0,D8-C8+1)</f>
+        <f t="shared" ref="J8:J29" si="3">IF(ISBLANK(B8),0,D8-C8+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -2401,23 +2401,23 @@
         <v>47</v>
       </c>
       <c r="E9" s="44" t="str">
-        <f>DEC2HEX(F9)</f>
+        <f t="shared" si="0"/>
         <v>6F</v>
       </c>
       <c r="F9" s="43">
         <v>111</v>
       </c>
       <c r="G9" s="44" t="str">
-        <f>CHAR(F9)</f>
+        <f t="shared" si="1"/>
         <v>o</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="4">
-        <f>IF(ISBLANK(B9),D9-C9+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f>IF(ISBLANK(B9),0,D9-C9+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2435,23 +2435,23 @@
         <v>55</v>
       </c>
       <c r="E10" s="44" t="str">
-        <f>DEC2HEX(F10)</f>
+        <f t="shared" si="0"/>
         <v>6F</v>
       </c>
       <c r="F10" s="43">
         <v>111</v>
       </c>
       <c r="G10" s="44" t="str">
-        <f>CHAR(F10)</f>
+        <f t="shared" si="1"/>
         <v>o</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="4">
-        <f>IF(ISBLANK(B10),D10-C10+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <f>IF(ISBLANK(B10),0,D10-C10+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2469,23 +2469,23 @@
         <v>103</v>
       </c>
       <c r="E11" s="44" t="str">
-        <f>DEC2HEX(F11)</f>
+        <f t="shared" si="0"/>
         <v>6E</v>
       </c>
       <c r="F11" s="44">
         <v>110</v>
       </c>
       <c r="G11" s="44" t="str">
-        <f>CHAR(F11)</f>
+        <f t="shared" si="1"/>
         <v>n</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="4">
-        <f>IF(ISBLANK(B11),D11-C11+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f>IF(ISBLANK(B11),0,D11-C11+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2503,22 +2503,22 @@
         <v>167</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f>DEC2HEX(F12)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F12" s="5">
         <v>72</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f>CHAR(F12)</f>
+        <f t="shared" si="1"/>
         <v>H</v>
       </c>
       <c r="I12" s="4">
-        <f>IF(ISBLANK(B12),D12-C12+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f>IF(ISBLANK(B12),0,D12-C12+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2536,23 +2536,23 @@
         <v>211</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f>DEC2HEX(F13)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="F13" s="5">
         <v>84</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>CHAR(F13)</f>
+        <f t="shared" si="1"/>
         <v>T</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4">
-        <f>IF(ISBLANK(B13),D13-C13+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f>IF(ISBLANK(B13),0,D13-C13+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N13" s="5"/>
@@ -2572,22 +2572,22 @@
         <v>231</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f>DEC2HEX(F14)</f>
+        <f t="shared" si="0"/>
         <v>E3</v>
       </c>
       <c r="F14" s="5">
         <v>227</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>CHAR(F14)</f>
+        <f t="shared" si="1"/>
         <v>ã</v>
       </c>
       <c r="I14" s="4">
-        <f>IF(ISBLANK(B14),D14-C14+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <f>IF(ISBLANK(B14),0,D14-C14+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2605,22 +2605,22 @@
         <v>243</v>
       </c>
       <c r="E15" s="5" t="str">
-        <f>DEC2HEX(F15)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="F15" s="5">
         <v>70</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>CHAR(F15)</f>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="I15" s="4">
-        <f>IF(ISBLANK(B15),D15-C15+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <f>IF(ISBLANK(B15),0,D15-C15+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2638,22 +2638,22 @@
         <v>283</v>
       </c>
       <c r="E16" s="5" t="str">
-        <f>DEC2HEX(F16)</f>
+        <f t="shared" si="0"/>
         <v>E4</v>
       </c>
       <c r="F16" s="5">
         <v>228</v>
       </c>
       <c r="G16" s="5" t="str">
-        <f>CHAR(F16)</f>
+        <f t="shared" si="1"/>
         <v>ä</v>
       </c>
       <c r="I16" s="4">
-        <f>IF(ISBLANK(B16),D16-C16+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f>IF(ISBLANK(B16),0,D16-C16+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
         <v>291</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f>DEC2HEX(F17)</f>
+        <f t="shared" si="0"/>
         <v>E4</v>
       </c>
       <c r="F17" s="5">
         <v>228</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f>CHAR(F17)</f>
+        <f t="shared" si="1"/>
         <v>ä</v>
       </c>
       <c r="I17" s="4">
-        <f>IF(ISBLANK(B17),D17-C17+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <f>IF(ISBLANK(B17),0,D17-C17+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2704,22 +2704,22 @@
         <v>299</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f>DEC2HEX(F18)</f>
+        <f t="shared" si="0"/>
         <v>E3</v>
       </c>
       <c r="F18" s="5">
         <v>227</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>CHAR(F18)</f>
+        <f t="shared" si="1"/>
         <v>ã</v>
       </c>
       <c r="I18" s="4">
-        <f>IF(ISBLANK(B18),D18-C18+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f>IF(ISBLANK(B18),0,D18-C18+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2737,22 +2737,22 @@
         <v>455</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f>DEC2HEX(F19)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="F19" s="5">
         <v>89</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f>CHAR(F19)</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="I19" s="4">
-        <f>IF(ISBLANK(B19),D19-C19+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f>IF(ISBLANK(B19),0,D19-C19+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2770,22 +2770,22 @@
         <v>527</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f>DEC2HEX(F20)</f>
+        <f t="shared" si="0"/>
         <v>E4</v>
       </c>
       <c r="F20" s="5">
         <v>228</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f>CHAR(F20)</f>
+        <f t="shared" si="1"/>
         <v>ä</v>
       </c>
       <c r="I20" s="4">
-        <f>IF(ISBLANK(B20),D20-C20+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <f>IF(ISBLANK(B20),0,D20-C20+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2803,22 +2803,22 @@
         <v>535</v>
       </c>
       <c r="E21" s="5" t="str">
-        <f>DEC2HEX(F21)</f>
+        <f t="shared" si="0"/>
         <v>E3</v>
       </c>
       <c r="F21" s="5">
         <v>227</v>
       </c>
       <c r="G21" s="5" t="str">
-        <f>CHAR(F21)</f>
+        <f t="shared" si="1"/>
         <v>ã</v>
       </c>
       <c r="I21" s="4">
-        <f>IF(ISBLANK(B21),D21-C21+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f>IF(ISBLANK(B21),0,D21-C21+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2836,22 +2836,22 @@
         <v>823</v>
       </c>
       <c r="E22" s="34" t="str">
-        <f>DEC2HEX(F22)</f>
+        <f t="shared" si="0"/>
         <v>BA</v>
       </c>
       <c r="F22" s="34">
         <v>186</v>
       </c>
       <c r="G22" s="34" t="str">
-        <f>CHAR(F22)</f>
+        <f t="shared" si="1"/>
         <v>º</v>
       </c>
       <c r="I22" s="4">
-        <f>IF(ISBLANK(B22),D22-C22+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <f>IF(ISBLANK(B22),0,D22-C22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2869,22 +2869,22 @@
         <v>827</v>
       </c>
       <c r="E23" s="34" t="str">
-        <f>DEC2HEX(F23)</f>
+        <f t="shared" si="0"/>
         <v>B9</v>
       </c>
       <c r="F23" s="34">
         <v>185</v>
       </c>
       <c r="G23" s="34" t="str">
-        <f>CHAR(F23)</f>
+        <f t="shared" si="1"/>
         <v>¹</v>
       </c>
       <c r="I23" s="4">
-        <f>IF(ISBLANK(B23),D23-C23+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <f>IF(ISBLANK(B23),0,D23-C23+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N23" s="5"/>
@@ -2904,22 +2904,22 @@
         <v>831</v>
       </c>
       <c r="E24" s="34" t="str">
-        <f>DEC2HEX(F24)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F24" s="34">
         <v>58</v>
       </c>
       <c r="G24" s="34" t="str">
-        <f>CHAR(F24)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
       <c r="I24" s="4">
-        <f>IF(ISBLANK(B24),D24-C24+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <f>IF(ISBLANK(B24),0,D24-C24+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2937,22 +2937,22 @@
         <v>835</v>
       </c>
       <c r="E25" s="34" t="str">
-        <f>DEC2HEX(F25)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F25" s="34">
         <v>59</v>
       </c>
       <c r="G25" s="34" t="str">
-        <f>CHAR(F25)</f>
+        <f t="shared" si="1"/>
         <v>;</v>
       </c>
       <c r="I25" s="4">
-        <f>IF(ISBLANK(B25),D25-C25+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <f>IF(ISBLANK(B25),0,D25-C25+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2970,22 +2970,22 @@
         <v>871</v>
       </c>
       <c r="E26" s="34" t="str">
-        <f>DEC2HEX(F26)</f>
+        <f t="shared" si="0"/>
         <v>BA</v>
       </c>
       <c r="F26" s="34">
         <v>186</v>
       </c>
       <c r="G26" s="34" t="str">
-        <f>CHAR(F26)</f>
+        <f t="shared" si="1"/>
         <v>º</v>
       </c>
       <c r="I26" s="4">
-        <f>IF(ISBLANK(B26),D26-C26+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f>IF(ISBLANK(B26),0,D26-C26+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3003,22 +3003,22 @@
         <v>879</v>
       </c>
       <c r="E27" s="34" t="str">
-        <f>DEC2HEX(F27)</f>
+        <f t="shared" si="0"/>
         <v>B9</v>
       </c>
       <c r="F27" s="34">
         <v>185</v>
       </c>
       <c r="G27" s="34" t="str">
-        <f>CHAR(F27)</f>
+        <f t="shared" si="1"/>
         <v>¹</v>
       </c>
       <c r="I27" s="4">
-        <f>IF(ISBLANK(B27),D27-C27+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <f>IF(ISBLANK(B27),0,D27-C27+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
         <v>883</v>
       </c>
       <c r="E28" s="34" t="str">
-        <f>DEC2HEX(F28)</f>
+        <f t="shared" si="0"/>
         <v>B9</v>
       </c>
       <c r="F28" s="34">
         <v>185</v>
       </c>
       <c r="G28" s="34" t="str">
-        <f>CHAR(F28)</f>
+        <f t="shared" si="1"/>
         <v>¹</v>
       </c>
       <c r="I28" s="4">
-        <f>IF(ISBLANK(B28),D28-C28+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <f>IF(ISBLANK(B28),0,D28-C28+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3069,22 +3069,22 @@
         <v>951</v>
       </c>
       <c r="E29" s="34" t="str">
-        <f>DEC2HEX(F29)</f>
+        <f t="shared" si="0"/>
         <v>BA</v>
       </c>
       <c r="F29" s="34">
         <v>186</v>
       </c>
       <c r="G29" s="34" t="str">
-        <f>CHAR(F29)</f>
+        <f t="shared" si="1"/>
         <v>º</v>
       </c>
       <c r="I29" s="4">
-        <f>IF(ISBLANK(B29),D29-C29+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <f>IF(ISBLANK(B29),0,D29-C29+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="47" t="str">
-        <f>DEC2HEX(F30)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="F30" s="47">
         <v>105</v>
       </c>
       <c r="G30" s="47" t="str">
-        <f>CHAR(F30)</f>
+        <f t="shared" si="1"/>
         <v>i</v>
       </c>
     </row>
@@ -3119,14 +3119,14 @@
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
       <c r="E31" s="47" t="str">
-        <f>DEC2HEX(F31)</f>
+        <f t="shared" si="0"/>
         <v>C9</v>
       </c>
       <c r="F31" s="47">
         <v>201</v>
       </c>
       <c r="G31" s="47" t="str">
-        <f>CHAR(F31)</f>
+        <f t="shared" si="1"/>
         <v>É</v>
       </c>
     </row>
@@ -3140,14 +3140,14 @@
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
       <c r="E32" s="47" t="str">
-        <f>DEC2HEX(F32)</f>
+        <f t="shared" si="0"/>
         <v>E7</v>
       </c>
       <c r="F32" s="47">
         <v>231</v>
       </c>
       <c r="G32" s="47" t="str">
-        <f>CHAR(F32)</f>
+        <f t="shared" si="1"/>
         <v>ç</v>
       </c>
     </row>
@@ -3165,23 +3165,23 @@
         <v>31</v>
       </c>
       <c r="E33" s="44" t="str">
-        <f>DEC2HEX(F33)</f>
+        <f t="shared" si="0"/>
         <v>6F</v>
       </c>
       <c r="F33" s="43">
         <v>111</v>
       </c>
       <c r="G33" s="44" t="str">
-        <f>CHAR(F33)</f>
+        <f t="shared" si="1"/>
         <v>o</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="4">
-        <f>IF(ISBLANK(B33),D33-C33+1,0)</f>
+        <f t="shared" ref="I33:I51" si="4">IF(ISBLANK(B33),D33-C33+1,0)</f>
         <v>0</v>
       </c>
       <c r="J33" s="4">
-        <f>IF(ISBLANK(B33),0,D33-C33+1)</f>
+        <f t="shared" ref="J33:J51" si="5">IF(ISBLANK(B33),0,D33-C33+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -3199,23 +3199,23 @@
         <v>63</v>
       </c>
       <c r="E34" s="44" t="str">
-        <f>DEC2HEX(F34)</f>
+        <f t="shared" ref="E34:E65" si="6">DEC2HEX(F34)</f>
         <v>6E</v>
       </c>
       <c r="F34" s="44">
         <v>110</v>
       </c>
       <c r="G34" s="44" t="str">
-        <f>CHAR(F34)</f>
+        <f t="shared" ref="G34:G65" si="7">CHAR(F34)</f>
         <v>n</v>
       </c>
       <c r="H34" s="43"/>
       <c r="I34" s="4">
-        <f>IF(ISBLANK(B34),D34-C34+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J34" s="4">
-        <f>IF(ISBLANK(B34),0,D34-C34+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3233,23 +3233,23 @@
         <v>67</v>
       </c>
       <c r="E35" s="44" t="str">
-        <f>DEC2HEX(F35)</f>
+        <f t="shared" si="6"/>
         <v>6F</v>
       </c>
       <c r="F35" s="43">
         <v>111</v>
       </c>
       <c r="G35" s="44" t="str">
-        <f>CHAR(F35)</f>
+        <f t="shared" si="7"/>
         <v>o</v>
       </c>
       <c r="H35" s="43"/>
       <c r="I35" s="4">
-        <f>IF(ISBLANK(B35),D35-C35+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J35" s="4">
-        <f>IF(ISBLANK(B35),0,D35-C35+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3267,23 +3267,23 @@
         <v>71</v>
       </c>
       <c r="E36" s="44" t="str">
-        <f>DEC2HEX(F36)</f>
+        <f t="shared" si="6"/>
         <v>6F</v>
       </c>
       <c r="F36" s="43">
         <v>111</v>
       </c>
       <c r="G36" s="44" t="str">
-        <f>CHAR(F36)</f>
+        <f t="shared" si="7"/>
         <v>o</v>
       </c>
       <c r="H36" s="43"/>
       <c r="I36" s="4">
-        <f>IF(ISBLANK(B36),D36-C36+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J36" s="4">
-        <f>IF(ISBLANK(B36),0,D36-C36+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3301,22 +3301,22 @@
         <v>203</v>
       </c>
       <c r="E37" s="5" t="str">
-        <f>DEC2HEX(F37)</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="F37" s="5">
         <v>80</v>
       </c>
       <c r="G37" s="5" t="str">
-        <f>CHAR(F37)</f>
+        <f t="shared" si="7"/>
         <v>P</v>
       </c>
       <c r="I37" s="4">
-        <f>IF(ISBLANK(B37),D37-C37+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J37" s="4">
-        <f>IF(ISBLANK(B37),0,D37-C37+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3334,22 +3334,22 @@
         <v>435</v>
       </c>
       <c r="E38" s="5" t="str">
-        <f>DEC2HEX(F38)</f>
+        <f t="shared" si="6"/>
         <v>2B</v>
       </c>
       <c r="F38" s="5">
         <v>43</v>
       </c>
       <c r="G38" s="5" t="str">
-        <f>CHAR(F38)</f>
+        <f t="shared" si="7"/>
         <v>+</v>
       </c>
       <c r="I38" s="4">
-        <f>IF(ISBLANK(B38),D38-C38+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J38" s="4">
-        <f>IF(ISBLANK(B38),0,D38-C38+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3367,22 +3367,22 @@
         <v>499</v>
       </c>
       <c r="E39" s="5" t="str">
-        <f>DEC2HEX(F39)</f>
+        <f t="shared" si="6"/>
         <v>2E</v>
       </c>
       <c r="F39" s="5">
         <v>46</v>
       </c>
       <c r="G39" s="5" t="str">
-        <f>CHAR(F39)</f>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="I39" s="4">
-        <f>IF(ISBLANK(B39),D39-C39+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J39" s="4">
-        <f>IF(ISBLANK(B39),0,D39-C39+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3400,22 +3400,22 @@
         <v>627</v>
       </c>
       <c r="E40" s="5" t="str">
-        <f>DEC2HEX(F40)</f>
+        <f t="shared" si="6"/>
         <v>FB</v>
       </c>
       <c r="F40" s="5">
         <v>251</v>
       </c>
       <c r="G40" s="5" t="str">
-        <f>CHAR(F40)</f>
+        <f t="shared" si="7"/>
         <v>û</v>
       </c>
       <c r="I40" s="4">
-        <f>IF(ISBLANK(B40),D40-C40+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J40" s="4">
-        <f>IF(ISBLANK(B40),0,D40-C40+1)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3433,22 +3433,22 @@
         <v>683</v>
       </c>
       <c r="E41" s="5" t="str">
-        <f>DEC2HEX(F41)</f>
+        <f t="shared" si="6"/>
         <v>FC</v>
       </c>
       <c r="F41" s="5">
         <v>252</v>
       </c>
       <c r="G41" s="5" t="str">
-        <f>CHAR(F41)</f>
+        <f t="shared" si="7"/>
         <v>ü</v>
       </c>
       <c r="I41" s="4">
-        <f>IF(ISBLANK(B41),D41-C41+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <f>IF(ISBLANK(B41),0,D41-C41+1)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3466,22 +3466,22 @@
         <v>703</v>
       </c>
       <c r="E42" s="5" t="str">
-        <f>DEC2HEX(F42)</f>
+        <f t="shared" si="6"/>
         <v>B6</v>
       </c>
       <c r="F42" s="5">
         <v>182</v>
       </c>
       <c r="G42" s="5" t="str">
-        <f>CHAR(F42)</f>
+        <f t="shared" si="7"/>
         <v>¶</v>
       </c>
       <c r="I42" s="4">
-        <f>IF(ISBLANK(B42),D42-C42+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <f>IF(ISBLANK(B42),0,D42-C42+1)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3499,22 +3499,22 @@
         <v>755</v>
       </c>
       <c r="E43" s="5" t="str">
-        <f>DEC2HEX(F43)</f>
+        <f t="shared" si="6"/>
         <v>FD</v>
       </c>
       <c r="F43" s="5">
         <v>253</v>
       </c>
       <c r="G43" s="5" t="str">
-        <f>CHAR(F43)</f>
+        <f t="shared" si="7"/>
         <v>ý</v>
       </c>
       <c r="I43" s="4">
-        <f>IF(ISBLANK(B43),D43-C43+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <f>IF(ISBLANK(B43),0,D43-C43+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="L43" s="5"/>
@@ -3534,23 +3534,23 @@
         <v>807</v>
       </c>
       <c r="E44" s="34" t="str">
-        <f>DEC2HEX(F44)</f>
+        <f t="shared" si="6"/>
         <v>3A</v>
       </c>
       <c r="F44" s="34">
         <v>58</v>
       </c>
       <c r="G44" s="34" t="str">
-        <f>CHAR(F44)</f>
+        <f t="shared" si="7"/>
         <v>:</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="4">
-        <f>IF(ISBLANK(B44),D44-C44+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <f>IF(ISBLANK(B44),0,D44-C44+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3568,22 +3568,22 @@
         <v>811</v>
       </c>
       <c r="E45" s="34" t="str">
-        <f>DEC2HEX(F45)</f>
+        <f t="shared" si="6"/>
         <v>3B</v>
       </c>
       <c r="F45" s="34">
         <v>59</v>
       </c>
       <c r="G45" s="34" t="str">
-        <f>CHAR(F45)</f>
+        <f t="shared" si="7"/>
         <v>;</v>
       </c>
       <c r="I45" s="4">
-        <f>IF(ISBLANK(B45),D45-C45+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J45" s="4">
-        <f>IF(ISBLANK(B45),0,D45-C45+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3601,22 +3601,22 @@
         <v>815</v>
       </c>
       <c r="E46" s="34" t="str">
-        <f>DEC2HEX(F46)</f>
+        <f t="shared" si="6"/>
         <v>BA</v>
       </c>
       <c r="F46" s="34">
         <v>186</v>
       </c>
       <c r="G46" s="34" t="str">
-        <f>CHAR(F46)</f>
+        <f t="shared" si="7"/>
         <v>º</v>
       </c>
       <c r="I46" s="4">
-        <f>IF(ISBLANK(B46),D46-C46+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J46" s="4">
-        <f>IF(ISBLANK(B46),0,D46-C46+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3634,22 +3634,22 @@
         <v>819</v>
       </c>
       <c r="E47" s="34" t="str">
-        <f>DEC2HEX(F47)</f>
+        <f t="shared" si="6"/>
         <v>B9</v>
       </c>
       <c r="F47" s="34">
         <v>185</v>
       </c>
       <c r="G47" s="34" t="str">
-        <f>CHAR(F47)</f>
+        <f t="shared" si="7"/>
         <v>¹</v>
       </c>
       <c r="I47" s="4">
-        <f>IF(ISBLANK(B47),D47-C47+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J47" s="4">
-        <f>IF(ISBLANK(B47),0,D47-C47+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3667,22 +3667,22 @@
         <v>855</v>
       </c>
       <c r="E48" s="34" t="str">
-        <f>DEC2HEX(F48)</f>
+        <f t="shared" si="6"/>
         <v>B9</v>
       </c>
       <c r="F48" s="34">
         <v>185</v>
       </c>
       <c r="G48" s="34" t="str">
-        <f>CHAR(F48)</f>
+        <f t="shared" si="7"/>
         <v>¹</v>
       </c>
       <c r="I48" s="4">
-        <f>IF(ISBLANK(B48),D48-C48+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J48" s="4">
-        <f>IF(ISBLANK(B48),0,D48-C48+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3700,22 +3700,22 @@
         <v>859</v>
       </c>
       <c r="E49" s="34" t="str">
-        <f>DEC2HEX(F49)</f>
+        <f t="shared" si="6"/>
         <v>BA</v>
       </c>
       <c r="F49" s="34">
         <v>186</v>
       </c>
       <c r="G49" s="34" t="str">
-        <f>CHAR(F49)</f>
+        <f t="shared" si="7"/>
         <v>º</v>
       </c>
       <c r="I49" s="4">
-        <f>IF(ISBLANK(B49),D49-C49+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J49" s="4">
-        <f>IF(ISBLANK(B49),0,D49-C49+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3733,22 +3733,22 @@
         <v>863</v>
       </c>
       <c r="E50" s="34" t="str">
-        <f>DEC2HEX(F50)</f>
+        <f t="shared" si="6"/>
         <v>BA</v>
       </c>
       <c r="F50" s="34">
         <v>186</v>
       </c>
       <c r="G50" s="34" t="str">
-        <f>CHAR(F50)</f>
+        <f t="shared" si="7"/>
         <v>º</v>
       </c>
       <c r="I50" s="4">
-        <f>IF(ISBLANK(B50),D50-C50+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J50" s="4">
-        <f>IF(ISBLANK(B50),0,D50-C50+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3766,22 +3766,22 @@
         <v>867</v>
       </c>
       <c r="E51" s="34" t="str">
-        <f>DEC2HEX(F51)</f>
+        <f t="shared" si="6"/>
         <v>B9</v>
       </c>
       <c r="F51" s="34">
         <v>185</v>
       </c>
       <c r="G51" s="34" t="str">
-        <f>CHAR(F51)</f>
+        <f t="shared" si="7"/>
         <v>¹</v>
       </c>
       <c r="I51" s="4">
-        <f>IF(ISBLANK(B51),D51-C51+1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J51" s="4">
-        <f>IF(ISBLANK(B51),0,D51-C51+1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3795,14 +3795,14 @@
       <c r="C52" s="46"/>
       <c r="D52" s="46"/>
       <c r="E52" s="47" t="str">
-        <f>DEC2HEX(F52)</f>
+        <f t="shared" si="6"/>
         <v>F7</v>
       </c>
       <c r="F52" s="47">
         <v>247</v>
       </c>
       <c r="G52" s="47" t="str">
-        <f>CHAR(F52)</f>
+        <f t="shared" si="7"/>
         <v>÷</v>
       </c>
     </row>
@@ -3820,23 +3820,23 @@
         <v>139</v>
       </c>
       <c r="E53" s="45" t="str">
-        <f>DEC2HEX(F53)</f>
+        <f t="shared" si="6"/>
         <v>BE</v>
       </c>
       <c r="F53" s="45">
         <v>190</v>
       </c>
       <c r="G53" s="45" t="str">
-        <f>CHAR(F53)</f>
+        <f t="shared" si="7"/>
         <v>¾</v>
       </c>
       <c r="H53" s="42"/>
       <c r="I53" s="4">
-        <f>IF(ISBLANK(B53),D53-C53+1,0)</f>
+        <f t="shared" ref="I53:I58" si="8">IF(ISBLANK(B53),D53-C53+1,0)</f>
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <f>IF(ISBLANK(B53),0,D53-C53+1)</f>
+        <f t="shared" ref="J53:J58" si="9">IF(ISBLANK(B53),0,D53-C53+1)</f>
         <v>14</v>
       </c>
     </row>
@@ -3854,22 +3854,22 @@
         <v>159</v>
       </c>
       <c r="E54" s="5" t="str">
-        <f>DEC2HEX(F54)</f>
+        <f t="shared" si="6"/>
         <v>4C</v>
       </c>
       <c r="F54" s="5">
         <v>76</v>
       </c>
       <c r="G54" s="5" t="str">
-        <f>CHAR(F54)</f>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="I54" s="4">
-        <f>IF(ISBLANK(B54),D54-C54+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J54" s="4">
-        <f>IF(ISBLANK(B54),0,D54-C54+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -3887,22 +3887,22 @@
         <v>307</v>
       </c>
       <c r="E55" s="5" t="str">
-        <f>DEC2HEX(F55)</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="F55" s="5">
         <v>85</v>
       </c>
       <c r="G55" s="5" t="str">
-        <f>CHAR(F55)</f>
+        <f t="shared" si="7"/>
         <v>U</v>
       </c>
       <c r="I55" s="4">
-        <f>IF(ISBLANK(B55),D55-C55+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <f>IF(ISBLANK(B55),0,D55-C55+1)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -3920,22 +3920,22 @@
         <v>439</v>
       </c>
       <c r="E56" s="5" t="str">
-        <f>DEC2HEX(F56)</f>
+        <f t="shared" si="6"/>
         <v>2C</v>
       </c>
       <c r="F56" s="5">
         <v>44</v>
       </c>
       <c r="G56" s="5" t="str">
-        <f>CHAR(F56)</f>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="I56" s="4">
-        <f>IF(ISBLANK(B56),D56-C56+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J56" s="4">
-        <f>IF(ISBLANK(B56),0,D56-C56+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -3953,22 +3953,22 @@
         <v>643</v>
       </c>
       <c r="E57" s="5" t="str">
-        <f>DEC2HEX(F57)</f>
+        <f t="shared" si="6"/>
         <v>E6</v>
       </c>
       <c r="F57" s="5">
         <v>230</v>
       </c>
       <c r="G57" s="5" t="str">
-        <f>CHAR(F57)</f>
+        <f t="shared" si="7"/>
         <v>æ</v>
       </c>
       <c r="I57" s="4">
-        <f>IF(ISBLANK(B57),D57-C57+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J57" s="4">
-        <f>IF(ISBLANK(B57),0,D57-C57+1)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -3986,22 +3986,22 @@
         <v>759</v>
       </c>
       <c r="E58" s="5" t="str">
-        <f>DEC2HEX(F58)</f>
+        <f t="shared" si="6"/>
         <v>4D</v>
       </c>
       <c r="F58" s="5">
         <v>77</v>
       </c>
       <c r="G58" s="5" t="str">
-        <f>CHAR(F58)</f>
+        <f t="shared" si="7"/>
         <v>M</v>
       </c>
       <c r="I58" s="4">
-        <f>IF(ISBLANK(B58),D58-C58+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J58" s="4">
-        <f>IF(ISBLANK(B58),0,D58-C58+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4013,14 +4013,14 @@
         <v>132</v>
       </c>
       <c r="E59" s="5" t="str">
-        <f>DEC2HEX(F59)</f>
+        <f t="shared" si="6"/>
         <v>3D</v>
       </c>
       <c r="F59" s="5">
         <v>61</v>
       </c>
       <c r="G59" s="5" t="str">
-        <f>CHAR(F59)</f>
+        <f t="shared" si="7"/>
         <v>=</v>
       </c>
     </row>
@@ -4038,23 +4038,23 @@
         <v>107</v>
       </c>
       <c r="E60" s="44" t="str">
-        <f>DEC2HEX(F60)</f>
+        <f t="shared" si="6"/>
         <v>6E</v>
       </c>
       <c r="F60" s="44">
         <v>110</v>
       </c>
       <c r="G60" s="44" t="str">
-        <f>CHAR(F60)</f>
+        <f t="shared" si="7"/>
         <v>n</v>
       </c>
       <c r="H60" s="43"/>
       <c r="I60" s="4">
-        <f>IF(ISBLANK(B60),D60-C60+1,0)</f>
+        <f t="shared" ref="I60:I75" si="10">IF(ISBLANK(B60),D60-C60+1,0)</f>
         <v>0</v>
       </c>
       <c r="J60" s="4">
-        <f>IF(ISBLANK(B60),0,D60-C60+1)</f>
+        <f t="shared" ref="J60:J75" si="11">IF(ISBLANK(B60),0,D60-C60+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -4072,23 +4072,23 @@
         <v>125</v>
       </c>
       <c r="E61" s="45" t="str">
-        <f>DEC2HEX(F61)</f>
+        <f t="shared" si="6"/>
         <v>BE</v>
       </c>
       <c r="F61" s="45">
         <v>190</v>
       </c>
       <c r="G61" s="45" t="str">
-        <f>CHAR(F61)</f>
+        <f t="shared" si="7"/>
         <v>¾</v>
       </c>
       <c r="H61" s="42"/>
       <c r="I61" s="4">
-        <f>IF(ISBLANK(B61),D61-C61+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J61" s="4">
-        <f>IF(ISBLANK(B61),0,D61-C61+1)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
@@ -4106,22 +4106,22 @@
         <v>155</v>
       </c>
       <c r="E62" s="5" t="str">
-        <f>DEC2HEX(F62)</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="F62" s="5">
         <v>69</v>
       </c>
       <c r="G62" s="5" t="str">
-        <f>CHAR(F62)</f>
+        <f t="shared" si="7"/>
         <v>E</v>
       </c>
       <c r="I62" s="4">
-        <f>IF(ISBLANK(B62),D62-C62+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J62" s="4">
-        <f>IF(ISBLANK(B62),0,D62-C62+1)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -4139,22 +4139,22 @@
         <v>163</v>
       </c>
       <c r="E63" s="5" t="str">
-        <f>DEC2HEX(F63)</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="F63" s="5">
         <v>69</v>
       </c>
       <c r="G63" s="5" t="str">
-        <f>CHAR(F63)</f>
+        <f t="shared" si="7"/>
         <v>E</v>
       </c>
       <c r="I63" s="4">
-        <f>IF(ISBLANK(B63),D63-C63+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J63" s="4">
-        <f>IF(ISBLANK(B63),0,D63-C63+1)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="L63" s="5"/>
@@ -4174,22 +4174,22 @@
         <v>195</v>
       </c>
       <c r="E64" s="5" t="str">
-        <f>DEC2HEX(F64)</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="F64" s="5">
         <v>69</v>
       </c>
       <c r="G64" s="5" t="str">
-        <f>CHAR(F64)</f>
+        <f t="shared" si="7"/>
         <v>E</v>
       </c>
       <c r="I64" s="4">
-        <f>IF(ISBLANK(B64),D64-C64+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J64" s="4">
-        <f>IF(ISBLANK(B64),0,D64-C64+1)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -4207,22 +4207,22 @@
         <v>359</v>
       </c>
       <c r="E65" s="5" t="str">
-        <f>DEC2HEX(F65)</f>
+        <f t="shared" si="6"/>
         <v>BF</v>
       </c>
       <c r="F65" s="5">
         <v>191</v>
       </c>
       <c r="G65" s="5" t="str">
-        <f>CHAR(F65)</f>
+        <f t="shared" si="7"/>
         <v>¿</v>
       </c>
       <c r="I65" s="4">
-        <f>IF(ISBLANK(B65),D65-C65+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J65" s="4">
-        <f>IF(ISBLANK(B65),0,D65-C65+1)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
@@ -4240,22 +4240,22 @@
         <v>367</v>
       </c>
       <c r="E66" s="5" t="str">
-        <f>DEC2HEX(F66)</f>
+        <f t="shared" ref="E66:E97" si="12">DEC2HEX(F66)</f>
         <v>BF</v>
       </c>
       <c r="F66" s="5">
         <v>191</v>
       </c>
       <c r="G66" s="5" t="str">
-        <f>CHAR(F66)</f>
+        <f t="shared" ref="G66:G97" si="13">CHAR(F66)</f>
         <v>¿</v>
       </c>
       <c r="I66" s="4">
-        <f>IF(ISBLANK(B66),D66-C66+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J66" s="4">
-        <f>IF(ISBLANK(B66),0,D66-C66+1)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
@@ -4273,23 +4273,23 @@
         <v>371</v>
       </c>
       <c r="E67" s="5" t="str">
-        <f>DEC2HEX(F67)</f>
+        <f t="shared" si="12"/>
         <v>F6</v>
       </c>
       <c r="F67" s="5">
         <v>246</v>
       </c>
       <c r="G67" s="5" t="str">
-        <f>CHAR(F67)</f>
+        <f t="shared" si="13"/>
         <v>ö</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="4">
-        <f>IF(ISBLANK(B67),D67-C67+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J67" s="4">
-        <f>IF(ISBLANK(B67),0,D67-C67+1)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -4307,22 +4307,22 @@
         <v>575</v>
       </c>
       <c r="E68" s="5" t="str">
-        <f>DEC2HEX(F68)</f>
+        <f t="shared" si="12"/>
         <v>C4</v>
       </c>
       <c r="F68" s="5">
         <v>196</v>
       </c>
       <c r="G68" s="5" t="str">
-        <f>CHAR(F68)</f>
+        <f t="shared" si="13"/>
         <v>Ä</v>
       </c>
       <c r="I68" s="4">
-        <f>IF(ISBLANK(B68),D68-C68+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J68" s="4">
-        <f>IF(ISBLANK(B68),0,D68-C68+1)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N68" s="5"/>
@@ -4342,22 +4342,22 @@
         <v>587</v>
       </c>
       <c r="E69" s="5" t="str">
-        <f>DEC2HEX(F69)</f>
+        <f t="shared" si="12"/>
         <v>BF</v>
       </c>
       <c r="F69" s="5">
         <v>191</v>
       </c>
       <c r="G69" s="5" t="str">
-        <f>CHAR(F69)</f>
+        <f t="shared" si="13"/>
         <v>¿</v>
       </c>
       <c r="I69" s="4">
-        <f>IF(ISBLANK(B69),D69-C69+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J69" s="4">
-        <f>IF(ISBLANK(B69),0,D69-C69+1)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
@@ -4375,22 +4375,22 @@
         <v>595</v>
       </c>
       <c r="E70" s="5" t="str">
-        <f>DEC2HEX(F70)</f>
+        <f t="shared" si="12"/>
         <v>C4</v>
       </c>
       <c r="F70" s="5">
         <v>196</v>
       </c>
       <c r="G70" s="5" t="str">
-        <f>CHAR(F70)</f>
+        <f t="shared" si="13"/>
         <v>Ä</v>
       </c>
       <c r="I70" s="4">
-        <f>IF(ISBLANK(B70),D70-C70+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J70" s="4">
-        <f>IF(ISBLANK(B70),0,D70-C70+1)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -4408,22 +4408,22 @@
         <v>711</v>
       </c>
       <c r="E71" s="5" t="str">
-        <f>DEC2HEX(F71)</f>
+        <f t="shared" si="12"/>
         <v>C4</v>
       </c>
       <c r="F71" s="5">
         <v>196</v>
       </c>
       <c r="G71" s="5" t="str">
-        <f>CHAR(F71)</f>
+        <f t="shared" si="13"/>
         <v>Ä</v>
       </c>
       <c r="I71" s="4">
-        <f>IF(ISBLANK(B71),D71-C71+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J71" s="4">
-        <f>IF(ISBLANK(B71),0,D71-C71+1)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -4441,11 +4441,11 @@
         <v>725</v>
       </c>
       <c r="I72" s="4">
-        <f>IF(ISBLANK(B72),D72-C72+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J72" s="4">
-        <f>IF(ISBLANK(B72),0,D72-C72+1)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
@@ -4463,11 +4463,11 @@
         <v>739</v>
       </c>
       <c r="I73" s="4">
-        <f>IF(ISBLANK(B73),D73-C73+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J73" s="4">
-        <f>IF(ISBLANK(B73),0,D73-C73+1)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
@@ -4485,22 +4485,22 @@
         <v>907</v>
       </c>
       <c r="E74" s="34" t="str">
-        <f>DEC2HEX(F74)</f>
+        <f t="shared" ref="E74:E108" si="14">DEC2HEX(F74)</f>
         <v>3A</v>
       </c>
       <c r="F74" s="34">
         <v>58</v>
       </c>
       <c r="G74" s="34" t="str">
-        <f>CHAR(F74)</f>
+        <f t="shared" ref="G74:G108" si="15">CHAR(F74)</f>
         <v>:</v>
       </c>
       <c r="I74" s="4">
-        <f>IF(ISBLANK(B74),D74-C74+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J74" s="4">
-        <f>IF(ISBLANK(B74),0,D74-C74+1)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -4518,22 +4518,22 @@
         <v>947</v>
       </c>
       <c r="E75" s="34" t="str">
-        <f>DEC2HEX(F75)</f>
+        <f t="shared" si="14"/>
         <v>3B</v>
       </c>
       <c r="F75" s="34">
         <v>59</v>
       </c>
       <c r="G75" s="34" t="str">
-        <f>CHAR(F75)</f>
+        <f t="shared" si="15"/>
         <v>;</v>
       </c>
       <c r="I75" s="4">
-        <f>IF(ISBLANK(B75),D75-C75+1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J75" s="4">
-        <f>IF(ISBLANK(B75),0,D75-C75+1)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -4547,14 +4547,14 @@
       <c r="C76" s="46"/>
       <c r="D76" s="46"/>
       <c r="E76" s="47" t="str">
-        <f>DEC2HEX(F76)</f>
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
       <c r="F76" s="47">
         <v>81</v>
       </c>
       <c r="G76" s="47" t="str">
-        <f>CHAR(F76)</f>
+        <f t="shared" si="15"/>
         <v>Q</v>
       </c>
     </row>
@@ -4568,14 +4568,14 @@
       <c r="C77" s="46"/>
       <c r="D77" s="46"/>
       <c r="E77" s="47" t="str">
-        <f>DEC2HEX(F77)</f>
+        <f t="shared" si="14"/>
         <v>52</v>
       </c>
       <c r="F77" s="47">
         <v>82</v>
       </c>
       <c r="G77" s="47" t="str">
-        <f>CHAR(F77)</f>
+        <f t="shared" si="15"/>
         <v>R</v>
       </c>
     </row>
@@ -4593,22 +4593,22 @@
         <v>395</v>
       </c>
       <c r="E78" s="5" t="str">
-        <f>DEC2HEX(F78)</f>
+        <f t="shared" si="14"/>
         <v>E1</v>
       </c>
       <c r="F78" s="5">
         <v>225</v>
       </c>
       <c r="G78" s="5" t="str">
-        <f>CHAR(F78)</f>
+        <f t="shared" si="15"/>
         <v>á</v>
       </c>
       <c r="I78" s="4">
-        <f>IF(ISBLANK(B78),D78-C78+1,0)</f>
+        <f t="shared" ref="I78:I83" si="16">IF(ISBLANK(B78),D78-C78+1,0)</f>
         <v>0</v>
       </c>
       <c r="J78" s="4">
-        <f>IF(ISBLANK(B78),0,D78-C78+1)</f>
+        <f t="shared" ref="J78:J83" si="17">IF(ISBLANK(B78),0,D78-C78+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -4626,22 +4626,22 @@
         <v>427</v>
       </c>
       <c r="E79" s="5" t="str">
-        <f>DEC2HEX(F79)</f>
+        <f t="shared" si="14"/>
         <v>DC</v>
       </c>
       <c r="F79" s="5">
         <v>220</v>
       </c>
       <c r="G79" s="5" t="str">
-        <f>CHAR(F79)</f>
+        <f t="shared" si="15"/>
         <v>Ü</v>
       </c>
       <c r="I79" s="4">
-        <f>IF(ISBLANK(B79),D79-C79+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J79" s="4">
-        <f>IF(ISBLANK(B79),0,D79-C79+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -4659,22 +4659,22 @@
         <v>479</v>
       </c>
       <c r="E80" s="5" t="str">
-        <f>DEC2HEX(F80)</f>
+        <f t="shared" si="14"/>
         <v>E0</v>
       </c>
       <c r="F80" s="5">
         <v>224</v>
       </c>
       <c r="G80" s="5" t="str">
-        <f>CHAR(F80)</f>
+        <f t="shared" si="15"/>
         <v>à</v>
       </c>
       <c r="I80" s="4">
-        <f>IF(ISBLANK(B80),D80-C80+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J80" s="4">
-        <f>IF(ISBLANK(B80),0,D80-C80+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -4692,22 +4692,22 @@
         <v>579</v>
       </c>
       <c r="E81" s="5" t="str">
-        <f>DEC2HEX(F81)</f>
+        <f t="shared" si="14"/>
         <v>DF</v>
       </c>
       <c r="F81" s="5">
         <v>223</v>
       </c>
       <c r="G81" s="5" t="str">
-        <f>CHAR(F81)</f>
+        <f t="shared" si="15"/>
         <v>ß</v>
       </c>
       <c r="I81" s="4">
-        <f>IF(ISBLANK(B81),D81-C81+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J81" s="4">
-        <f>IF(ISBLANK(B81),0,D81-C81+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -4725,22 +4725,22 @@
         <v>599</v>
       </c>
       <c r="E82" s="5" t="str">
-        <f>DEC2HEX(F82)</f>
+        <f t="shared" si="14"/>
         <v>DE</v>
       </c>
       <c r="F82" s="5">
         <v>222</v>
       </c>
       <c r="G82" s="5" t="str">
-        <f>CHAR(F82)</f>
+        <f t="shared" si="15"/>
         <v>Þ</v>
       </c>
       <c r="I82" s="4">
-        <f>IF(ISBLANK(B82),D82-C82+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J82" s="4">
-        <f>IF(ISBLANK(B82),0,D82-C82+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -4758,22 +4758,22 @@
         <v>687</v>
       </c>
       <c r="E83" s="5" t="str">
-        <f>DEC2HEX(F83)</f>
+        <f t="shared" si="14"/>
         <v>DD</v>
       </c>
       <c r="F83" s="5">
         <v>221</v>
       </c>
       <c r="G83" s="5" t="str">
-        <f>CHAR(F83)</f>
+        <f t="shared" si="15"/>
         <v>Ý</v>
       </c>
       <c r="I83" s="4">
-        <f>IF(ISBLANK(B83),D83-C83+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J83" s="4">
-        <f>IF(ISBLANK(B83),0,D83-C83+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -4787,14 +4787,14 @@
       <c r="C84" s="46"/>
       <c r="D84" s="46"/>
       <c r="E84" s="47" t="str">
-        <f>DEC2HEX(F84)</f>
+        <f t="shared" si="14"/>
         <v>A3</v>
       </c>
       <c r="F84" s="47">
         <v>163</v>
       </c>
       <c r="G84" s="47" t="str">
-        <f>CHAR(F84)</f>
+        <f t="shared" si="15"/>
         <v>£</v>
       </c>
     </row>
@@ -4812,23 +4812,23 @@
         <v>3</v>
       </c>
       <c r="E85" s="44" t="str">
-        <f>DEC2HEX(F85)</f>
+        <f t="shared" si="14"/>
         <v>6E</v>
       </c>
       <c r="F85" s="44">
         <v>110</v>
       </c>
       <c r="G85" s="44" t="str">
-        <f>CHAR(F85)</f>
+        <f t="shared" si="15"/>
         <v>n</v>
       </c>
       <c r="H85" s="43"/>
       <c r="I85" s="4">
-        <f>IF(ISBLANK(B85),D85-C85+1,0)</f>
+        <f t="shared" ref="I85:I97" si="18">IF(ISBLANK(B85),D85-C85+1,0)</f>
         <v>0</v>
       </c>
       <c r="J85" s="4">
-        <f>IF(ISBLANK(B85),0,D85-C85+1)</f>
+        <f t="shared" ref="J85:J97" si="19">IF(ISBLANK(B85),0,D85-C85+1)</f>
         <v>4</v>
       </c>
       <c r="K85" s="4">
@@ -4858,23 +4858,23 @@
         <v>11</v>
       </c>
       <c r="E86" s="44" t="str">
-        <f>DEC2HEX(F86)</f>
+        <f t="shared" si="14"/>
         <v>6F</v>
       </c>
       <c r="F86" s="43">
         <v>111</v>
       </c>
       <c r="G86" s="44" t="str">
-        <f>CHAR(F86)</f>
+        <f t="shared" si="15"/>
         <v>o</v>
       </c>
       <c r="H86" s="43"/>
       <c r="I86" s="4">
-        <f>IF(ISBLANK(B86),D86-C86+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J86" s="4">
-        <f>IF(ISBLANK(B86),0,D86-C86+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -4892,23 +4892,23 @@
         <v>15</v>
       </c>
       <c r="E87" s="44" t="str">
-        <f>DEC2HEX(F87)</f>
+        <f t="shared" si="14"/>
         <v>6F</v>
       </c>
       <c r="F87" s="43">
         <v>111</v>
       </c>
       <c r="G87" s="44" t="str">
-        <f>CHAR(F87)</f>
+        <f t="shared" si="15"/>
         <v>o</v>
       </c>
       <c r="H87" s="43"/>
       <c r="I87" s="4">
-        <f>IF(ISBLANK(B87),D87-C87+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J87" s="4">
-        <f>IF(ISBLANK(B87),0,D87-C87+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -4926,23 +4926,23 @@
         <v>19</v>
       </c>
       <c r="E88" s="44" t="str">
-        <f>DEC2HEX(F88)</f>
+        <f t="shared" si="14"/>
         <v>6F</v>
       </c>
       <c r="F88" s="43">
         <v>111</v>
       </c>
       <c r="G88" s="44" t="str">
-        <f>CHAR(F88)</f>
+        <f t="shared" si="15"/>
         <v>o</v>
       </c>
       <c r="H88" s="43"/>
       <c r="I88" s="4">
-        <f>IF(ISBLANK(B88),D88-C88+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J88" s="4">
-        <f>IF(ISBLANK(B88),0,D88-C88+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -4960,22 +4960,22 @@
         <v>571</v>
       </c>
       <c r="E89" s="5" t="str">
-        <f>DEC2HEX(F89)</f>
+        <f t="shared" si="14"/>
         <v>C5</v>
       </c>
       <c r="F89" s="5">
         <v>197</v>
       </c>
       <c r="G89" s="5" t="str">
-        <f>CHAR(F89)</f>
+        <f t="shared" si="15"/>
         <v>Å</v>
       </c>
       <c r="I89" s="4">
-        <f>IF(ISBLANK(B89),D89-C89+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J89" s="4">
-        <f>IF(ISBLANK(B89),0,D89-C89+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -4993,22 +4993,22 @@
         <v>875</v>
       </c>
       <c r="E90" s="34" t="str">
-        <f>DEC2HEX(F90)</f>
+        <f t="shared" si="14"/>
         <v>3A</v>
       </c>
       <c r="F90" s="34">
         <v>58</v>
       </c>
       <c r="G90" s="34" t="str">
-        <f>CHAR(F90)</f>
+        <f t="shared" si="15"/>
         <v>:</v>
       </c>
       <c r="I90" s="4">
-        <f>IF(ISBLANK(B90),D90-C90+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J90" s="4">
-        <f>IF(ISBLANK(B90),0,D90-C90+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -5026,22 +5026,22 @@
         <v>915</v>
       </c>
       <c r="E91" s="34" t="str">
-        <f>DEC2HEX(F91)</f>
+        <f t="shared" si="14"/>
         <v>3B</v>
       </c>
       <c r="F91" s="34">
         <v>59</v>
       </c>
       <c r="G91" s="34" t="str">
-        <f>CHAR(F91)</f>
+        <f t="shared" si="15"/>
         <v>;</v>
       </c>
       <c r="I91" s="4">
-        <f>IF(ISBLANK(B91),D91-C91+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J91" s="4">
-        <f>IF(ISBLANK(B91),0,D91-C91+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -5059,22 +5059,22 @@
         <v>955</v>
       </c>
       <c r="E92" s="34" t="str">
-        <f>DEC2HEX(F92)</f>
+        <f t="shared" si="14"/>
         <v>B9</v>
       </c>
       <c r="F92" s="34">
         <v>185</v>
       </c>
       <c r="G92" s="34" t="str">
-        <f>CHAR(F92)</f>
+        <f t="shared" si="15"/>
         <v>¹</v>
       </c>
       <c r="I92" s="4">
-        <f>IF(ISBLANK(B92),D92-C92+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J92" s="4">
-        <f>IF(ISBLANK(B92),0,D92-C92+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -5092,22 +5092,22 @@
         <v>975</v>
       </c>
       <c r="E93" s="34" t="str">
-        <f>DEC2HEX(F93)</f>
+        <f t="shared" si="14"/>
         <v>BA</v>
       </c>
       <c r="F93" s="34">
         <v>186</v>
       </c>
       <c r="G93" s="34" t="str">
-        <f>CHAR(F93)</f>
+        <f t="shared" si="15"/>
         <v>º</v>
       </c>
       <c r="I93" s="4">
-        <f>IF(ISBLANK(B93),D93-C93+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J93" s="4">
-        <f>IF(ISBLANK(B93),0,D93-C93+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -5125,22 +5125,22 @@
         <v>995</v>
       </c>
       <c r="E94" s="34" t="str">
-        <f>DEC2HEX(F94)</f>
+        <f t="shared" si="14"/>
         <v>B9</v>
       </c>
       <c r="F94" s="34">
         <v>185</v>
       </c>
       <c r="G94" s="34" t="str">
-        <f>CHAR(F94)</f>
+        <f t="shared" si="15"/>
         <v>¹</v>
       </c>
       <c r="I94" s="4">
-        <f>IF(ISBLANK(B94),D94-C94+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J94" s="4">
-        <f>IF(ISBLANK(B94),0,D94-C94+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -5158,22 +5158,22 @@
         <v>1007</v>
       </c>
       <c r="E95" s="34" t="str">
-        <f>DEC2HEX(F95)</f>
+        <f t="shared" si="14"/>
         <v>BA</v>
       </c>
       <c r="F95" s="34">
         <v>186</v>
       </c>
       <c r="G95" s="34" t="str">
-        <f>CHAR(F95)</f>
+        <f t="shared" si="15"/>
         <v>º</v>
       </c>
       <c r="I95" s="4">
-        <f>IF(ISBLANK(B95),D95-C95+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J95" s="4">
-        <f>IF(ISBLANK(B95),0,D95-C95+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -5191,22 +5191,22 @@
         <v>1019</v>
       </c>
       <c r="E96" s="34" t="str">
-        <f>DEC2HEX(F96)</f>
+        <f t="shared" si="14"/>
         <v>B9</v>
       </c>
       <c r="F96" s="34">
         <v>185</v>
       </c>
       <c r="G96" s="34" t="str">
-        <f>CHAR(F96)</f>
+        <f t="shared" si="15"/>
         <v>¹</v>
       </c>
       <c r="I96" s="4">
-        <f>IF(ISBLANK(B96),D96-C96+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J96" s="4">
-        <f>IF(ISBLANK(B96),0,D96-C96+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -5224,22 +5224,22 @@
         <v>1023</v>
       </c>
       <c r="E97" s="34" t="str">
-        <f>DEC2HEX(F97)</f>
+        <f t="shared" si="14"/>
         <v>BA</v>
       </c>
       <c r="F97" s="34">
         <v>186</v>
       </c>
       <c r="G97" s="34" t="str">
-        <f>CHAR(F97)</f>
+        <f t="shared" si="15"/>
         <v>º</v>
       </c>
       <c r="I97" s="4">
-        <f>IF(ISBLANK(B97),D97-C97+1,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J97" s="4">
-        <f>IF(ISBLANK(B97),0,D97-C97+1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -5253,14 +5253,14 @@
       <c r="C98" s="46"/>
       <c r="D98" s="46"/>
       <c r="E98" s="47" t="str">
-        <f>DEC2HEX(F98)</f>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="F98" s="47">
         <v>67</v>
       </c>
       <c r="G98" s="47" t="str">
-        <f>CHAR(F98)</f>
+        <f t="shared" si="15"/>
         <v>C</v>
       </c>
     </row>
@@ -5274,14 +5274,14 @@
       <c r="C99" s="46"/>
       <c r="D99" s="46"/>
       <c r="E99" s="47" t="str">
-        <f>DEC2HEX(F99)</f>
+        <f t="shared" si="14"/>
         <v>5A</v>
       </c>
       <c r="F99" s="47">
         <v>90</v>
       </c>
       <c r="G99" s="47" t="str">
-        <f>CHAR(F99)</f>
+        <f t="shared" si="15"/>
         <v>Z</v>
       </c>
     </row>
@@ -5295,14 +5295,14 @@
       <c r="C100" s="46"/>
       <c r="D100" s="46"/>
       <c r="E100" s="47" t="str">
-        <f>DEC2HEX(F100)</f>
+        <f t="shared" si="14"/>
         <v>5B</v>
       </c>
       <c r="F100" s="47">
         <v>91</v>
       </c>
       <c r="G100" s="47" t="str">
-        <f>CHAR(F100)</f>
+        <f t="shared" si="15"/>
         <v>[</v>
       </c>
     </row>
@@ -5316,14 +5316,14 @@
       <c r="C101" s="46"/>
       <c r="D101" s="46"/>
       <c r="E101" s="47" t="str">
-        <f>DEC2HEX(F101)</f>
+        <f t="shared" si="14"/>
         <v>63</v>
       </c>
       <c r="F101" s="47">
         <v>99</v>
       </c>
       <c r="G101" s="47" t="str">
-        <f>CHAR(F101)</f>
+        <f t="shared" si="15"/>
         <v>c</v>
       </c>
     </row>
@@ -5337,14 +5337,14 @@
       <c r="C102" s="46"/>
       <c r="D102" s="46"/>
       <c r="E102" s="47" t="str">
-        <f>DEC2HEX(F102)</f>
+        <f t="shared" si="14"/>
         <v>6B</v>
       </c>
       <c r="F102" s="47">
         <v>107</v>
       </c>
       <c r="G102" s="47" t="str">
-        <f>CHAR(F102)</f>
+        <f t="shared" si="15"/>
         <v>k</v>
       </c>
     </row>
@@ -5358,14 +5358,14 @@
       <c r="C103" s="46"/>
       <c r="D103" s="46"/>
       <c r="E103" s="47" t="str">
-        <f>DEC2HEX(F103)</f>
+        <f t="shared" si="14"/>
         <v>6C</v>
       </c>
       <c r="F103" s="47">
         <v>108</v>
       </c>
       <c r="G103" s="47" t="str">
-        <f>CHAR(F103)</f>
+        <f t="shared" si="15"/>
         <v>l</v>
       </c>
     </row>
@@ -5379,14 +5379,14 @@
       <c r="C104" s="46"/>
       <c r="D104" s="46"/>
       <c r="E104" s="47" t="str">
-        <f>DEC2HEX(F104)</f>
+        <f t="shared" si="14"/>
         <v>A5</v>
       </c>
       <c r="F104" s="47">
         <v>165</v>
       </c>
       <c r="G104" s="47" t="str">
-        <f>CHAR(F104)</f>
+        <f t="shared" si="15"/>
         <v>¥</v>
       </c>
     </row>
@@ -5400,14 +5400,14 @@
       <c r="C105" s="46"/>
       <c r="D105" s="46"/>
       <c r="E105" s="47" t="str">
-        <f>DEC2HEX(F105)</f>
+        <f t="shared" si="14"/>
         <v>A6</v>
       </c>
       <c r="F105" s="47">
         <v>166</v>
       </c>
       <c r="G105" s="47" t="str">
-        <f>CHAR(F105)</f>
+        <f t="shared" si="15"/>
         <v>¦</v>
       </c>
     </row>
@@ -5421,14 +5421,14 @@
       <c r="C106" s="46"/>
       <c r="D106" s="46"/>
       <c r="E106" s="47" t="str">
-        <f>DEC2HEX(F106)</f>
+        <f t="shared" si="14"/>
         <v>AB</v>
       </c>
       <c r="F106" s="47">
         <v>171</v>
       </c>
       <c r="G106" s="47" t="str">
-        <f>CHAR(F106)</f>
+        <f t="shared" si="15"/>
         <v>«</v>
       </c>
     </row>
@@ -5442,14 +5442,14 @@
       <c r="C107" s="46"/>
       <c r="D107" s="46"/>
       <c r="E107" s="47" t="str">
-        <f>DEC2HEX(F107)</f>
+        <f t="shared" si="14"/>
         <v>AC</v>
       </c>
       <c r="F107" s="47">
         <v>172</v>
       </c>
       <c r="G107" s="47" t="str">
-        <f>CHAR(F107)</f>
+        <f t="shared" si="15"/>
         <v>¬</v>
       </c>
     </row>
@@ -5463,14 +5463,14 @@
       <c r="C108" s="46"/>
       <c r="D108" s="46"/>
       <c r="E108" s="47" t="str">
-        <f>DEC2HEX(F108)</f>
+        <f t="shared" si="14"/>
         <v>58</v>
       </c>
       <c r="F108" s="47">
         <v>88</v>
       </c>
       <c r="G108" s="47" t="str">
-        <f>CHAR(F108)</f>
+        <f t="shared" si="15"/>
         <v>X</v>
       </c>
     </row>
@@ -5505,14 +5505,14 @@
         <v>456</v>
       </c>
       <c r="E110" s="5" t="str">
-        <f>DEC2HEX(F110)</f>
+        <f t="shared" ref="E110:E115" si="20">DEC2HEX(F110)</f>
         <v>7C</v>
       </c>
       <c r="F110" s="5">
         <v>124</v>
       </c>
       <c r="G110" s="5" t="str">
-        <f>CHAR(F110)</f>
+        <f t="shared" ref="G110:G115" si="21">CHAR(F110)</f>
         <v>|</v>
       </c>
     </row>
@@ -5530,23 +5530,23 @@
         <v>39</v>
       </c>
       <c r="E111" s="44" t="str">
-        <f>DEC2HEX(F111)</f>
+        <f t="shared" si="20"/>
         <v>6F</v>
       </c>
       <c r="F111" s="43">
         <v>111</v>
       </c>
       <c r="G111" s="44" t="str">
-        <f>CHAR(F111)</f>
+        <f t="shared" si="21"/>
         <v>o</v>
       </c>
       <c r="H111" s="43"/>
       <c r="I111" s="4">
-        <f>IF(ISBLANK(B111),D111-C111+1,0)</f>
+        <f t="shared" ref="I111:I127" si="22">IF(ISBLANK(B111),D111-C111+1,0)</f>
         <v>0</v>
       </c>
       <c r="J111" s="4">
-        <f>IF(ISBLANK(B111),0,D111-C111+1)</f>
+        <f t="shared" ref="J111:J127" si="23">IF(ISBLANK(B111),0,D111-C111+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -5564,23 +5564,23 @@
         <v>43</v>
       </c>
       <c r="E112" s="44" t="str">
-        <f>DEC2HEX(F112)</f>
+        <f t="shared" si="20"/>
         <v>6F</v>
       </c>
       <c r="F112" s="43">
         <v>111</v>
       </c>
       <c r="G112" s="44" t="str">
-        <f>CHAR(F112)</f>
+        <f t="shared" si="21"/>
         <v>o</v>
       </c>
       <c r="H112" s="43"/>
       <c r="I112" s="4">
-        <f>IF(ISBLANK(B112),D112-C112+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J112" s="4">
-        <f>IF(ISBLANK(B112),0,D112-C112+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -5598,23 +5598,23 @@
         <v>95</v>
       </c>
       <c r="E113" s="44" t="str">
-        <f>DEC2HEX(F113)</f>
+        <f t="shared" si="20"/>
         <v>6F</v>
       </c>
       <c r="F113" s="43">
         <v>111</v>
       </c>
       <c r="G113" s="44" t="str">
-        <f>CHAR(F113)</f>
+        <f t="shared" si="21"/>
         <v>o</v>
       </c>
       <c r="H113" s="43"/>
       <c r="I113" s="4">
-        <f>IF(ISBLANK(B113),D113-C113+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J113" s="4">
-        <f>IF(ISBLANK(B113),0,D113-C113+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -5632,22 +5632,22 @@
         <v>175</v>
       </c>
       <c r="E114" s="5" t="str">
-        <f>DEC2HEX(F114)</f>
+        <f t="shared" si="20"/>
         <v>B5</v>
       </c>
       <c r="F114" s="5">
         <v>181</v>
       </c>
       <c r="G114" s="5" t="str">
-        <f>CHAR(F114)</f>
+        <f t="shared" si="21"/>
         <v>µ</v>
       </c>
       <c r="I114" s="4">
-        <f>IF(ISBLANK(B114),D114-C114+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J114" s="4">
-        <f>IF(ISBLANK(B114),0,D114-C114+1)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
     </row>
@@ -5665,22 +5665,22 @@
         <v>347</v>
       </c>
       <c r="E115" s="5" t="str">
-        <f>DEC2HEX(F115)</f>
+        <f t="shared" si="20"/>
         <v>B5</v>
       </c>
       <c r="F115" s="5">
         <v>181</v>
       </c>
       <c r="G115" s="5" t="str">
-        <f>CHAR(F115)</f>
+        <f t="shared" si="21"/>
         <v>µ</v>
       </c>
       <c r="I115" s="4">
-        <f>IF(ISBLANK(B115),D115-C115+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J115" s="4">
-        <f>IF(ISBLANK(B115),0,D115-C115+1)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
     </row>
@@ -5698,11 +5698,11 @@
         <v>419</v>
       </c>
       <c r="I116" s="4">
-        <f>IF(ISBLANK(B116),D116-C116+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J116" s="4">
-        <f>IF(ISBLANK(B116),0,D116-C116+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -5720,11 +5720,11 @@
         <v>451</v>
       </c>
       <c r="I117" s="4">
-        <f>IF(ISBLANK(B117),D117-C117+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J117" s="4">
-        <f>IF(ISBLANK(B117),0,D117-C117+1)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
     </row>
@@ -5755,11 +5755,11 @@
         <v>161</v>
       </c>
       <c r="I118" s="4">
-        <f>IF(ISBLANK(B118),D118-C118+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J118" s="4">
-        <f>IF(ISBLANK(B118),0,D118-C118+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -5777,11 +5777,11 @@
         <v>603</v>
       </c>
       <c r="I119" s="4">
-        <f>IF(ISBLANK(B119),D119-C119+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J119" s="4">
-        <f>IF(ISBLANK(B119),0,D119-C119+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -5799,11 +5799,11 @@
         <v>607</v>
       </c>
       <c r="I120" s="4">
-        <f>IF(ISBLANK(B120),D120-C120+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J120" s="4">
-        <f>IF(ISBLANK(B120),0,D120-C120+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -5821,22 +5821,22 @@
         <v>675</v>
       </c>
       <c r="E121" s="5" t="str">
-        <f>DEC2HEX(F121)</f>
+        <f t="shared" ref="E121:E152" si="24">DEC2HEX(F121)</f>
         <v>B5</v>
       </c>
       <c r="F121" s="5">
         <v>181</v>
       </c>
       <c r="G121" s="5" t="str">
-        <f>CHAR(F121)</f>
+        <f t="shared" ref="G121:G152" si="25">CHAR(F121)</f>
         <v>µ</v>
       </c>
       <c r="I121" s="4">
-        <f>IF(ISBLANK(B121),D121-C121+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J121" s="4">
-        <f>IF(ISBLANK(B121),0,D121-C121+1)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
     </row>
@@ -5854,22 +5854,22 @@
         <v>891</v>
       </c>
       <c r="E122" s="34" t="str">
-        <f>DEC2HEX(F122)</f>
+        <f t="shared" si="24"/>
         <v>B9</v>
       </c>
       <c r="F122" s="34">
         <v>185</v>
       </c>
       <c r="G122" s="34" t="str">
-        <f>CHAR(F122)</f>
+        <f t="shared" si="25"/>
         <v>¹</v>
       </c>
       <c r="I122" s="4">
-        <f>IF(ISBLANK(B122),D122-C122+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J122" s="4">
-        <f>IF(ISBLANK(B122),0,D122-C122+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -5887,22 +5887,22 @@
         <v>895</v>
       </c>
       <c r="E123" s="34" t="str">
-        <f>DEC2HEX(F123)</f>
+        <f t="shared" si="24"/>
         <v>BA</v>
       </c>
       <c r="F123" s="34">
         <v>186</v>
       </c>
       <c r="G123" s="34" t="str">
-        <f>CHAR(F123)</f>
+        <f t="shared" si="25"/>
         <v>º</v>
       </c>
       <c r="I123" s="4">
-        <f>IF(ISBLANK(B123),D123-C123+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J123" s="4">
-        <f>IF(ISBLANK(B123),0,D123-C123+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -5920,22 +5920,22 @@
         <v>971</v>
       </c>
       <c r="E124" s="34" t="str">
-        <f>DEC2HEX(F124)</f>
+        <f t="shared" si="24"/>
         <v>B9</v>
       </c>
       <c r="F124" s="34">
         <v>185</v>
       </c>
       <c r="G124" s="34" t="str">
-        <f>CHAR(F124)</f>
+        <f t="shared" si="25"/>
         <v>¹</v>
       </c>
       <c r="I124" s="4">
-        <f>IF(ISBLANK(B124),D124-C124+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J124" s="4">
-        <f>IF(ISBLANK(B124),0,D124-C124+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -5953,22 +5953,22 @@
         <v>991</v>
       </c>
       <c r="E125" s="34" t="str">
-        <f>DEC2HEX(F125)</f>
+        <f t="shared" si="24"/>
         <v>BA</v>
       </c>
       <c r="F125" s="34">
         <v>186</v>
       </c>
       <c r="G125" s="34" t="str">
-        <f>CHAR(F125)</f>
+        <f t="shared" si="25"/>
         <v>º</v>
       </c>
       <c r="I125" s="4">
-        <f>IF(ISBLANK(B125),D125-C125+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J125" s="4">
-        <f>IF(ISBLANK(B125),0,D125-C125+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -5986,22 +5986,22 @@
         <v>1003</v>
       </c>
       <c r="E126" s="34" t="str">
-        <f>DEC2HEX(F126)</f>
+        <f t="shared" si="24"/>
         <v>B9</v>
       </c>
       <c r="F126" s="34">
         <v>185</v>
       </c>
       <c r="G126" s="34" t="str">
-        <f>CHAR(F126)</f>
+        <f t="shared" si="25"/>
         <v>¹</v>
       </c>
       <c r="I126" s="4">
-        <f>IF(ISBLANK(B126),D126-C126+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J126" s="4">
-        <f>IF(ISBLANK(B126),0,D126-C126+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -6019,22 +6019,22 @@
         <v>1015</v>
       </c>
       <c r="E127" s="34" t="str">
-        <f>DEC2HEX(F127)</f>
+        <f t="shared" si="24"/>
         <v>BA</v>
       </c>
       <c r="F127" s="34">
         <v>186</v>
       </c>
       <c r="G127" s="34" t="str">
-        <f>CHAR(F127)</f>
+        <f t="shared" si="25"/>
         <v>º</v>
       </c>
       <c r="I127" s="4">
-        <f>IF(ISBLANK(B127),D127-C127+1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J127" s="4">
-        <f>IF(ISBLANK(B127),0,D127-C127+1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -6048,14 +6048,14 @@
       <c r="C128" s="46"/>
       <c r="D128" s="46"/>
       <c r="E128" s="47" t="str">
-        <f>DEC2HEX(F128)</f>
+        <f t="shared" si="24"/>
         <v>B7</v>
       </c>
       <c r="F128" s="47">
         <v>183</v>
       </c>
       <c r="G128" s="47" t="str">
-        <f>CHAR(F128)</f>
+        <f t="shared" si="25"/>
         <v>·</v>
       </c>
     </row>
@@ -6069,14 +6069,14 @@
       <c r="C129" s="46"/>
       <c r="D129" s="46"/>
       <c r="E129" s="47" t="str">
-        <f>DEC2HEX(F129)</f>
+        <f t="shared" si="24"/>
         <v>B8</v>
       </c>
       <c r="F129" s="47">
         <v>184</v>
       </c>
       <c r="G129" s="47" t="str">
-        <f>CHAR(F129)</f>
+        <f t="shared" si="25"/>
         <v>¸</v>
       </c>
     </row>
@@ -6090,14 +6090,14 @@
       <c r="C130" s="46"/>
       <c r="D130" s="46"/>
       <c r="E130" s="47" t="str">
-        <f>DEC2HEX(F130)</f>
+        <f t="shared" si="24"/>
         <v>ED</v>
       </c>
       <c r="F130" s="47">
         <v>237</v>
       </c>
       <c r="G130" s="47" t="str">
-        <f>CHAR(F130)</f>
+        <f t="shared" si="25"/>
         <v>í</v>
       </c>
       <c r="H130" s="4" t="s">
@@ -6118,23 +6118,23 @@
         <v>23</v>
       </c>
       <c r="E131" s="44" t="str">
-        <f>DEC2HEX(F131)</f>
+        <f t="shared" si="24"/>
         <v>66</v>
       </c>
       <c r="F131" s="44">
         <v>102</v>
       </c>
       <c r="G131" s="44" t="str">
-        <f>CHAR(F131)</f>
+        <f t="shared" si="25"/>
         <v>f</v>
       </c>
       <c r="H131" s="43"/>
       <c r="I131" s="4">
-        <f>IF(ISBLANK(B131),D131-C131+1,0)</f>
+        <f t="shared" ref="I131:I143" si="26">IF(ISBLANK(B131),D131-C131+1,0)</f>
         <v>0</v>
       </c>
       <c r="J131" s="4">
-        <f>IF(ISBLANK(B131),0,D131-C131+1)</f>
+        <f t="shared" ref="J131:J143" si="27">IF(ISBLANK(B131),0,D131-C131+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -6152,23 +6152,23 @@
         <v>59</v>
       </c>
       <c r="E132" s="44" t="str">
-        <f>DEC2HEX(F132)</f>
+        <f t="shared" si="24"/>
         <v>66</v>
       </c>
       <c r="F132" s="44">
         <v>102</v>
       </c>
       <c r="G132" s="44" t="str">
-        <f>CHAR(F132)</f>
+        <f t="shared" si="25"/>
         <v>f</v>
       </c>
       <c r="H132" s="43"/>
       <c r="I132" s="4">
-        <f>IF(ISBLANK(B132),D132-C132+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J132" s="4">
-        <f>IF(ISBLANK(B132),0,D132-C132+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6186,23 +6186,23 @@
         <v>87</v>
       </c>
       <c r="E133" s="44" t="str">
-        <f>DEC2HEX(F133)</f>
+        <f t="shared" si="24"/>
         <v>66</v>
       </c>
       <c r="F133" s="44">
         <v>102</v>
       </c>
       <c r="G133" s="44" t="str">
-        <f>CHAR(F133)</f>
+        <f t="shared" si="25"/>
         <v>f</v>
       </c>
       <c r="H133" s="43"/>
       <c r="I133" s="4">
-        <f>IF(ISBLANK(B133),D133-C133+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J133" s="4">
-        <f>IF(ISBLANK(B133),0,D133-C133+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6220,23 +6220,23 @@
         <v>111</v>
       </c>
       <c r="E134" s="44" t="str">
-        <f>DEC2HEX(F134)</f>
+        <f t="shared" si="24"/>
         <v>66</v>
       </c>
       <c r="F134" s="44">
         <v>102</v>
       </c>
       <c r="G134" s="44" t="str">
-        <f>CHAR(F134)</f>
+        <f t="shared" si="25"/>
         <v>f</v>
       </c>
       <c r="H134" s="43"/>
       <c r="I134" s="4">
-        <f>IF(ISBLANK(B134),D134-C134+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J134" s="4">
-        <f>IF(ISBLANK(B134),0,D134-C134+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6254,22 +6254,22 @@
         <v>475</v>
       </c>
       <c r="E135" s="5" t="str">
-        <f>DEC2HEX(F135)</f>
+        <f t="shared" si="24"/>
         <v>D0</v>
       </c>
       <c r="F135" s="5">
         <v>208</v>
       </c>
       <c r="G135" s="5" t="str">
-        <f>CHAR(F135)</f>
+        <f t="shared" si="25"/>
         <v>Ð</v>
       </c>
       <c r="I135" s="4">
-        <f>IF(ISBLANK(B135),D135-C135+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J135" s="4">
-        <f>IF(ISBLANK(B135),0,D135-C135+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6287,22 +6287,22 @@
         <v>795</v>
       </c>
       <c r="E136" s="34" t="str">
-        <f>DEC2HEX(F136)</f>
+        <f t="shared" si="24"/>
         <v>3B</v>
       </c>
       <c r="F136" s="34">
         <v>59</v>
       </c>
       <c r="G136" s="34" t="str">
-        <f>CHAR(F136)</f>
+        <f t="shared" si="25"/>
         <v>;</v>
       </c>
       <c r="I136" s="4">
-        <f>IF(ISBLANK(B136),D136-C136+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J136" s="4">
-        <f>IF(ISBLANK(B136),0,D136-C136+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6320,22 +6320,22 @@
         <v>839</v>
       </c>
       <c r="E137" s="34" t="str">
-        <f>DEC2HEX(F137)</f>
+        <f t="shared" si="24"/>
         <v>3B</v>
       </c>
       <c r="F137" s="34">
         <v>59</v>
       </c>
       <c r="G137" s="34" t="str">
-        <f>CHAR(F137)</f>
+        <f t="shared" si="25"/>
         <v>;</v>
       </c>
       <c r="I137" s="4">
-        <f>IF(ISBLANK(B137),D137-C137+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J137" s="4">
-        <f>IF(ISBLANK(B137),0,D137-C137+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6353,22 +6353,22 @@
         <v>843</v>
       </c>
       <c r="E138" s="34" t="str">
-        <f>DEC2HEX(F138)</f>
+        <f t="shared" si="24"/>
         <v>3A</v>
       </c>
       <c r="F138" s="34">
         <v>58</v>
       </c>
       <c r="G138" s="34" t="str">
-        <f>CHAR(F138)</f>
+        <f t="shared" si="25"/>
         <v>:</v>
       </c>
       <c r="I138" s="4">
-        <f>IF(ISBLANK(B138),D138-C138+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J138" s="4">
-        <f>IF(ISBLANK(B138),0,D138-C138+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6386,22 +6386,22 @@
         <v>847</v>
       </c>
       <c r="E139" s="34" t="str">
-        <f>DEC2HEX(F139)</f>
+        <f t="shared" si="24"/>
         <v>3A</v>
       </c>
       <c r="F139" s="34">
         <v>58</v>
       </c>
       <c r="G139" s="34" t="str">
-        <f>CHAR(F139)</f>
+        <f t="shared" si="25"/>
         <v>:</v>
       </c>
       <c r="I139" s="4">
-        <f>IF(ISBLANK(B139),D139-C139+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J139" s="4">
-        <f>IF(ISBLANK(B139),0,D139-C139+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="L139" s="5"/>
@@ -6421,22 +6421,22 @@
         <v>851</v>
       </c>
       <c r="E140" s="34" t="str">
-        <f>DEC2HEX(F140)</f>
+        <f t="shared" si="24"/>
         <v>3B</v>
       </c>
       <c r="F140" s="34">
         <v>59</v>
       </c>
       <c r="G140" s="34" t="str">
-        <f>CHAR(F140)</f>
+        <f t="shared" si="25"/>
         <v>;</v>
       </c>
       <c r="I140" s="4">
-        <f>IF(ISBLANK(B140),D140-C140+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J140" s="4">
-        <f>IF(ISBLANK(B140),0,D140-C140+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6454,22 +6454,22 @@
         <v>903</v>
       </c>
       <c r="E141" s="34" t="str">
-        <f>DEC2HEX(F141)</f>
+        <f t="shared" si="24"/>
         <v>3A</v>
       </c>
       <c r="F141" s="34">
         <v>58</v>
       </c>
       <c r="G141" s="34" t="str">
-        <f>CHAR(F141)</f>
+        <f t="shared" si="25"/>
         <v>:</v>
       </c>
       <c r="I141" s="4">
-        <f>IF(ISBLANK(B141),D141-C141+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J141" s="4">
-        <f>IF(ISBLANK(B141),0,D141-C141+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6487,22 +6487,22 @@
         <v>943</v>
       </c>
       <c r="E142" s="34" t="str">
-        <f>DEC2HEX(F142)</f>
+        <f t="shared" si="24"/>
         <v>3B</v>
       </c>
       <c r="F142" s="34">
         <v>59</v>
       </c>
       <c r="G142" s="34" t="str">
-        <f>CHAR(F142)</f>
+        <f t="shared" si="25"/>
         <v>;</v>
       </c>
       <c r="I142" s="4">
-        <f>IF(ISBLANK(B142),D142-C142+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J142" s="4">
-        <f>IF(ISBLANK(B142),0,D142-C142+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6520,22 +6520,22 @@
         <v>987</v>
       </c>
       <c r="E143" s="34" t="str">
-        <f>DEC2HEX(F143)</f>
+        <f t="shared" si="24"/>
         <v>3A</v>
       </c>
       <c r="F143" s="34">
         <v>58</v>
       </c>
       <c r="G143" s="34" t="str">
-        <f>CHAR(F143)</f>
+        <f t="shared" si="25"/>
         <v>:</v>
       </c>
       <c r="I143" s="4">
-        <f>IF(ISBLANK(B143),D143-C143+1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J143" s="4">
-        <f>IF(ISBLANK(B143),0,D143-C143+1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6549,14 +6549,14 @@
       <c r="C144" s="46"/>
       <c r="D144" s="46"/>
       <c r="E144" s="47" t="str">
-        <f>DEC2HEX(F144)</f>
+        <f t="shared" si="24"/>
         <v>5E</v>
       </c>
       <c r="F144" s="47">
         <v>94</v>
       </c>
       <c r="G144" s="47" t="str">
-        <f>CHAR(F144)</f>
+        <f t="shared" si="25"/>
         <v>^</v>
       </c>
     </row>
@@ -6570,14 +6570,14 @@
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
       <c r="E145" s="47" t="str">
-        <f>DEC2HEX(F145)</f>
+        <f t="shared" si="24"/>
         <v>5E</v>
       </c>
       <c r="F145" s="47">
         <v>94</v>
       </c>
       <c r="G145" s="47" t="str">
-        <f>CHAR(F145)</f>
+        <f t="shared" si="25"/>
         <v>^</v>
       </c>
     </row>
@@ -6591,14 +6591,14 @@
       <c r="C146" s="46"/>
       <c r="D146" s="46"/>
       <c r="E146" s="47" t="str">
-        <f>DEC2HEX(F146)</f>
+        <f t="shared" si="24"/>
         <v>5F</v>
       </c>
       <c r="F146" s="47">
         <v>95</v>
       </c>
       <c r="G146" s="47" t="str">
-        <f>CHAR(F146)</f>
+        <f t="shared" si="25"/>
         <v>_</v>
       </c>
     </row>
@@ -6612,14 +6612,14 @@
       <c r="C147" s="46"/>
       <c r="D147" s="46"/>
       <c r="E147" s="47" t="str">
-        <f>DEC2HEX(F147)</f>
+        <f t="shared" si="24"/>
         <v>5F</v>
       </c>
       <c r="F147" s="47">
         <v>95</v>
       </c>
       <c r="G147" s="47" t="str">
-        <f>CHAR(F147)</f>
+        <f t="shared" si="25"/>
         <v>_</v>
       </c>
     </row>
@@ -6633,14 +6633,14 @@
       <c r="C148" s="46"/>
       <c r="D148" s="46"/>
       <c r="E148" s="47" t="str">
-        <f>DEC2HEX(F148)</f>
+        <f t="shared" si="24"/>
         <v>64</v>
       </c>
       <c r="F148" s="47">
         <v>100</v>
       </c>
       <c r="G148" s="47" t="str">
-        <f>CHAR(F148)</f>
+        <f t="shared" si="25"/>
         <v>d</v>
       </c>
     </row>
@@ -6654,14 +6654,14 @@
       <c r="C149" s="46"/>
       <c r="D149" s="46"/>
       <c r="E149" s="47" t="str">
-        <f>DEC2HEX(F149)</f>
+        <f t="shared" si="24"/>
         <v>65</v>
       </c>
       <c r="F149" s="47">
         <v>101</v>
       </c>
       <c r="G149" s="47" t="str">
-        <f>CHAR(F149)</f>
+        <f t="shared" si="25"/>
         <v>e</v>
       </c>
     </row>
@@ -6675,14 +6675,14 @@
       <c r="C150" s="46"/>
       <c r="D150" s="46"/>
       <c r="E150" s="47" t="str">
-        <f>DEC2HEX(F150)</f>
+        <f t="shared" si="24"/>
         <v>4E</v>
       </c>
       <c r="F150" s="47">
         <v>78</v>
       </c>
       <c r="G150" s="47" t="str">
-        <f>CHAR(F150)</f>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
     </row>
@@ -6696,14 +6696,14 @@
       <c r="C151" s="51"/>
       <c r="D151" s="51"/>
       <c r="E151" s="50" t="str">
-        <f>DEC2HEX(F151)</f>
+        <f t="shared" si="24"/>
         <v>40</v>
       </c>
       <c r="F151" s="50">
         <v>64</v>
       </c>
       <c r="G151" s="50" t="str">
-        <f>CHAR(F151)</f>
+        <f t="shared" si="25"/>
         <v>@</v>
       </c>
       <c r="H151" s="51"/>
@@ -6722,23 +6722,23 @@
         <v>7</v>
       </c>
       <c r="E152" s="44" t="str">
-        <f>DEC2HEX(F152)</f>
+        <f t="shared" si="24"/>
         <v>6E</v>
       </c>
       <c r="F152" s="44">
         <v>110</v>
       </c>
       <c r="G152" s="44" t="str">
-        <f>CHAR(F152)</f>
+        <f t="shared" si="25"/>
         <v>n</v>
       </c>
       <c r="H152" s="43"/>
       <c r="I152" s="4">
-        <f>IF(ISBLANK(B152),D152-C152+1,0)</f>
+        <f t="shared" ref="I152:I171" si="28">IF(ISBLANK(B152),D152-C152+1,0)</f>
         <v>0</v>
       </c>
       <c r="J152" s="4">
-        <f>IF(ISBLANK(B152),0,D152-C152+1)</f>
+        <f t="shared" ref="J152:J171" si="29">IF(ISBLANK(B152),0,D152-C152+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -6756,23 +6756,23 @@
         <v>51</v>
       </c>
       <c r="E153" s="44" t="str">
-        <f>DEC2HEX(F153)</f>
+        <f t="shared" ref="E153:E184" si="30">DEC2HEX(F153)</f>
         <v>6F</v>
       </c>
       <c r="F153" s="43">
         <v>111</v>
       </c>
       <c r="G153" s="44" t="str">
-        <f>CHAR(F153)</f>
+        <f t="shared" ref="G153:G184" si="31">CHAR(F153)</f>
         <v>o</v>
       </c>
       <c r="H153" s="43"/>
       <c r="I153" s="4">
-        <f>IF(ISBLANK(B153),D153-C153+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J153" s="4">
-        <f>IF(ISBLANK(B153),0,D153-C153+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -6790,23 +6790,23 @@
         <v>91</v>
       </c>
       <c r="E154" s="44" t="str">
-        <f>DEC2HEX(F154)</f>
+        <f t="shared" si="30"/>
         <v>6F</v>
       </c>
       <c r="F154" s="43">
         <v>111</v>
       </c>
       <c r="G154" s="44" t="str">
-        <f>CHAR(F154)</f>
+        <f t="shared" si="31"/>
         <v>o</v>
       </c>
       <c r="H154" s="43"/>
       <c r="I154" s="4">
-        <f>IF(ISBLANK(B154),D154-C154+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J154" s="4">
-        <f>IF(ISBLANK(B154),0,D154-C154+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -6824,23 +6824,23 @@
         <v>99</v>
       </c>
       <c r="E155" s="44" t="str">
-        <f>DEC2HEX(F155)</f>
+        <f t="shared" si="30"/>
         <v>6F</v>
       </c>
       <c r="F155" s="43">
         <v>111</v>
       </c>
       <c r="G155" s="44" t="str">
-        <f>CHAR(F155)</f>
+        <f t="shared" si="31"/>
         <v>o</v>
       </c>
       <c r="H155" s="43"/>
       <c r="I155" s="4">
-        <f>IF(ISBLANK(B155),D155-C155+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J155" s="4">
-        <f>IF(ISBLANK(B155),0,D155-C155+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -6858,22 +6858,22 @@
         <v>239</v>
       </c>
       <c r="E156" s="5" t="str">
-        <f>DEC2HEX(F156)</f>
+        <f t="shared" si="30"/>
         <v>D6</v>
       </c>
       <c r="F156" s="55">
         <v>214</v>
       </c>
       <c r="G156" s="5" t="str">
-        <f>CHAR(F156)</f>
+        <f t="shared" si="31"/>
         <v>Ö</v>
       </c>
       <c r="I156" s="4">
-        <f>IF(ISBLANK(B156),D156-C156+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J156" s="4">
-        <f>IF(ISBLANK(B156),0,D156-C156+1)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
     </row>
@@ -6891,22 +6891,22 @@
         <v>315</v>
       </c>
       <c r="E157" s="5" t="str">
-        <f>DEC2HEX(F157)</f>
+        <f t="shared" si="30"/>
         <v>D5</v>
       </c>
       <c r="F157" s="35">
         <v>213</v>
       </c>
       <c r="G157" s="5" t="str">
-        <f>CHAR(F157)</f>
+        <f t="shared" si="31"/>
         <v>Õ</v>
       </c>
       <c r="I157" s="4">
-        <f>IF(ISBLANK(B157),D157-C157+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J157" s="4">
-        <f>IF(ISBLANK(B157),0,D157-C157+1)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="K157" s="5"/>
@@ -6926,22 +6926,22 @@
         <v>331</v>
       </c>
       <c r="E158" s="5" t="str">
-        <f>DEC2HEX(F158)</f>
+        <f t="shared" si="30"/>
         <v>CD</v>
       </c>
       <c r="F158" s="55">
         <v>205</v>
       </c>
       <c r="G158" s="5" t="str">
-        <f>CHAR(F158)</f>
+        <f t="shared" si="31"/>
         <v>Í</v>
       </c>
       <c r="I158" s="4">
-        <f>IF(ISBLANK(B158),D158-C158+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J158" s="4">
-        <f>IF(ISBLANK(B158),0,D158-C158+1)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
     </row>
@@ -6959,25 +6959,25 @@
         <v>467</v>
       </c>
       <c r="E159" s="5" t="str">
-        <f>DEC2HEX(F159)</f>
+        <f t="shared" si="30"/>
         <v>EE</v>
       </c>
       <c r="F159" s="5">
         <v>238</v>
       </c>
       <c r="G159" s="5" t="str">
-        <f>CHAR(F159)</f>
+        <f t="shared" si="31"/>
         <v>î</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>161</v>
       </c>
       <c r="I159" s="4">
-        <f>IF(ISBLANK(B159),D159-C159+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J159" s="4">
-        <f>IF(ISBLANK(B159),0,D159-C159+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -6995,22 +6995,22 @@
         <v>559</v>
       </c>
       <c r="E160" s="5" t="str">
-        <f>DEC2HEX(F160)</f>
+        <f t="shared" si="30"/>
         <v>D4</v>
       </c>
       <c r="F160" s="5">
         <v>212</v>
       </c>
       <c r="G160" s="5" t="str">
-        <f>CHAR(F160)</f>
+        <f t="shared" si="31"/>
         <v>Ô</v>
       </c>
       <c r="I160" s="4">
-        <f>IF(ISBLANK(B160),D160-C160+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J160" s="4">
-        <f>IF(ISBLANK(B160),0,D160-C160+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -7028,22 +7028,22 @@
         <v>563</v>
       </c>
       <c r="E161" s="5" t="str">
-        <f>DEC2HEX(F161)</f>
+        <f t="shared" si="30"/>
         <v>57</v>
       </c>
       <c r="F161" s="5">
         <v>87</v>
       </c>
       <c r="G161" s="5" t="str">
-        <f>CHAR(F161)</f>
+        <f t="shared" si="31"/>
         <v>W</v>
       </c>
       <c r="I161" s="4">
-        <f>IF(ISBLANK(B161),D161-C161+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J161" s="4">
-        <f>IF(ISBLANK(B161),0,D161-C161+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -7061,22 +7061,22 @@
         <v>743</v>
       </c>
       <c r="E162" s="5" t="str">
-        <f>DEC2HEX(F162)</f>
+        <f t="shared" si="30"/>
         <v>CB</v>
       </c>
       <c r="F162" s="5">
         <v>203</v>
       </c>
       <c r="G162" s="5" t="str">
-        <f>CHAR(F162)</f>
+        <f t="shared" si="31"/>
         <v>Ë</v>
       </c>
       <c r="I162" s="4">
-        <f>IF(ISBLANK(B162),D162-C162+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J162" s="4">
-        <f>IF(ISBLANK(B162),0,D162-C162+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="L162" s="5"/>
@@ -7096,22 +7096,22 @@
         <v>751</v>
       </c>
       <c r="E163" s="5" t="str">
-        <f>DEC2HEX(F163)</f>
+        <f t="shared" si="30"/>
         <v>CC</v>
       </c>
       <c r="F163" s="35">
         <v>204</v>
       </c>
       <c r="G163" s="5" t="str">
-        <f>CHAR(F163)</f>
+        <f t="shared" si="31"/>
         <v>Ì</v>
       </c>
       <c r="I163" s="4">
-        <f>IF(ISBLANK(B163),D163-C163+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J163" s="4">
-        <f>IF(ISBLANK(B163),0,D163-C163+1)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="L163" s="5"/>
@@ -7131,22 +7131,22 @@
         <v>799</v>
       </c>
       <c r="E164" s="34" t="str">
-        <f>DEC2HEX(F164)</f>
+        <f t="shared" si="30"/>
         <v>B9</v>
       </c>
       <c r="F164" s="34">
         <v>185</v>
       </c>
       <c r="G164" s="34" t="str">
-        <f>CHAR(F164)</f>
+        <f t="shared" si="31"/>
         <v>¹</v>
       </c>
       <c r="I164" s="4">
-        <f>IF(ISBLANK(B164),D164-C164+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J164" s="4">
-        <f>IF(ISBLANK(B164),0,D164-C164+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -7164,23 +7164,23 @@
         <v>803</v>
       </c>
       <c r="E165" s="34" t="str">
-        <f>DEC2HEX(F165)</f>
+        <f t="shared" si="30"/>
         <v>BA</v>
       </c>
       <c r="F165" s="34">
         <v>186</v>
       </c>
       <c r="G165" s="34" t="str">
-        <f>CHAR(F165)</f>
+        <f t="shared" si="31"/>
         <v>º</v>
       </c>
       <c r="H165" s="5"/>
       <c r="I165" s="4">
-        <f>IF(ISBLANK(B165),D165-C165+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J165" s="4">
-        <f>IF(ISBLANK(B165),0,D165-C165+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -7198,22 +7198,22 @@
         <v>899</v>
       </c>
       <c r="E166" s="34" t="str">
-        <f>DEC2HEX(F166)</f>
+        <f t="shared" si="30"/>
         <v>3A</v>
       </c>
       <c r="F166" s="34">
         <v>58</v>
       </c>
       <c r="G166" s="34" t="str">
-        <f>CHAR(F166)</f>
+        <f t="shared" si="31"/>
         <v>:</v>
       </c>
       <c r="I166" s="4">
-        <f>IF(ISBLANK(B166),D166-C166+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J166" s="4">
-        <f>IF(ISBLANK(B166),0,D166-C166+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -7231,22 +7231,22 @@
         <v>935</v>
       </c>
       <c r="E167" s="34" t="str">
-        <f>DEC2HEX(F167)</f>
+        <f t="shared" si="30"/>
         <v>BA</v>
       </c>
       <c r="F167" s="34">
         <v>186</v>
       </c>
       <c r="G167" s="34" t="str">
-        <f>CHAR(F167)</f>
+        <f t="shared" si="31"/>
         <v>º</v>
       </c>
       <c r="I167" s="4">
-        <f>IF(ISBLANK(B167),D167-C167+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J167" s="4">
-        <f>IF(ISBLANK(B167),0,D167-C167+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -7264,22 +7264,22 @@
         <v>939</v>
       </c>
       <c r="E168" s="34" t="str">
-        <f>DEC2HEX(F168)</f>
+        <f t="shared" si="30"/>
         <v>3B</v>
       </c>
       <c r="F168" s="34">
         <v>59</v>
       </c>
       <c r="G168" s="34" t="str">
-        <f>CHAR(F168)</f>
+        <f t="shared" si="31"/>
         <v>;</v>
       </c>
       <c r="I168" s="4">
-        <f>IF(ISBLANK(B168),D168-C168+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J168" s="4">
-        <f>IF(ISBLANK(B168),0,D168-C168+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -7297,22 +7297,22 @@
         <v>963</v>
       </c>
       <c r="E169" s="34" t="str">
-        <f>DEC2HEX(F169)</f>
+        <f t="shared" si="30"/>
         <v>B9</v>
       </c>
       <c r="F169" s="34">
         <v>185</v>
       </c>
       <c r="G169" s="34" t="str">
-        <f>CHAR(F169)</f>
+        <f t="shared" si="31"/>
         <v>¹</v>
       </c>
       <c r="I169" s="4">
-        <f>IF(ISBLANK(B169),D169-C169+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J169" s="4">
-        <f>IF(ISBLANK(B169),0,D169-C169+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -7330,22 +7330,22 @@
         <v>967</v>
       </c>
       <c r="E170" s="34" t="str">
-        <f>DEC2HEX(F170)</f>
+        <f t="shared" si="30"/>
         <v>B9</v>
       </c>
       <c r="F170" s="34">
         <v>185</v>
       </c>
       <c r="G170" s="34" t="str">
-        <f>CHAR(F170)</f>
+        <f t="shared" si="31"/>
         <v>¹</v>
       </c>
       <c r="I170" s="4">
-        <f>IF(ISBLANK(B170),D170-C170+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J170" s="4">
-        <f>IF(ISBLANK(B170),0,D170-C170+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -7363,22 +7363,22 @@
         <v>983</v>
       </c>
       <c r="E171" s="34" t="str">
-        <f>DEC2HEX(F171)</f>
+        <f t="shared" si="30"/>
         <v>BA</v>
       </c>
       <c r="F171" s="34">
         <v>186</v>
       </c>
       <c r="G171" s="34" t="str">
-        <f>CHAR(F171)</f>
+        <f t="shared" si="31"/>
         <v>º</v>
       </c>
       <c r="I171" s="4">
-        <f>IF(ISBLANK(B171),D171-C171+1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J171" s="4">
-        <f>IF(ISBLANK(B171),0,D171-C171+1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -7390,14 +7390,14 @@
         <v>438</v>
       </c>
       <c r="E172" s="5" t="str">
-        <f>DEC2HEX(F172)</f>
+        <f t="shared" si="30"/>
         <v>C6</v>
       </c>
       <c r="F172" s="5">
         <v>198</v>
       </c>
       <c r="G172" s="5" t="str">
-        <f>CHAR(F172)</f>
+        <f t="shared" si="31"/>
         <v>Æ</v>
       </c>
       <c r="I172" s="5"/>
@@ -7416,22 +7416,22 @@
         <v>763</v>
       </c>
       <c r="E173" s="34" t="str">
-        <f>DEC2HEX(F173)</f>
+        <f t="shared" si="30"/>
         <v>E8</v>
       </c>
       <c r="F173" s="34">
         <v>232</v>
       </c>
       <c r="G173" s="34" t="str">
-        <f>CHAR(F173)</f>
+        <f t="shared" si="31"/>
         <v>è</v>
       </c>
       <c r="I173" s="4">
-        <f>IF(ISBLANK(B173),D173-C173+1,0)</f>
+        <f t="shared" ref="I173:I180" si="32">IF(ISBLANK(B173),D173-C173+1,0)</f>
         <v>0</v>
       </c>
       <c r="J173" s="4">
-        <f>IF(ISBLANK(B173),0,D173-C173+1)</f>
+        <f t="shared" ref="J173:J180" si="33">IF(ISBLANK(B173),0,D173-C173+1)</f>
         <v>4</v>
       </c>
       <c r="L173" s="5"/>
@@ -7451,22 +7451,22 @@
         <v>767</v>
       </c>
       <c r="E174" s="34" t="str">
-        <f>DEC2HEX(F174)</f>
+        <f t="shared" si="30"/>
         <v>E9</v>
       </c>
       <c r="F174" s="34">
         <v>233</v>
       </c>
       <c r="G174" s="34" t="str">
-        <f>CHAR(F174)</f>
+        <f t="shared" si="31"/>
         <v>é</v>
       </c>
       <c r="I174" s="4">
-        <f>IF(ISBLANK(B174),D174-C174+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J174" s="4">
-        <f>IF(ISBLANK(B174),0,D174-C174+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -7484,22 +7484,22 @@
         <v>771</v>
       </c>
       <c r="E175" s="34" t="str">
-        <f>DEC2HEX(F175)</f>
+        <f t="shared" si="30"/>
         <v>EA</v>
       </c>
       <c r="F175" s="34">
         <v>234</v>
       </c>
       <c r="G175" s="34" t="str">
-        <f>CHAR(F175)</f>
+        <f t="shared" si="31"/>
         <v>ê</v>
       </c>
       <c r="I175" s="4">
-        <f>IF(ISBLANK(B175),D175-C175+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J175" s="4">
-        <f>IF(ISBLANK(B175),0,D175-C175+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="L175" s="5"/>
@@ -7519,22 +7519,22 @@
         <v>775</v>
       </c>
       <c r="E176" s="34" t="str">
-        <f>DEC2HEX(F176)</f>
+        <f t="shared" si="30"/>
         <v>EB</v>
       </c>
       <c r="F176" s="34">
         <v>235</v>
       </c>
       <c r="G176" s="34" t="str">
-        <f>CHAR(F176)</f>
+        <f t="shared" si="31"/>
         <v>ë</v>
       </c>
       <c r="I176" s="4">
-        <f>IF(ISBLANK(B176),D176-C176+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J176" s="4">
-        <f>IF(ISBLANK(B176),0,D176-C176+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -7552,22 +7552,22 @@
         <v>779</v>
       </c>
       <c r="E177" s="34" t="str">
-        <f>DEC2HEX(F177)</f>
+        <f t="shared" si="30"/>
         <v>EA</v>
       </c>
       <c r="F177" s="34">
         <v>234</v>
       </c>
       <c r="G177" s="34" t="str">
-        <f>CHAR(F177)</f>
+        <f t="shared" si="31"/>
         <v>ê</v>
       </c>
       <c r="I177" s="4">
-        <f>IF(ISBLANK(B177),D177-C177+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J177" s="4">
-        <f>IF(ISBLANK(B177),0,D177-C177+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -7585,22 +7585,22 @@
         <v>783</v>
       </c>
       <c r="E178" s="34" t="str">
-        <f>DEC2HEX(F178)</f>
+        <f t="shared" si="30"/>
         <v>EB</v>
       </c>
       <c r="F178" s="34">
         <v>235</v>
       </c>
       <c r="G178" s="34" t="str">
-        <f>CHAR(F178)</f>
+        <f t="shared" si="31"/>
         <v>ë</v>
       </c>
       <c r="I178" s="4">
-        <f>IF(ISBLANK(B178),D178-C178+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J178" s="4">
-        <f>IF(ISBLANK(B178),0,D178-C178+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -7618,22 +7618,22 @@
         <v>787</v>
       </c>
       <c r="E179" s="34" t="str">
-        <f>DEC2HEX(F179)</f>
+        <f t="shared" si="30"/>
         <v>EA</v>
       </c>
       <c r="F179" s="34">
         <v>234</v>
       </c>
       <c r="G179" s="34" t="str">
-        <f>CHAR(F179)</f>
+        <f t="shared" si="31"/>
         <v>ê</v>
       </c>
       <c r="I179" s="4">
-        <f>IF(ISBLANK(B179),D179-C179+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J179" s="4">
-        <f>IF(ISBLANK(B179),0,D179-C179+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -7651,22 +7651,22 @@
         <v>791</v>
       </c>
       <c r="E180" s="34" t="str">
-        <f>DEC2HEX(F180)</f>
+        <f t="shared" si="30"/>
         <v>EB</v>
       </c>
       <c r="F180" s="34">
         <v>235</v>
       </c>
       <c r="G180" s="34" t="str">
-        <f>CHAR(F180)</f>
+        <f t="shared" si="31"/>
         <v>ë</v>
       </c>
       <c r="I180" s="4">
-        <f>IF(ISBLANK(B180),D180-C180+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J180" s="4">
-        <f>IF(ISBLANK(B180),0,D180-C180+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -7680,14 +7680,14 @@
       <c r="C181" s="46"/>
       <c r="D181" s="46"/>
       <c r="E181" s="47" t="str">
-        <f>DEC2HEX(F181)</f>
+        <f t="shared" si="30"/>
         <v>A4</v>
       </c>
       <c r="F181" s="47">
         <v>164</v>
       </c>
       <c r="G181" s="47" t="str">
-        <f>CHAR(F181)</f>
+        <f t="shared" si="31"/>
         <v>¤</v>
       </c>
     </row>
@@ -7701,14 +7701,14 @@
       <c r="C182" s="46"/>
       <c r="D182" s="46"/>
       <c r="E182" s="47" t="str">
-        <f>DEC2HEX(F182)</f>
+        <f t="shared" si="30"/>
         <v>62</v>
       </c>
       <c r="F182" s="47">
         <v>98</v>
       </c>
       <c r="G182" s="47" t="str">
-        <f>CHAR(F182)</f>
+        <f t="shared" si="31"/>
         <v>b</v>
       </c>
     </row>
@@ -7726,22 +7726,22 @@
         <v>151</v>
       </c>
       <c r="E183" s="5" t="str">
-        <f>DEC2HEX(F183)</f>
+        <f t="shared" si="30"/>
         <v>C3</v>
       </c>
       <c r="F183" s="5">
         <v>195</v>
       </c>
       <c r="G183" s="5" t="str">
-        <f>CHAR(F183)</f>
+        <f t="shared" si="31"/>
         <v>Ã</v>
       </c>
       <c r="I183" s="4">
-        <f>IF(ISBLANK(B183),D183-C183+1,0)</f>
+        <f t="shared" ref="I183:I203" si="34">IF(ISBLANK(B183),D183-C183+1,0)</f>
         <v>0</v>
       </c>
       <c r="J183" s="4">
-        <f>IF(ISBLANK(B183),0,D183-C183+1)</f>
+        <f t="shared" ref="J183:J203" si="35">IF(ISBLANK(B183),0,D183-C183+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -7759,25 +7759,25 @@
         <v>263</v>
       </c>
       <c r="E184" s="5" t="str">
-        <f>DEC2HEX(F184)</f>
+        <f t="shared" si="30"/>
         <v>DB</v>
       </c>
       <c r="F184" s="5">
         <v>219</v>
       </c>
       <c r="G184" s="5" t="str">
-        <f>CHAR(F184)</f>
+        <f t="shared" si="31"/>
         <v>Û</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>165</v>
       </c>
       <c r="I184" s="4">
-        <f>IF(ISBLANK(B184),D184-C184+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J184" s="4">
-        <f>IF(ISBLANK(B184),0,D184-C184+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -7795,11 +7795,11 @@
         <v>391</v>
       </c>
       <c r="I185" s="4">
-        <f>IF(ISBLANK(B185),D185-C185+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J185" s="4">
-        <f>IF(ISBLANK(B185),0,D185-C185+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -7817,23 +7817,23 @@
         <v>415</v>
       </c>
       <c r="E186" s="39" t="str">
-        <f>DEC2HEX(F186)</f>
+        <f t="shared" ref="E186:E194" si="36">DEC2HEX(F186)</f>
         <v>74</v>
       </c>
       <c r="F186" s="39">
         <v>116</v>
       </c>
       <c r="G186" s="39" t="str">
-        <f>CHAR(F186)</f>
+        <f t="shared" ref="G186:G194" si="37">CHAR(F186)</f>
         <v>t</v>
       </c>
       <c r="H186" s="38"/>
       <c r="I186" s="4">
-        <f>IF(ISBLANK(B186),D186-C186+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J186" s="4">
-        <f>IF(ISBLANK(B186),0,D186-C186+1)</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
     </row>
@@ -7851,22 +7851,22 @@
         <v>543</v>
       </c>
       <c r="E187" s="5" t="str">
-        <f>DEC2HEX(F187)</f>
+        <f t="shared" si="36"/>
         <v>76</v>
       </c>
       <c r="F187" s="5">
         <v>118</v>
       </c>
       <c r="G187" s="5" t="str">
-        <f>CHAR(F187)</f>
+        <f t="shared" si="37"/>
         <v>v</v>
       </c>
       <c r="I187" s="4">
-        <f>IF(ISBLANK(B187),D187-C187+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J187" s="4">
-        <f>IF(ISBLANK(B187),0,D187-C187+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -7884,22 +7884,22 @@
         <v>547</v>
       </c>
       <c r="E188" s="5" t="str">
-        <f>DEC2HEX(F188)</f>
+        <f t="shared" si="36"/>
         <v>77</v>
       </c>
       <c r="F188" s="5">
         <v>119</v>
       </c>
       <c r="G188" s="5" t="str">
-        <f>CHAR(F188)</f>
+        <f t="shared" si="37"/>
         <v>w</v>
       </c>
       <c r="I188" s="4">
-        <f>IF(ISBLANK(B188),D188-C188+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J188" s="4">
-        <f>IF(ISBLANK(B188),0,D188-C188+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -7917,22 +7917,22 @@
         <v>555</v>
       </c>
       <c r="E189" s="5" t="str">
-        <f>DEC2HEX(F189)</f>
+        <f t="shared" si="36"/>
         <v>78</v>
       </c>
       <c r="F189" s="5">
         <v>120</v>
       </c>
       <c r="G189" s="5" t="str">
-        <f>CHAR(F189)</f>
+        <f t="shared" si="37"/>
         <v>x</v>
       </c>
       <c r="I189" s="4">
-        <f>IF(ISBLANK(B189),D189-C189+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J189" s="4">
-        <f>IF(ISBLANK(B189),0,D189-C189+1)</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
     </row>
@@ -7950,22 +7950,22 @@
         <v>215</v>
       </c>
       <c r="E190" s="5" t="str">
-        <f>DEC2HEX(F190)</f>
+        <f t="shared" si="36"/>
         <v>70</v>
       </c>
       <c r="F190" s="5">
         <v>112</v>
       </c>
       <c r="G190" s="5" t="str">
-        <f>CHAR(F190)</f>
+        <f t="shared" si="37"/>
         <v>p</v>
       </c>
       <c r="I190" s="4">
-        <f>IF(ISBLANK(B190),D190-C190+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J190" s="4">
-        <f>IF(ISBLANK(B190),0,D190-C190+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -7983,22 +7983,22 @@
         <v>247</v>
       </c>
       <c r="E191" s="5" t="str">
-        <f>DEC2HEX(F191)</f>
+        <f t="shared" si="36"/>
         <v>72</v>
       </c>
       <c r="F191" s="5">
         <v>114</v>
       </c>
       <c r="G191" s="5" t="str">
-        <f>CHAR(F191)</f>
+        <f t="shared" si="37"/>
         <v>r</v>
       </c>
       <c r="I191" s="4">
-        <f>IF(ISBLANK(B191),D191-C191+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J191" s="4">
-        <f>IF(ISBLANK(B191),0,D191-C191+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -8016,25 +8016,25 @@
         <v>251</v>
       </c>
       <c r="E192" s="5" t="str">
-        <f>DEC2HEX(F192)</f>
+        <f t="shared" si="36"/>
         <v>D8</v>
       </c>
       <c r="F192" s="5">
         <v>216</v>
       </c>
       <c r="G192" s="5" t="str">
-        <f>CHAR(F192)</f>
+        <f t="shared" si="37"/>
         <v>Ø</v>
       </c>
       <c r="H192" s="4" t="s">
         <v>165</v>
       </c>
       <c r="I192" s="4">
-        <f>IF(ISBLANK(B192),D192-C192+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J192" s="4">
-        <f>IF(ISBLANK(B192),0,D192-C192+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -8052,22 +8052,22 @@
         <v>275</v>
       </c>
       <c r="E193" s="5" t="str">
-        <f>DEC2HEX(F193)</f>
+        <f t="shared" si="36"/>
         <v>73</v>
       </c>
       <c r="F193" s="5">
         <v>115</v>
       </c>
       <c r="G193" s="5" t="str">
-        <f>CHAR(F193)</f>
+        <f t="shared" si="37"/>
         <v>s</v>
       </c>
       <c r="I193" s="4">
-        <f>IF(ISBLANK(B193),D193-C193+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J193" s="4">
-        <f>IF(ISBLANK(B193),0,D193-C193+1)</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
     </row>
@@ -8085,25 +8085,25 @@
         <v>259</v>
       </c>
       <c r="E194" s="5" t="str">
-        <f>DEC2HEX(F194)</f>
+        <f t="shared" si="36"/>
         <v>DA</v>
       </c>
       <c r="F194" s="5">
         <v>218</v>
       </c>
       <c r="G194" s="5" t="str">
-        <f>CHAR(F194)</f>
+        <f t="shared" si="37"/>
         <v>Ú</v>
       </c>
       <c r="H194" s="4" t="s">
         <v>165</v>
       </c>
       <c r="I194" s="4">
-        <f>IF(ISBLANK(B194),D194-C194+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J194" s="4">
-        <f>IF(ISBLANK(B194),0,D194-C194+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -8123,11 +8123,11 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="I195" s="4">
-        <f>IF(ISBLANK(B195),D195-C195+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J195" s="4">
-        <f>IF(ISBLANK(B195),0,D195-C195+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -8156,11 +8156,11 @@
         <v>»</v>
       </c>
       <c r="I196" s="4">
-        <f>IF(ISBLANK(B196),D196-C196+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J196" s="4">
-        <f>IF(ISBLANK(B196),0,D196-C196+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -8189,11 +8189,11 @@
         <v>¼</v>
       </c>
       <c r="I197" s="4">
-        <f>IF(ISBLANK(B197),D197-C197+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J197" s="4">
-        <f>IF(ISBLANK(B197),0,D197-C197+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -8222,11 +8222,11 @@
         <v>½</v>
       </c>
       <c r="I198" s="4">
-        <f>IF(ISBLANK(B198),D198-C198+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J198" s="4">
-        <f>IF(ISBLANK(B198),0,D198-C198+1)</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
     </row>
@@ -8258,11 +8258,11 @@
         <v>165</v>
       </c>
       <c r="I199" s="4">
-        <f>IF(ISBLANK(B199),D199-C199+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J199" s="4">
-        <f>IF(ISBLANK(B199),0,D199-C199+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -8281,11 +8281,11 @@
       </c>
       <c r="E200" s="4"/>
       <c r="I200" s="4">
-        <f>IF(ISBLANK(B200),D200-C200+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J200" s="4">
-        <f>IF(ISBLANK(B200),0,D200-C200+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -8303,22 +8303,22 @@
         <v>463</v>
       </c>
       <c r="E201" s="5" t="str">
-        <f>DEC2HEX(F201)</f>
+        <f t="shared" ref="E201:E222" si="38">DEC2HEX(F201)</f>
         <v>79</v>
       </c>
       <c r="F201" s="5">
         <v>121</v>
       </c>
       <c r="G201" s="5" t="str">
-        <f>CHAR(F201)</f>
+        <f t="shared" ref="G201:G222" si="39">CHAR(F201)</f>
         <v>y</v>
       </c>
       <c r="I201" s="4">
-        <f>IF(ISBLANK(B201),D201-C201+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J201" s="4">
-        <f>IF(ISBLANK(B201),0,D201-C201+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -8336,22 +8336,22 @@
         <v>471</v>
       </c>
       <c r="E202" s="5" t="str">
-        <f>DEC2HEX(F202)</f>
+        <f t="shared" si="38"/>
         <v>7A</v>
       </c>
       <c r="F202" s="5">
         <v>122</v>
       </c>
       <c r="G202" s="5" t="str">
-        <f>CHAR(F202)</f>
+        <f t="shared" si="39"/>
         <v>z</v>
       </c>
       <c r="I202" s="4">
-        <f>IF(ISBLANK(B202),D202-C202+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J202" s="4">
-        <f>IF(ISBLANK(B202),0,D202-C202+1)</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -8369,22 +8369,22 @@
         <v>519</v>
       </c>
       <c r="E203" s="5" t="str">
-        <f>DEC2HEX(F203)</f>
+        <f t="shared" si="38"/>
         <v>7B</v>
       </c>
       <c r="F203" s="5">
         <v>123</v>
       </c>
       <c r="G203" s="5" t="str">
-        <f>CHAR(F203)</f>
+        <f t="shared" si="39"/>
         <v>{</v>
       </c>
       <c r="I203" s="4">
-        <f>IF(ISBLANK(B203),D203-C203+1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J203" s="4">
-        <f>IF(ISBLANK(B203),0,D203-C203+1)</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
     </row>
@@ -8398,14 +8398,14 @@
       <c r="C204" s="46"/>
       <c r="D204" s="46"/>
       <c r="E204" s="47" t="str">
-        <f>DEC2HEX(F204)</f>
+        <f t="shared" si="38"/>
         <v>41</v>
       </c>
       <c r="F204" s="47">
         <v>65</v>
       </c>
       <c r="G204" s="47" t="str">
-        <f>CHAR(F204)</f>
+        <f t="shared" si="39"/>
         <v>A</v>
       </c>
     </row>
@@ -8423,23 +8423,23 @@
         <v>27</v>
       </c>
       <c r="E205" s="44" t="str">
-        <f>DEC2HEX(F205)</f>
+        <f t="shared" si="38"/>
         <v>6F</v>
       </c>
       <c r="F205" s="43">
         <v>111</v>
       </c>
       <c r="G205" s="44" t="str">
-        <f>CHAR(F205)</f>
+        <f t="shared" si="39"/>
         <v>o</v>
       </c>
       <c r="H205" s="43"/>
       <c r="I205" s="4">
-        <f>IF(ISBLANK(B205),D205-C205+1,0)</f>
+        <f t="shared" ref="I205:I220" si="40">IF(ISBLANK(B205),D205-C205+1,0)</f>
         <v>0</v>
       </c>
       <c r="J205" s="4">
-        <f>IF(ISBLANK(B205),0,D205-C205+1)</f>
+        <f t="shared" ref="J205:J220" si="41">IF(ISBLANK(B205),0,D205-C205+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -8457,23 +8457,23 @@
         <v>75</v>
       </c>
       <c r="E206" s="44" t="str">
-        <f>DEC2HEX(F206)</f>
+        <f t="shared" si="38"/>
         <v>6F</v>
       </c>
       <c r="F206" s="43">
         <v>111</v>
       </c>
       <c r="G206" s="44" t="str">
-        <f>CHAR(F206)</f>
+        <f t="shared" si="39"/>
         <v>o</v>
       </c>
       <c r="H206" s="43"/>
       <c r="I206" s="4">
-        <f>IF(ISBLANK(B206),D206-C206+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J206" s="4">
-        <f>IF(ISBLANK(B206),0,D206-C206+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8491,23 +8491,23 @@
         <v>79</v>
       </c>
       <c r="E207" s="44" t="str">
-        <f>DEC2HEX(F207)</f>
+        <f t="shared" si="38"/>
         <v>6E</v>
       </c>
       <c r="F207" s="44">
         <v>110</v>
       </c>
       <c r="G207" s="44" t="str">
-        <f>CHAR(F207)</f>
+        <f t="shared" si="39"/>
         <v>n</v>
       </c>
       <c r="H207" s="43"/>
       <c r="I207" s="4">
-        <f>IF(ISBLANK(B207),D207-C207+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J207" s="4">
-        <f>IF(ISBLANK(B207),0,D207-C207+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8525,23 +8525,23 @@
         <v>83</v>
       </c>
       <c r="E208" s="44" t="str">
-        <f>DEC2HEX(F208)</f>
+        <f t="shared" si="38"/>
         <v>6F</v>
       </c>
       <c r="F208" s="43">
         <v>111</v>
       </c>
       <c r="G208" s="44" t="str">
-        <f>CHAR(F208)</f>
+        <f t="shared" si="39"/>
         <v>o</v>
       </c>
       <c r="H208" s="43"/>
       <c r="I208" s="4">
-        <f>IF(ISBLANK(B208),D208-C208+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J208" s="4">
-        <f>IF(ISBLANK(B208),0,D208-C208+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8559,22 +8559,22 @@
         <v>423</v>
       </c>
       <c r="E209" s="5" t="str">
-        <f>DEC2HEX(F209)</f>
+        <f t="shared" si="38"/>
         <v>49</v>
       </c>
       <c r="F209" s="5">
         <v>73</v>
       </c>
       <c r="G209" s="5" t="str">
-        <f>CHAR(F209)</f>
+        <f t="shared" si="39"/>
         <v>I</v>
       </c>
       <c r="I209" s="4">
-        <f>IF(ISBLANK(B209),D209-C209+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J209" s="4">
-        <f>IF(ISBLANK(B209),0,D209-C209+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8592,22 +8592,22 @@
         <v>611</v>
       </c>
       <c r="E210" s="5" t="str">
-        <f>DEC2HEX(F210)</f>
+        <f t="shared" si="38"/>
         <v>42</v>
       </c>
       <c r="F210" s="5">
         <v>66</v>
       </c>
       <c r="G210" s="5" t="str">
-        <f>CHAR(F210)</f>
+        <f t="shared" si="39"/>
         <v>B</v>
       </c>
       <c r="I210" s="4">
-        <f>IF(ISBLANK(B210),D210-C210+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J210" s="4">
-        <f>IF(ISBLANK(B210),0,D210-C210+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8625,22 +8625,22 @@
         <v>619</v>
       </c>
       <c r="E211" s="5" t="str">
-        <f>DEC2HEX(F211)</f>
+        <f t="shared" si="38"/>
         <v>C0</v>
       </c>
       <c r="F211" s="5">
         <v>192</v>
       </c>
       <c r="G211" s="5" t="str">
-        <f>CHAR(F211)</f>
+        <f t="shared" si="39"/>
         <v>À</v>
       </c>
       <c r="I211" s="4">
-        <f>IF(ISBLANK(B211),D211-C211+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J211" s="4">
-        <f>IF(ISBLANK(B211),0,D211-C211+1)</f>
+        <f t="shared" si="41"/>
         <v>8</v>
       </c>
     </row>
@@ -8658,22 +8658,22 @@
         <v>635</v>
       </c>
       <c r="E212" s="5" t="str">
-        <f>DEC2HEX(F212)</f>
+        <f t="shared" si="38"/>
         <v>C1</v>
       </c>
       <c r="F212" s="5">
         <v>193</v>
       </c>
       <c r="G212" s="5" t="str">
-        <f>CHAR(F212)</f>
+        <f t="shared" si="39"/>
         <v>Á</v>
       </c>
       <c r="I212" s="4">
-        <f>IF(ISBLANK(B212),D212-C212+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J212" s="4">
-        <f>IF(ISBLANK(B212),0,D212-C212+1)</f>
+        <f t="shared" si="41"/>
         <v>8</v>
       </c>
     </row>
@@ -8691,22 +8691,22 @@
         <v>887</v>
       </c>
       <c r="E213" s="34" t="str">
-        <f>DEC2HEX(F213)</f>
+        <f t="shared" si="38"/>
         <v>3A</v>
       </c>
       <c r="F213" s="34">
         <v>58</v>
       </c>
       <c r="G213" s="34" t="str">
-        <f>CHAR(F213)</f>
+        <f t="shared" si="39"/>
         <v>:</v>
       </c>
       <c r="I213" s="4">
-        <f>IF(ISBLANK(B213),D213-C213+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J213" s="4">
-        <f>IF(ISBLANK(B213),0,D213-C213+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8724,22 +8724,22 @@
         <v>911</v>
       </c>
       <c r="E214" s="34" t="str">
-        <f>DEC2HEX(F214)</f>
+        <f t="shared" si="38"/>
         <v>BA</v>
       </c>
       <c r="F214" s="34">
         <v>186</v>
       </c>
       <c r="G214" s="34" t="str">
-        <f>CHAR(F214)</f>
+        <f t="shared" si="39"/>
         <v>º</v>
       </c>
       <c r="I214" s="4">
-        <f>IF(ISBLANK(B214),D214-C214+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J214" s="4">
-        <f>IF(ISBLANK(B214),0,D214-C214+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8757,22 +8757,22 @@
         <v>927</v>
       </c>
       <c r="E215" s="34" t="str">
-        <f>DEC2HEX(F215)</f>
+        <f t="shared" si="38"/>
         <v>3B</v>
       </c>
       <c r="F215" s="34">
         <v>59</v>
       </c>
       <c r="G215" s="34" t="str">
-        <f>CHAR(F215)</f>
+        <f t="shared" si="39"/>
         <v>;</v>
       </c>
       <c r="I215" s="4">
-        <f>IF(ISBLANK(B215),D215-C215+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J215" s="4">
-        <f>IF(ISBLANK(B215),0,D215-C215+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8790,22 +8790,22 @@
         <v>931</v>
       </c>
       <c r="E216" s="34" t="str">
-        <f>DEC2HEX(F216)</f>
+        <f t="shared" si="38"/>
         <v>B9</v>
       </c>
       <c r="F216" s="34">
         <v>185</v>
       </c>
       <c r="G216" s="34" t="str">
-        <f>CHAR(F216)</f>
+        <f t="shared" si="39"/>
         <v>¹</v>
       </c>
       <c r="I216" s="4">
-        <f>IF(ISBLANK(B216),D216-C216+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J216" s="4">
-        <f>IF(ISBLANK(B216),0,D216-C216+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8823,22 +8823,22 @@
         <v>959</v>
       </c>
       <c r="E217" s="34" t="str">
-        <f>DEC2HEX(F217)</f>
+        <f t="shared" si="38"/>
         <v>B9</v>
       </c>
       <c r="F217" s="34">
         <v>185</v>
       </c>
       <c r="G217" s="34" t="str">
-        <f>CHAR(F217)</f>
+        <f t="shared" si="39"/>
         <v>¹</v>
       </c>
       <c r="I217" s="4">
-        <f>IF(ISBLANK(B217),D217-C217+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J217" s="4">
-        <f>IF(ISBLANK(B217),0,D217-C217+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8856,22 +8856,22 @@
         <v>979</v>
       </c>
       <c r="E218" s="34" t="str">
-        <f>DEC2HEX(F218)</f>
+        <f t="shared" si="38"/>
         <v>BA</v>
       </c>
       <c r="F218" s="34">
         <v>186</v>
       </c>
       <c r="G218" s="34" t="str">
-        <f>CHAR(F218)</f>
+        <f t="shared" si="39"/>
         <v>º</v>
       </c>
       <c r="I218" s="4">
-        <f>IF(ISBLANK(B218),D218-C218+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J218" s="4">
-        <f>IF(ISBLANK(B218),0,D218-C218+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8889,22 +8889,22 @@
         <v>999</v>
       </c>
       <c r="E219" s="34" t="str">
-        <f>DEC2HEX(F219)</f>
+        <f t="shared" si="38"/>
         <v>B9</v>
       </c>
       <c r="F219" s="34">
         <v>185</v>
       </c>
       <c r="G219" s="34" t="str">
-        <f>CHAR(F219)</f>
+        <f t="shared" si="39"/>
         <v>¹</v>
       </c>
       <c r="I219" s="4">
-        <f>IF(ISBLANK(B219),D219-C219+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J219" s="4">
-        <f>IF(ISBLANK(B219),0,D219-C219+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8922,22 +8922,22 @@
         <v>1011</v>
       </c>
       <c r="E220" s="34" t="str">
-        <f>DEC2HEX(F220)</f>
+        <f t="shared" si="38"/>
         <v>BA</v>
       </c>
       <c r="F220" s="34">
         <v>186</v>
       </c>
       <c r="G220" s="34" t="str">
-        <f>CHAR(F220)</f>
+        <f t="shared" si="39"/>
         <v>º</v>
       </c>
       <c r="I220" s="4">
-        <f>IF(ISBLANK(B220),D220-C220+1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J220" s="4">
-        <f>IF(ISBLANK(B220),0,D220-C220+1)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
@@ -8951,14 +8951,14 @@
       <c r="C221" s="46"/>
       <c r="D221" s="46"/>
       <c r="E221" s="47" t="str">
-        <f>DEC2HEX(F221)</f>
+        <f t="shared" si="38"/>
         <v>4A</v>
       </c>
       <c r="F221" s="47">
         <v>74</v>
       </c>
       <c r="G221" s="47" t="str">
-        <f>CHAR(F221)</f>
+        <f t="shared" si="39"/>
         <v>J</v>
       </c>
     </row>
@@ -8972,14 +8972,14 @@
       <c r="C222" s="46"/>
       <c r="D222" s="46"/>
       <c r="E222" s="47" t="str">
-        <f>DEC2HEX(F222)</f>
+        <f t="shared" si="38"/>
         <v>4B</v>
       </c>
       <c r="F222" s="47">
         <v>75</v>
       </c>
       <c r="G222" s="47" t="str">
-        <f>CHAR(F222)</f>
+        <f t="shared" si="39"/>
         <v>K</v>
       </c>
     </row>
@@ -8998,11 +8998,11 @@
         <v>350</v>
       </c>
       <c r="I223" s="4">
-        <f>IF(ISBLANK(B223),D223-C223+1,0)</f>
+        <f t="shared" ref="I223:I248" si="42">IF(ISBLANK(B223),D223-C223+1,0)</f>
         <v>4</v>
       </c>
       <c r="J223" s="4">
-        <f>IF(ISBLANK(B223),0,D223-C223+1)</f>
+        <f t="shared" ref="J223:J248" si="43">IF(ISBLANK(B223),0,D223-C223+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -9020,11 +9020,11 @@
         <v>350</v>
       </c>
       <c r="I224" s="4">
-        <f>IF(ISBLANK(B224),D224-C224+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J224" s="4">
-        <f>IF(ISBLANK(B224),0,D224-C224+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9044,11 +9044,11 @@
         <v>350</v>
       </c>
       <c r="I225" s="4">
-        <f>IF(ISBLANK(B225),D225-C225+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J225" s="4">
-        <f>IF(ISBLANK(B225),0,D225-C225+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9068,11 +9068,11 @@
         <v>350</v>
       </c>
       <c r="I226" s="4">
-        <f>IF(ISBLANK(B226),D226-C226+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J226" s="4">
-        <f>IF(ISBLANK(B226),0,D226-C226+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9092,11 +9092,11 @@
         <v>350</v>
       </c>
       <c r="I227" s="4">
-        <f>IF(ISBLANK(B227),D227-C227+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J227" s="4">
-        <f>IF(ISBLANK(B227),0,D227-C227+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9116,11 +9116,11 @@
         <v>350</v>
       </c>
       <c r="I228" s="4">
-        <f>IF(ISBLANK(B228),D228-C228+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J228" s="4">
-        <f>IF(ISBLANK(B228),0,D228-C228+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L228" s="5"/>
@@ -9138,11 +9138,11 @@
         <v>350</v>
       </c>
       <c r="I229" s="4">
-        <f>IF(ISBLANK(B229),D229-C229+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J229" s="4">
-        <f>IF(ISBLANK(B229),0,D229-C229+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9159,11 +9159,11 @@
         <v>350</v>
       </c>
       <c r="I230" s="4">
-        <f>IF(ISBLANK(B230),D230-C230+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J230" s="4">
-        <f>IF(ISBLANK(B230),0,D230-C230+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9181,11 +9181,11 @@
         <v>350</v>
       </c>
       <c r="I231" s="4">
-        <f>IF(ISBLANK(B231),D231-C231+1,0)</f>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="J231" s="4">
-        <f>IF(ISBLANK(B231),0,D231-C231+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9204,11 +9204,11 @@
         <v>350</v>
       </c>
       <c r="I232" s="4">
-        <f>IF(ISBLANK(B232),D232-C232+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J232" s="4">
-        <f>IF(ISBLANK(B232),0,D232-C232+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9226,11 +9226,11 @@
         <v>350</v>
       </c>
       <c r="I233" s="4">
-        <f>IF(ISBLANK(B233),D233-C233+1,0)</f>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="J233" s="4">
-        <f>IF(ISBLANK(B233),0,D233-C233+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K233" s="5"/>
@@ -9250,11 +9250,11 @@
         <v>350</v>
       </c>
       <c r="I234" s="4">
-        <f>IF(ISBLANK(B234),D234-C234+1,0)</f>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="J234" s="4">
-        <f>IF(ISBLANK(B234),0,D234-C234+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9273,11 +9273,11 @@
         <v>350</v>
       </c>
       <c r="I235" s="4">
-        <f>IF(ISBLANK(B235),D235-C235+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J235" s="4">
-        <f>IF(ISBLANK(B235),0,D235-C235+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9296,11 +9296,11 @@
         <v>350</v>
       </c>
       <c r="I236" s="4">
-        <f>IF(ISBLANK(B236),D236-C236+1,0)</f>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="J236" s="4">
-        <f>IF(ISBLANK(B236),0,D236-C236+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9318,11 +9318,11 @@
         <v>350</v>
       </c>
       <c r="I237" s="4">
-        <f>IF(ISBLANK(B237),D237-C237+1,0)</f>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="J237" s="4">
-        <f>IF(ISBLANK(B237),0,D237-C237+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9340,11 +9340,11 @@
         <v>350</v>
       </c>
       <c r="I238" s="4">
-        <f>IF(ISBLANK(B238),D238-C238+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J238" s="4">
-        <f>IF(ISBLANK(B238),0,D238-C238+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9363,11 +9363,11 @@
         <v>350</v>
       </c>
       <c r="I239" s="4">
-        <f>IF(ISBLANK(B239),D239-C239+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J239" s="4">
-        <f>IF(ISBLANK(B239),0,D239-C239+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9386,11 +9386,11 @@
         <v>350</v>
       </c>
       <c r="I240" s="4">
-        <f>IF(ISBLANK(B240),D240-C240+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J240" s="4">
-        <f>IF(ISBLANK(B240),0,D240-C240+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9408,11 +9408,11 @@
         <v>350</v>
       </c>
       <c r="I241" s="4">
-        <f>IF(ISBLANK(B241),D241-C241+1,0)</f>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="J241" s="4">
-        <f>IF(ISBLANK(B241),0,D241-C241+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9431,11 +9431,11 @@
         <v>350</v>
       </c>
       <c r="I242" s="4">
-        <f>IF(ISBLANK(B242),D242-C242+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J242" s="4">
-        <f>IF(ISBLANK(B242),0,D242-C242+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9454,11 +9454,11 @@
         <v>350</v>
       </c>
       <c r="I243" s="4">
-        <f>IF(ISBLANK(B243),D243-C243+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J243" s="4">
-        <f>IF(ISBLANK(B243),0,D243-C243+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9477,11 +9477,11 @@
         <v>350</v>
       </c>
       <c r="I244" s="4">
-        <f>IF(ISBLANK(B244),D244-C244+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J244" s="4">
-        <f>IF(ISBLANK(B244),0,D244-C244+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9500,11 +9500,11 @@
         <v>350</v>
       </c>
       <c r="I245" s="4">
-        <f>IF(ISBLANK(B245),D245-C245+1,0)</f>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="J245" s="4">
-        <f>IF(ISBLANK(B245),0,D245-C245+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9523,11 +9523,11 @@
         <v>350</v>
       </c>
       <c r="I246" s="4">
-        <f>IF(ISBLANK(B246),D246-C246+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J246" s="4">
-        <f>IF(ISBLANK(B246),0,D246-C246+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9547,11 +9547,11 @@
         <v>350</v>
       </c>
       <c r="I247" s="4">
-        <f>IF(ISBLANK(B247),D247-C247+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J247" s="4">
-        <f>IF(ISBLANK(B247),0,D247-C247+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9571,11 +9571,11 @@
         <v>350</v>
       </c>
       <c r="I248" s="4">
-        <f>IF(ISBLANK(B248),D248-C248+1,0)</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="J248" s="4">
-        <f>IF(ISBLANK(B248),0,D248-C248+1)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9585,14 +9585,14 @@
       <c r="C249" s="51"/>
       <c r="D249" s="51"/>
       <c r="E249" s="50" t="str">
-        <f>DEC2HEX(F249)</f>
+        <f t="shared" ref="E249:E280" si="44">DEC2HEX(F249)</f>
         <v>21</v>
       </c>
       <c r="F249" s="50">
         <v>33</v>
       </c>
       <c r="G249" s="50" t="str">
-        <f>CHAR(F249)</f>
+        <f t="shared" ref="G249:G280" si="45">CHAR(F249)</f>
         <v>!</v>
       </c>
       <c r="H249" s="51" t="s">
@@ -9605,14 +9605,14 @@
       <c r="C250" s="51"/>
       <c r="D250" s="51"/>
       <c r="E250" s="50" t="str">
-        <f>DEC2HEX(F250)</f>
+        <f t="shared" si="44"/>
         <v>22</v>
       </c>
       <c r="F250" s="50">
         <v>34</v>
       </c>
       <c r="G250" s="50" t="str">
-        <f>CHAR(F250)</f>
+        <f t="shared" si="45"/>
         <v>"</v>
       </c>
       <c r="H250" s="51" t="s">
@@ -9625,14 +9625,14 @@
       <c r="C251" s="51"/>
       <c r="D251" s="51"/>
       <c r="E251" s="50" t="str">
-        <f>DEC2HEX(F251)</f>
+        <f t="shared" si="44"/>
         <v>23</v>
       </c>
       <c r="F251" s="50">
         <v>35</v>
       </c>
       <c r="G251" s="50" t="str">
-        <f>CHAR(F251)</f>
+        <f t="shared" si="45"/>
         <v>#</v>
       </c>
       <c r="H251" s="51" t="s">
@@ -9645,14 +9645,14 @@
       <c r="C252" s="51"/>
       <c r="D252" s="51"/>
       <c r="E252" s="50" t="str">
-        <f>DEC2HEX(F252)</f>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="F252" s="50">
         <v>36</v>
       </c>
       <c r="G252" s="50" t="str">
-        <f>CHAR(F252)</f>
+        <f t="shared" si="45"/>
         <v>$</v>
       </c>
       <c r="H252" s="51" t="s">
@@ -9665,14 +9665,14 @@
       <c r="C253" s="51"/>
       <c r="D253" s="51"/>
       <c r="E253" s="50" t="str">
-        <f>DEC2HEX(F253)</f>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="F253" s="50">
         <v>37</v>
       </c>
       <c r="G253" s="50" t="str">
-        <f>CHAR(F253)</f>
+        <f t="shared" si="45"/>
         <v>%</v>
       </c>
       <c r="H253" s="51" t="s">
@@ -9685,14 +9685,14 @@
       <c r="C254" s="51"/>
       <c r="D254" s="51"/>
       <c r="E254" s="50" t="str">
-        <f>DEC2HEX(F254)</f>
+        <f t="shared" si="44"/>
         <v>26</v>
       </c>
       <c r="F254" s="50">
         <v>38</v>
       </c>
       <c r="G254" s="50" t="str">
-        <f>CHAR(F254)</f>
+        <f t="shared" si="45"/>
         <v>&amp;</v>
       </c>
       <c r="H254" s="51" t="s">
@@ -9705,14 +9705,14 @@
       <c r="C255" s="51"/>
       <c r="D255" s="51"/>
       <c r="E255" s="50" t="str">
-        <f>DEC2HEX(F255)</f>
+        <f t="shared" si="44"/>
         <v>27</v>
       </c>
       <c r="F255" s="50">
         <v>39</v>
       </c>
       <c r="G255" s="50" t="str">
-        <f>CHAR(F255)</f>
+        <f t="shared" si="45"/>
         <v>'</v>
       </c>
       <c r="H255" s="51" t="s">
@@ -9725,14 +9725,14 @@
       <c r="C256" s="51"/>
       <c r="D256" s="51"/>
       <c r="E256" s="50" t="str">
-        <f>DEC2HEX(F256)</f>
+        <f t="shared" si="44"/>
         <v>28</v>
       </c>
       <c r="F256" s="50">
         <v>40</v>
       </c>
       <c r="G256" s="50" t="str">
-        <f>CHAR(F256)</f>
+        <f t="shared" si="45"/>
         <v>(</v>
       </c>
       <c r="H256" s="51" t="s">
@@ -9745,14 +9745,14 @@
       <c r="C257" s="51"/>
       <c r="D257" s="51"/>
       <c r="E257" s="50" t="str">
-        <f>DEC2HEX(F257)</f>
+        <f t="shared" si="44"/>
         <v>29</v>
       </c>
       <c r="F257" s="50">
         <v>41</v>
       </c>
       <c r="G257" s="50" t="str">
-        <f>CHAR(F257)</f>
+        <f t="shared" si="45"/>
         <v>)</v>
       </c>
       <c r="H257" s="51" t="s">
@@ -9765,14 +9765,14 @@
       <c r="C258" s="51"/>
       <c r="D258" s="51"/>
       <c r="E258" s="50" t="str">
-        <f>DEC2HEX(F258)</f>
+        <f t="shared" si="44"/>
         <v>2A</v>
       </c>
       <c r="F258" s="50">
         <v>42</v>
       </c>
       <c r="G258" s="50" t="str">
-        <f>CHAR(F258)</f>
+        <f t="shared" si="45"/>
         <v>*</v>
       </c>
       <c r="H258" s="51" t="s">
@@ -9785,14 +9785,14 @@
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="2" t="str">
-        <f>DEC2HEX(F259)</f>
+        <f t="shared" si="44"/>
         <v>2F</v>
       </c>
       <c r="F259" s="2">
         <v>47</v>
       </c>
       <c r="G259" s="2" t="str">
-        <f>CHAR(F259)</f>
+        <f t="shared" si="45"/>
         <v>/</v>
       </c>
       <c r="H259" s="1" t="s">
@@ -9805,14 +9805,14 @@
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="2" t="str">
-        <f>DEC2HEX(F260)</f>
+        <f t="shared" si="44"/>
         <v>30</v>
       </c>
       <c r="F260" s="2">
         <v>48</v>
       </c>
       <c r="G260" s="2" t="str">
-        <f>CHAR(F260)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H260" s="1" t="s">
@@ -9825,14 +9825,14 @@
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="2" t="str">
-        <f>DEC2HEX(F261)</f>
+        <f t="shared" si="44"/>
         <v>31</v>
       </c>
       <c r="F261" s="2">
         <v>49</v>
       </c>
       <c r="G261" s="2" t="str">
-        <f>CHAR(F261)</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="H261" s="1" t="s">
@@ -9845,14 +9845,14 @@
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="2" t="str">
-        <f>DEC2HEX(F262)</f>
+        <f t="shared" si="44"/>
         <v>32</v>
       </c>
       <c r="F262" s="2">
         <v>50</v>
       </c>
       <c r="G262" s="2" t="str">
-        <f>CHAR(F262)</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="H262" s="1" t="s">
@@ -9865,14 +9865,14 @@
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="2" t="str">
-        <f>DEC2HEX(F263)</f>
+        <f t="shared" si="44"/>
         <v>33</v>
       </c>
       <c r="F263" s="2">
         <v>51</v>
       </c>
       <c r="G263" s="2" t="str">
-        <f>CHAR(F263)</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="H263" s="1" t="s">
@@ -9885,14 +9885,14 @@
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="2" t="str">
-        <f>DEC2HEX(F264)</f>
+        <f t="shared" si="44"/>
         <v>34</v>
       </c>
       <c r="F264" s="2">
         <v>52</v>
       </c>
       <c r="G264" s="2" t="str">
-        <f>CHAR(F264)</f>
+        <f t="shared" si="45"/>
         <v>4</v>
       </c>
       <c r="H264" s="1" t="s">
@@ -9905,14 +9905,14 @@
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="2" t="str">
-        <f>DEC2HEX(F265)</f>
+        <f t="shared" si="44"/>
         <v>35</v>
       </c>
       <c r="F265" s="2">
         <v>53</v>
       </c>
       <c r="G265" s="2" t="str">
-        <f>CHAR(F265)</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="H265" s="1" t="s">
@@ -9925,14 +9925,14 @@
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="2" t="str">
-        <f>DEC2HEX(F266)</f>
+        <f t="shared" si="44"/>
         <v>36</v>
       </c>
       <c r="F266" s="2">
         <v>54</v>
       </c>
       <c r="G266" s="2" t="str">
-        <f>CHAR(F266)</f>
+        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="H266" s="1" t="s">
@@ -9945,14 +9945,14 @@
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="2" t="str">
-        <f>DEC2HEX(F267)</f>
+        <f t="shared" si="44"/>
         <v>37</v>
       </c>
       <c r="F267" s="2">
         <v>55</v>
       </c>
       <c r="G267" s="2" t="str">
-        <f>CHAR(F267)</f>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="H267" s="1" t="s">
@@ -9965,14 +9965,14 @@
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="2" t="str">
-        <f>DEC2HEX(F268)</f>
+        <f t="shared" si="44"/>
         <v>38</v>
       </c>
       <c r="F268" s="2">
         <v>56</v>
       </c>
       <c r="G268" s="2" t="str">
-        <f>CHAR(F268)</f>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="H268" s="1" t="s">
@@ -9985,14 +9985,14 @@
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="2" t="str">
-        <f>DEC2HEX(F269)</f>
+        <f t="shared" si="44"/>
         <v>39</v>
       </c>
       <c r="F269" s="2">
         <v>57</v>
       </c>
       <c r="G269" s="2" t="str">
-        <f>CHAR(F269)</f>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
       <c r="H269" s="1" t="s">
@@ -10005,14 +10005,14 @@
       <c r="C270" s="51"/>
       <c r="D270" s="51"/>
       <c r="E270" s="50" t="str">
-        <f>DEC2HEX(F270)</f>
+        <f t="shared" si="44"/>
         <v>3C</v>
       </c>
       <c r="F270" s="50">
         <v>60</v>
       </c>
       <c r="G270" s="50" t="str">
-        <f>CHAR(F270)</f>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="H270" s="51" t="s">
@@ -10025,14 +10025,14 @@
       <c r="C271" s="50"/>
       <c r="D271" s="50"/>
       <c r="E271" s="50" t="str">
-        <f>DEC2HEX(F271)</f>
+        <f t="shared" si="44"/>
         <v>3E</v>
       </c>
       <c r="F271" s="50">
         <v>62</v>
       </c>
       <c r="G271" s="50" t="str">
-        <f>CHAR(F271)</f>
+        <f t="shared" si="45"/>
         <v>&gt;</v>
       </c>
       <c r="H271" s="51" t="s">
@@ -10045,14 +10045,14 @@
       <c r="C272" s="51"/>
       <c r="D272" s="51"/>
       <c r="E272" s="50" t="str">
-        <f>DEC2HEX(F272)</f>
+        <f t="shared" si="44"/>
         <v>3F</v>
       </c>
       <c r="F272" s="50">
         <v>63</v>
       </c>
       <c r="G272" s="50" t="str">
-        <f>CHAR(F272)</f>
+        <f t="shared" si="45"/>
         <v>?</v>
       </c>
       <c r="H272" s="51" t="s">
@@ -10065,14 +10065,14 @@
       <c r="C273" s="50"/>
       <c r="D273" s="50"/>
       <c r="E273" s="50" t="str">
-        <f>DEC2HEX(F273)</f>
+        <f t="shared" si="44"/>
         <v>44</v>
       </c>
       <c r="F273" s="50">
         <v>68</v>
       </c>
       <c r="G273" s="50" t="str">
-        <f>CHAR(F273)</f>
+        <f t="shared" si="45"/>
         <v>D</v>
       </c>
       <c r="H273" s="51" t="s">
@@ -10085,14 +10085,14 @@
       <c r="C274" s="51"/>
       <c r="D274" s="51"/>
       <c r="E274" s="50" t="str">
-        <f>DEC2HEX(F274)</f>
+        <f t="shared" si="44"/>
         <v>47</v>
       </c>
       <c r="F274" s="50">
         <v>71</v>
       </c>
       <c r="G274" s="50" t="str">
-        <f>CHAR(F274)</f>
+        <f t="shared" si="45"/>
         <v>G</v>
       </c>
       <c r="H274" s="51" t="s">
@@ -10105,14 +10105,14 @@
       <c r="C275" s="50"/>
       <c r="D275" s="50"/>
       <c r="E275" s="50" t="str">
-        <f>DEC2HEX(F275)</f>
+        <f t="shared" si="44"/>
         <v>4F</v>
       </c>
       <c r="F275" s="50">
         <v>79</v>
       </c>
       <c r="G275" s="50" t="str">
-        <f>CHAR(F275)</f>
+        <f t="shared" si="45"/>
         <v>O</v>
       </c>
       <c r="H275" s="51" t="s">
@@ -10125,14 +10125,14 @@
       <c r="C276" s="51"/>
       <c r="D276" s="51"/>
       <c r="E276" s="50" t="str">
-        <f>DEC2HEX(F276)</f>
+        <f t="shared" si="44"/>
         <v>53</v>
       </c>
       <c r="F276" s="50">
         <v>83</v>
       </c>
       <c r="G276" s="50" t="str">
-        <f>CHAR(F276)</f>
+        <f t="shared" si="45"/>
         <v>S</v>
       </c>
       <c r="H276" s="51" t="s">
@@ -10145,14 +10145,14 @@
       <c r="C277" s="51"/>
       <c r="D277" s="51"/>
       <c r="E277" s="50" t="str">
-        <f>DEC2HEX(F277)</f>
+        <f t="shared" si="44"/>
         <v>56</v>
       </c>
       <c r="F277" s="50">
         <v>86</v>
       </c>
       <c r="G277" s="50" t="str">
-        <f>CHAR(F277)</f>
+        <f t="shared" si="45"/>
         <v>V</v>
       </c>
       <c r="H277" s="51" t="s">
@@ -10165,14 +10165,14 @@
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="2" t="str">
-        <f>DEC2HEX(F278)</f>
+        <f t="shared" si="44"/>
         <v>5C</v>
       </c>
       <c r="F278" s="2">
         <v>92</v>
       </c>
       <c r="G278" s="2" t="str">
-        <f>CHAR(F278)</f>
+        <f t="shared" si="45"/>
         <v>\</v>
       </c>
       <c r="H278" s="1" t="s">
@@ -10185,14 +10185,14 @@
       <c r="C279" s="50"/>
       <c r="D279" s="50"/>
       <c r="E279" s="50" t="str">
-        <f>DEC2HEX(F279)</f>
+        <f t="shared" si="44"/>
         <v>5D</v>
       </c>
       <c r="F279" s="50">
         <v>93</v>
       </c>
       <c r="G279" s="50" t="str">
-        <f>CHAR(F279)</f>
+        <f t="shared" si="45"/>
         <v>]</v>
       </c>
       <c r="H279" s="51" t="s">
@@ -10205,14 +10205,14 @@
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="2" t="str">
-        <f>DEC2HEX(F280)</f>
+        <f t="shared" si="44"/>
         <v>60</v>
       </c>
       <c r="F280" s="2">
         <v>96</v>
       </c>
       <c r="G280" s="2" t="str">
-        <f>CHAR(F280)</f>
+        <f t="shared" si="45"/>
         <v>`</v>
       </c>
       <c r="H280" s="1" t="s">
@@ -10225,14 +10225,14 @@
       <c r="C281" s="51"/>
       <c r="D281" s="51"/>
       <c r="E281" s="50" t="str">
-        <f>DEC2HEX(F281)</f>
+        <f t="shared" ref="E281:E312" si="46">DEC2HEX(F281)</f>
         <v>61</v>
       </c>
       <c r="F281" s="50">
         <v>97</v>
       </c>
       <c r="G281" s="50" t="str">
-        <f>CHAR(F281)</f>
+        <f t="shared" ref="G281:G312" si="47">CHAR(F281)</f>
         <v>a</v>
       </c>
       <c r="H281" s="51" t="s">
@@ -10245,14 +10245,14 @@
       <c r="C282" s="51"/>
       <c r="D282" s="51"/>
       <c r="E282" s="50" t="str">
-        <f>DEC2HEX(F282)</f>
+        <f t="shared" si="46"/>
         <v>67</v>
       </c>
       <c r="F282" s="50">
         <v>103</v>
       </c>
       <c r="G282" s="50" t="str">
-        <f>CHAR(F282)</f>
+        <f t="shared" si="47"/>
         <v>g</v>
       </c>
       <c r="H282" s="51" t="s">
@@ -10265,14 +10265,14 @@
       <c r="C283" s="51"/>
       <c r="D283" s="51"/>
       <c r="E283" s="50" t="str">
-        <f>DEC2HEX(F283)</f>
+        <f t="shared" si="46"/>
         <v>68</v>
       </c>
       <c r="F283" s="50">
         <v>104</v>
       </c>
       <c r="G283" s="50" t="str">
-        <f>CHAR(F283)</f>
+        <f t="shared" si="47"/>
         <v>h</v>
       </c>
       <c r="H283" s="51" t="s">
@@ -10285,14 +10285,14 @@
       <c r="C284" s="51"/>
       <c r="D284" s="51"/>
       <c r="E284" s="50" t="str">
-        <f>DEC2HEX(F284)</f>
+        <f t="shared" si="46"/>
         <v>6A</v>
       </c>
       <c r="F284" s="50">
         <v>106</v>
       </c>
       <c r="G284" s="50" t="str">
-        <f>CHAR(F284)</f>
+        <f t="shared" si="47"/>
         <v>j</v>
       </c>
       <c r="H284" s="51" t="s">
@@ -10305,14 +10305,14 @@
       <c r="C285" s="51"/>
       <c r="D285" s="51"/>
       <c r="E285" s="50" t="str">
-        <f>DEC2HEX(F285)</f>
+        <f t="shared" si="46"/>
         <v>71</v>
       </c>
       <c r="F285" s="50">
         <v>113</v>
       </c>
       <c r="G285" s="50" t="str">
-        <f>CHAR(F285)</f>
+        <f t="shared" si="47"/>
         <v>q</v>
       </c>
       <c r="H285" s="51" t="s">
@@ -10325,14 +10325,14 @@
       <c r="C286" s="51"/>
       <c r="D286" s="51"/>
       <c r="E286" s="50" t="str">
-        <f>DEC2HEX(F286)</f>
+        <f t="shared" si="46"/>
         <v>75</v>
       </c>
       <c r="F286" s="50">
         <v>117</v>
       </c>
       <c r="G286" s="50" t="str">
-        <f>CHAR(F286)</f>
+        <f t="shared" si="47"/>
         <v>u</v>
       </c>
       <c r="H286" s="51" t="s">
@@ -10346,14 +10346,14 @@
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5" t="str">
-        <f>DEC2HEX(F287)</f>
+        <f t="shared" si="46"/>
         <v>7D</v>
       </c>
       <c r="F287" s="5">
         <v>125</v>
       </c>
       <c r="G287" s="5" t="str">
-        <f>CHAR(F287)</f>
+        <f t="shared" si="47"/>
         <v>}</v>
       </c>
       <c r="H287" s="4" t="s">
@@ -10366,14 +10366,14 @@
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="2" t="str">
-        <f>DEC2HEX(F288)</f>
+        <f t="shared" si="46"/>
         <v>7F</v>
       </c>
       <c r="F288" s="2">
         <v>127</v>
       </c>
       <c r="G288" s="2" t="str">
-        <f>CHAR(F288)</f>
+        <f t="shared" si="47"/>
         <v></v>
       </c>
       <c r="H288" s="1" t="s">
@@ -10386,14 +10386,14 @@
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="2" t="str">
-        <f>DEC2HEX(F289)</f>
+        <f t="shared" si="46"/>
         <v>80</v>
       </c>
       <c r="F289" s="2">
         <v>128</v>
       </c>
       <c r="G289" s="2" t="str">
-        <f>CHAR(F289)</f>
+        <f t="shared" si="47"/>
         <v>€</v>
       </c>
       <c r="H289" s="1" t="s">
@@ -10406,14 +10406,14 @@
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="2" t="str">
-        <f>DEC2HEX(F290)</f>
+        <f t="shared" si="46"/>
         <v>81</v>
       </c>
       <c r="F290" s="2">
         <v>129</v>
       </c>
       <c r="G290" s="2" t="str">
-        <f>CHAR(F290)</f>
+        <f t="shared" si="47"/>
         <v></v>
       </c>
       <c r="H290" s="1" t="s">
@@ -10426,14 +10426,14 @@
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="2" t="str">
-        <f>DEC2HEX(F291)</f>
+        <f t="shared" si="46"/>
         <v>82</v>
       </c>
       <c r="F291" s="2">
         <v>130</v>
       </c>
       <c r="G291" s="2" t="str">
-        <f>CHAR(F291)</f>
+        <f t="shared" si="47"/>
         <v>‚</v>
       </c>
       <c r="H291" s="1" t="s">
@@ -10446,14 +10446,14 @@
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="2" t="str">
-        <f>DEC2HEX(F292)</f>
+        <f t="shared" si="46"/>
         <v>83</v>
       </c>
       <c r="F292" s="2">
         <v>131</v>
       </c>
       <c r="G292" s="2" t="str">
-        <f>CHAR(F292)</f>
+        <f t="shared" si="47"/>
         <v>ƒ</v>
       </c>
       <c r="H292" s="1" t="s">
@@ -10466,14 +10466,14 @@
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="2" t="str">
-        <f>DEC2HEX(F293)</f>
+        <f t="shared" si="46"/>
         <v>84</v>
       </c>
       <c r="F293" s="2">
         <v>132</v>
       </c>
       <c r="G293" s="2" t="str">
-        <f>CHAR(F293)</f>
+        <f t="shared" si="47"/>
         <v>„</v>
       </c>
       <c r="H293" s="1" t="s">
@@ -10486,14 +10486,14 @@
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="2" t="str">
-        <f>DEC2HEX(F294)</f>
+        <f t="shared" si="46"/>
         <v>85</v>
       </c>
       <c r="F294" s="2">
         <v>133</v>
       </c>
       <c r="G294" s="2" t="str">
-        <f>CHAR(F294)</f>
+        <f t="shared" si="47"/>
         <v>…</v>
       </c>
       <c r="H294" s="1" t="s">
@@ -10506,14 +10506,14 @@
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="2" t="str">
-        <f>DEC2HEX(F295)</f>
+        <f t="shared" si="46"/>
         <v>86</v>
       </c>
       <c r="F295" s="2">
         <v>134</v>
       </c>
       <c r="G295" s="2" t="str">
-        <f>CHAR(F295)</f>
+        <f t="shared" si="47"/>
         <v>†</v>
       </c>
       <c r="H295" s="1" t="s">
@@ -10526,14 +10526,14 @@
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="2" t="str">
-        <f>DEC2HEX(F296)</f>
+        <f t="shared" si="46"/>
         <v>87</v>
       </c>
       <c r="F296" s="2">
         <v>135</v>
       </c>
       <c r="G296" s="2" t="str">
-        <f>CHAR(F296)</f>
+        <f t="shared" si="47"/>
         <v>‡</v>
       </c>
       <c r="H296" s="1" t="s">
@@ -10546,14 +10546,14 @@
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="2" t="str">
-        <f>DEC2HEX(F297)</f>
+        <f t="shared" si="46"/>
         <v>88</v>
       </c>
       <c r="F297" s="2">
         <v>136</v>
       </c>
       <c r="G297" s="2" t="str">
-        <f>CHAR(F297)</f>
+        <f t="shared" si="47"/>
         <v>ˆ</v>
       </c>
       <c r="H297" s="1" t="s">
@@ -10566,14 +10566,14 @@
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="2" t="str">
-        <f>DEC2HEX(F298)</f>
+        <f t="shared" si="46"/>
         <v>89</v>
       </c>
       <c r="F298" s="2">
         <v>137</v>
       </c>
       <c r="G298" s="2" t="str">
-        <f>CHAR(F298)</f>
+        <f t="shared" si="47"/>
         <v>‰</v>
       </c>
       <c r="H298" s="1" t="s">
@@ -10586,14 +10586,14 @@
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="2" t="str">
-        <f>DEC2HEX(F299)</f>
+        <f t="shared" si="46"/>
         <v>8A</v>
       </c>
       <c r="F299" s="2">
         <v>138</v>
       </c>
       <c r="G299" s="2" t="str">
-        <f>CHAR(F299)</f>
+        <f t="shared" si="47"/>
         <v>Š</v>
       </c>
       <c r="H299" s="1" t="s">
@@ -10606,14 +10606,14 @@
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="2" t="str">
-        <f>DEC2HEX(F300)</f>
+        <f t="shared" si="46"/>
         <v>8B</v>
       </c>
       <c r="F300" s="2">
         <v>139</v>
       </c>
       <c r="G300" s="2" t="str">
-        <f>CHAR(F300)</f>
+        <f t="shared" si="47"/>
         <v>‹</v>
       </c>
       <c r="H300" s="1" t="s">
@@ -10626,14 +10626,14 @@
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="2" t="str">
-        <f>DEC2HEX(F301)</f>
+        <f t="shared" si="46"/>
         <v>8C</v>
       </c>
       <c r="F301" s="2">
         <v>140</v>
       </c>
       <c r="G301" s="2" t="str">
-        <f>CHAR(F301)</f>
+        <f t="shared" si="47"/>
         <v>Œ</v>
       </c>
       <c r="H301" s="1" t="s">
@@ -10646,14 +10646,14 @@
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="2" t="str">
-        <f>DEC2HEX(F302)</f>
+        <f t="shared" si="46"/>
         <v>8D</v>
       </c>
       <c r="F302" s="2">
         <v>141</v>
       </c>
       <c r="G302" s="2" t="str">
-        <f>CHAR(F302)</f>
+        <f t="shared" si="47"/>
         <v></v>
       </c>
       <c r="H302" s="1" t="s">
@@ -10666,14 +10666,14 @@
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="2" t="str">
-        <f>DEC2HEX(F303)</f>
+        <f t="shared" si="46"/>
         <v>8E</v>
       </c>
       <c r="F303" s="2">
         <v>142</v>
       </c>
       <c r="G303" s="2" t="str">
-        <f>CHAR(F303)</f>
+        <f t="shared" si="47"/>
         <v>Ž</v>
       </c>
       <c r="H303" s="1" t="s">
@@ -10686,14 +10686,14 @@
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="2" t="str">
-        <f>DEC2HEX(F304)</f>
+        <f t="shared" si="46"/>
         <v>8F</v>
       </c>
       <c r="F304" s="2">
         <v>143</v>
       </c>
       <c r="G304" s="2" t="str">
-        <f>CHAR(F304)</f>
+        <f t="shared" si="47"/>
         <v></v>
       </c>
       <c r="H304" s="1" t="s">
@@ -10706,14 +10706,14 @@
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="2" t="str">
-        <f>DEC2HEX(F305)</f>
+        <f t="shared" si="46"/>
         <v>90</v>
       </c>
       <c r="F305" s="2">
         <v>144</v>
       </c>
       <c r="G305" s="2" t="str">
-        <f>CHAR(F305)</f>
+        <f t="shared" si="47"/>
         <v></v>
       </c>
       <c r="H305" s="1" t="s">
@@ -10726,14 +10726,14 @@
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="2" t="str">
-        <f>DEC2HEX(F306)</f>
+        <f t="shared" si="46"/>
         <v>91</v>
       </c>
       <c r="F306" s="2">
         <v>145</v>
       </c>
       <c r="G306" s="2" t="str">
-        <f>CHAR(F306)</f>
+        <f t="shared" si="47"/>
         <v>‘</v>
       </c>
       <c r="H306" s="1" t="s">
@@ -10746,14 +10746,14 @@
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="2" t="str">
-        <f>DEC2HEX(F307)</f>
+        <f t="shared" si="46"/>
         <v>92</v>
       </c>
       <c r="F307" s="2">
         <v>146</v>
       </c>
       <c r="G307" s="2" t="str">
-        <f>CHAR(F307)</f>
+        <f t="shared" si="47"/>
         <v>’</v>
       </c>
       <c r="H307" s="1" t="s">
@@ -10766,14 +10766,14 @@
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="2" t="str">
-        <f>DEC2HEX(F308)</f>
+        <f t="shared" si="46"/>
         <v>93</v>
       </c>
       <c r="F308" s="2">
         <v>147</v>
       </c>
       <c r="G308" s="2" t="str">
-        <f>CHAR(F308)</f>
+        <f t="shared" si="47"/>
         <v>“</v>
       </c>
       <c r="H308" s="1" t="s">
@@ -10786,14 +10786,14 @@
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="2" t="str">
-        <f>DEC2HEX(F309)</f>
+        <f t="shared" si="46"/>
         <v>94</v>
       </c>
       <c r="F309" s="2">
         <v>148</v>
       </c>
       <c r="G309" s="2" t="str">
-        <f>CHAR(F309)</f>
+        <f t="shared" si="47"/>
         <v>”</v>
       </c>
       <c r="H309" s="1" t="s">
@@ -10806,14 +10806,14 @@
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="2" t="str">
-        <f>DEC2HEX(F310)</f>
+        <f t="shared" si="46"/>
         <v>95</v>
       </c>
       <c r="F310" s="2">
         <v>149</v>
       </c>
       <c r="G310" s="2" t="str">
-        <f>CHAR(F310)</f>
+        <f t="shared" si="47"/>
         <v>•</v>
       </c>
       <c r="H310" s="1" t="s">
@@ -10826,14 +10826,14 @@
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="2" t="str">
-        <f>DEC2HEX(F311)</f>
+        <f t="shared" si="46"/>
         <v>96</v>
       </c>
       <c r="F311" s="2">
         <v>150</v>
       </c>
       <c r="G311" s="2" t="str">
-        <f>CHAR(F311)</f>
+        <f t="shared" si="47"/>
         <v>–</v>
       </c>
       <c r="H311" s="1" t="s">
@@ -10846,14 +10846,14 @@
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="2" t="str">
-        <f>DEC2HEX(F312)</f>
+        <f t="shared" si="46"/>
         <v>97</v>
       </c>
       <c r="F312" s="2">
         <v>151</v>
       </c>
       <c r="G312" s="2" t="str">
-        <f>CHAR(F312)</f>
+        <f t="shared" si="47"/>
         <v>—</v>
       </c>
       <c r="H312" s="1" t="s">
@@ -10866,14 +10866,14 @@
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="2" t="str">
-        <f>DEC2HEX(F313)</f>
+        <f t="shared" ref="E313:E344" si="48">DEC2HEX(F313)</f>
         <v>98</v>
       </c>
       <c r="F313" s="2">
         <v>152</v>
       </c>
       <c r="G313" s="2" t="str">
-        <f>CHAR(F313)</f>
+        <f t="shared" ref="G313:G344" si="49">CHAR(F313)</f>
         <v>˜</v>
       </c>
       <c r="H313" s="1" t="s">
@@ -10886,14 +10886,14 @@
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="2" t="str">
-        <f>DEC2HEX(F314)</f>
+        <f t="shared" si="48"/>
         <v>99</v>
       </c>
       <c r="F314" s="2">
         <v>153</v>
       </c>
       <c r="G314" s="2" t="str">
-        <f>CHAR(F314)</f>
+        <f t="shared" si="49"/>
         <v>™</v>
       </c>
       <c r="H314" s="1" t="s">
@@ -10906,14 +10906,14 @@
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="2" t="str">
-        <f>DEC2HEX(F315)</f>
+        <f t="shared" si="48"/>
         <v>9A</v>
       </c>
       <c r="F315" s="2">
         <v>154</v>
       </c>
       <c r="G315" s="2" t="str">
-        <f>CHAR(F315)</f>
+        <f t="shared" si="49"/>
         <v>š</v>
       </c>
       <c r="H315" s="1" t="s">
@@ -10926,14 +10926,14 @@
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="2" t="str">
-        <f>DEC2HEX(F316)</f>
+        <f t="shared" si="48"/>
         <v>9B</v>
       </c>
       <c r="F316" s="2">
         <v>155</v>
       </c>
       <c r="G316" s="2" t="str">
-        <f>CHAR(F316)</f>
+        <f t="shared" si="49"/>
         <v>›</v>
       </c>
       <c r="H316" s="1" t="s">
@@ -10946,14 +10946,14 @@
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="2" t="str">
-        <f>DEC2HEX(F317)</f>
+        <f t="shared" si="48"/>
         <v>9C</v>
       </c>
       <c r="F317" s="2">
         <v>156</v>
       </c>
       <c r="G317" s="2" t="str">
-        <f>CHAR(F317)</f>
+        <f t="shared" si="49"/>
         <v>œ</v>
       </c>
       <c r="H317" s="1" t="s">
@@ -10966,14 +10966,14 @@
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="2" t="str">
-        <f>DEC2HEX(F318)</f>
+        <f t="shared" si="48"/>
         <v>9D</v>
       </c>
       <c r="F318" s="2">
         <v>157</v>
       </c>
       <c r="G318" s="2" t="str">
-        <f>CHAR(F318)</f>
+        <f t="shared" si="49"/>
         <v></v>
       </c>
       <c r="H318" s="1" t="s">
@@ -10986,14 +10986,14 @@
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="2" t="str">
-        <f>DEC2HEX(F319)</f>
+        <f t="shared" si="48"/>
         <v>9E</v>
       </c>
       <c r="F319" s="2">
         <v>158</v>
       </c>
       <c r="G319" s="2" t="str">
-        <f>CHAR(F319)</f>
+        <f t="shared" si="49"/>
         <v>ž</v>
       </c>
       <c r="H319" s="1" t="s">
@@ -11006,14 +11006,14 @@
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="2" t="str">
-        <f>DEC2HEX(F320)</f>
+        <f t="shared" si="48"/>
         <v>9F</v>
       </c>
       <c r="F320" s="2">
         <v>159</v>
       </c>
       <c r="G320" s="2" t="str">
-        <f>CHAR(F320)</f>
+        <f t="shared" si="49"/>
         <v>Ÿ</v>
       </c>
       <c r="H320" s="1" t="s">
@@ -11026,14 +11026,14 @@
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="2" t="str">
-        <f>DEC2HEX(F321)</f>
+        <f t="shared" si="48"/>
         <v>A0</v>
       </c>
       <c r="F321" s="2">
         <v>160</v>
       </c>
       <c r="G321" s="2" t="str">
-        <f>CHAR(F321)</f>
+        <f t="shared" si="49"/>
         <v> </v>
       </c>
       <c r="H321" s="1" t="s">
@@ -11046,14 +11046,14 @@
       <c r="C322" s="51"/>
       <c r="D322" s="51"/>
       <c r="E322" s="50" t="str">
-        <f>DEC2HEX(F322)</f>
+        <f t="shared" si="48"/>
         <v>A1</v>
       </c>
       <c r="F322" s="50">
         <v>161</v>
       </c>
       <c r="G322" s="50" t="str">
-        <f>CHAR(F322)</f>
+        <f t="shared" si="49"/>
         <v>¡</v>
       </c>
       <c r="H322" s="51" t="s">
@@ -11066,14 +11066,14 @@
       <c r="C323" s="51"/>
       <c r="D323" s="51"/>
       <c r="E323" s="50" t="str">
-        <f>DEC2HEX(F323)</f>
+        <f t="shared" si="48"/>
         <v>A2</v>
       </c>
       <c r="F323" s="50">
         <v>162</v>
       </c>
       <c r="G323" s="50" t="str">
-        <f>CHAR(F323)</f>
+        <f t="shared" si="49"/>
         <v>¢</v>
       </c>
       <c r="H323" s="51" t="s">
@@ -11086,14 +11086,14 @@
       <c r="C324" s="51"/>
       <c r="D324" s="51"/>
       <c r="E324" s="50" t="str">
-        <f>DEC2HEX(F324)</f>
+        <f t="shared" si="48"/>
         <v>A7</v>
       </c>
       <c r="F324" s="50">
         <v>167</v>
       </c>
       <c r="G324" s="50" t="str">
-        <f>CHAR(F324)</f>
+        <f t="shared" si="49"/>
         <v>§</v>
       </c>
       <c r="H324" s="51" t="s">
@@ -11106,14 +11106,14 @@
       <c r="C325" s="51"/>
       <c r="D325" s="51"/>
       <c r="E325" s="50" t="str">
-        <f>DEC2HEX(F325)</f>
+        <f t="shared" si="48"/>
         <v>A8</v>
       </c>
       <c r="F325" s="50">
         <v>168</v>
       </c>
       <c r="G325" s="50" t="str">
-        <f>CHAR(F325)</f>
+        <f t="shared" si="49"/>
         <v>¨</v>
       </c>
       <c r="H325" s="51" t="s">
@@ -11126,14 +11126,14 @@
       <c r="C326" s="51"/>
       <c r="D326" s="51"/>
       <c r="E326" s="50" t="str">
-        <f>DEC2HEX(F326)</f>
+        <f t="shared" si="48"/>
         <v>A9</v>
       </c>
       <c r="F326" s="50">
         <v>169</v>
       </c>
       <c r="G326" s="50" t="str">
-        <f>CHAR(F326)</f>
+        <f t="shared" si="49"/>
         <v>©</v>
       </c>
       <c r="H326" s="51" t="s">
@@ -11146,14 +11146,14 @@
       <c r="C327" s="51"/>
       <c r="D327" s="51"/>
       <c r="E327" s="50" t="str">
-        <f>DEC2HEX(F327)</f>
+        <f t="shared" si="48"/>
         <v>AA</v>
       </c>
       <c r="F327" s="50">
         <v>170</v>
       </c>
       <c r="G327" s="50" t="str">
-        <f>CHAR(F327)</f>
+        <f t="shared" si="49"/>
         <v>ª</v>
       </c>
       <c r="H327" s="51" t="s">
@@ -11166,14 +11166,14 @@
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="2" t="str">
-        <f>DEC2HEX(F328)</f>
+        <f t="shared" si="48"/>
         <v>AD</v>
       </c>
       <c r="F328" s="2">
         <v>173</v>
       </c>
       <c r="G328" s="2" t="str">
-        <f>CHAR(F328)</f>
+        <f t="shared" si="49"/>
         <v>­</v>
       </c>
       <c r="H328" s="1" t="s">
@@ -11186,14 +11186,14 @@
       <c r="C329" s="51"/>
       <c r="D329" s="51"/>
       <c r="E329" s="50" t="str">
-        <f>DEC2HEX(F329)</f>
+        <f t="shared" si="48"/>
         <v>AE</v>
       </c>
       <c r="F329" s="50">
         <v>174</v>
       </c>
       <c r="G329" s="50" t="str">
-        <f>CHAR(F329)</f>
+        <f t="shared" si="49"/>
         <v>®</v>
       </c>
       <c r="H329" s="51" t="s">
@@ -11206,14 +11206,14 @@
       <c r="C330" s="50"/>
       <c r="D330" s="50"/>
       <c r="E330" s="50" t="str">
-        <f>DEC2HEX(F330)</f>
+        <f t="shared" si="48"/>
         <v>AF</v>
       </c>
       <c r="F330" s="50">
         <v>175</v>
       </c>
       <c r="G330" s="50" t="str">
-        <f>CHAR(F330)</f>
+        <f t="shared" si="49"/>
         <v>¯</v>
       </c>
       <c r="H330" s="51" t="s">
@@ -11227,14 +11227,14 @@
       <c r="C331" s="51"/>
       <c r="D331" s="51"/>
       <c r="E331" s="50" t="str">
-        <f>DEC2HEX(F331)</f>
+        <f t="shared" si="48"/>
         <v>B0</v>
       </c>
       <c r="F331" s="50">
         <v>176</v>
       </c>
       <c r="G331" s="50" t="str">
-        <f>CHAR(F331)</f>
+        <f t="shared" si="49"/>
         <v>°</v>
       </c>
       <c r="H331" s="51" t="s">
@@ -11247,14 +11247,14 @@
       <c r="C332" s="51"/>
       <c r="D332" s="51"/>
       <c r="E332" s="50" t="str">
-        <f>DEC2HEX(F332)</f>
+        <f t="shared" si="48"/>
         <v>B1</v>
       </c>
       <c r="F332" s="50">
         <v>177</v>
       </c>
       <c r="G332" s="50" t="str">
-        <f>CHAR(F332)</f>
+        <f t="shared" si="49"/>
         <v>±</v>
       </c>
       <c r="H332" s="51" t="s">
@@ -11267,14 +11267,14 @@
       <c r="C333" s="51"/>
       <c r="D333" s="51"/>
       <c r="E333" s="50" t="str">
-        <f>DEC2HEX(F333)</f>
+        <f t="shared" si="48"/>
         <v>B2</v>
       </c>
       <c r="F333" s="50">
         <v>178</v>
       </c>
       <c r="G333" s="50" t="str">
-        <f>CHAR(F333)</f>
+        <f t="shared" si="49"/>
         <v>²</v>
       </c>
       <c r="H333" s="51" t="s">
@@ -11287,14 +11287,14 @@
       <c r="C334" s="50"/>
       <c r="D334" s="50"/>
       <c r="E334" s="50" t="str">
-        <f>DEC2HEX(F334)</f>
+        <f t="shared" si="48"/>
         <v>B3</v>
       </c>
       <c r="F334" s="50">
         <v>179</v>
       </c>
       <c r="G334" s="50" t="str">
-        <f>CHAR(F334)</f>
+        <f t="shared" si="49"/>
         <v>³</v>
       </c>
       <c r="H334" s="51" t="s">
@@ -11307,14 +11307,14 @@
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="2" t="str">
-        <f>DEC2HEX(F335)</f>
+        <f t="shared" si="48"/>
         <v>B4</v>
       </c>
       <c r="F335" s="2">
         <v>180</v>
       </c>
       <c r="G335" s="2" t="str">
-        <f>CHAR(F335)</f>
+        <f t="shared" si="49"/>
         <v>´</v>
       </c>
       <c r="H335" s="1" t="s">
@@ -11327,14 +11327,14 @@
       <c r="C336" s="50"/>
       <c r="D336" s="50"/>
       <c r="E336" s="50" t="str">
-        <f>DEC2HEX(F336)</f>
+        <f t="shared" si="48"/>
         <v>C2</v>
       </c>
       <c r="F336" s="50">
         <v>194</v>
       </c>
       <c r="G336" s="50" t="str">
-        <f>CHAR(F336)</f>
+        <f t="shared" si="49"/>
         <v>Â</v>
       </c>
       <c r="H336" s="51" t="s">
@@ -11347,14 +11347,14 @@
       <c r="C337" s="51"/>
       <c r="D337" s="51"/>
       <c r="E337" s="50" t="str">
-        <f>DEC2HEX(F337)</f>
+        <f t="shared" si="48"/>
         <v>C7</v>
       </c>
       <c r="F337" s="50">
         <v>199</v>
       </c>
       <c r="G337" s="50" t="str">
-        <f>CHAR(F337)</f>
+        <f t="shared" si="49"/>
         <v>Ç</v>
       </c>
       <c r="H337" s="51" t="s">
@@ -11367,14 +11367,14 @@
       <c r="C338" s="51"/>
       <c r="D338" s="51"/>
       <c r="E338" s="50" t="str">
-        <f>DEC2HEX(F338)</f>
+        <f t="shared" si="48"/>
         <v>C8</v>
       </c>
       <c r="F338" s="50">
         <v>200</v>
       </c>
       <c r="G338" s="50" t="str">
-        <f>CHAR(F338)</f>
+        <f t="shared" si="49"/>
         <v>È</v>
       </c>
       <c r="H338" s="51" t="s">
@@ -11387,14 +11387,14 @@
       <c r="C339" s="51"/>
       <c r="D339" s="51"/>
       <c r="E339" s="50" t="str">
-        <f>DEC2HEX(F339)</f>
+        <f t="shared" si="48"/>
         <v>CA</v>
       </c>
       <c r="F339" s="50">
         <v>202</v>
       </c>
       <c r="G339" s="50" t="str">
-        <f>CHAR(F339)</f>
+        <f t="shared" si="49"/>
         <v>Ê</v>
       </c>
       <c r="H339" s="51" t="s">
@@ -11407,14 +11407,14 @@
       <c r="C340" s="51"/>
       <c r="D340" s="51"/>
       <c r="E340" s="50" t="str">
-        <f>DEC2HEX(F340)</f>
+        <f t="shared" si="48"/>
         <v>CF</v>
       </c>
       <c r="F340" s="50">
         <v>207</v>
       </c>
       <c r="G340" s="50" t="str">
-        <f>CHAR(F340)</f>
+        <f t="shared" si="49"/>
         <v>Ï</v>
       </c>
       <c r="H340" s="51" t="s">
@@ -11427,14 +11427,14 @@
       <c r="C341" s="51"/>
       <c r="D341" s="51"/>
       <c r="E341" s="50" t="str">
-        <f>DEC2HEX(F341)</f>
+        <f t="shared" si="48"/>
         <v>D1</v>
       </c>
       <c r="F341" s="50">
         <v>209</v>
       </c>
       <c r="G341" s="50" t="str">
-        <f>CHAR(F341)</f>
+        <f t="shared" si="49"/>
         <v>Ñ</v>
       </c>
       <c r="H341" s="51" t="s">
@@ -11448,14 +11448,14 @@
       <c r="C342" s="51"/>
       <c r="D342" s="51"/>
       <c r="E342" s="50" t="str">
-        <f>DEC2HEX(F342)</f>
+        <f t="shared" si="48"/>
         <v>D2</v>
       </c>
       <c r="F342" s="50">
         <v>210</v>
       </c>
       <c r="G342" s="50" t="str">
-        <f>CHAR(F342)</f>
+        <f t="shared" si="49"/>
         <v>Ò</v>
       </c>
       <c r="H342" s="51" t="s">
@@ -11468,14 +11468,14 @@
       <c r="C343" s="50"/>
       <c r="D343" s="50"/>
       <c r="E343" s="50" t="str">
-        <f>DEC2HEX(F343)</f>
+        <f t="shared" si="48"/>
         <v>D3</v>
       </c>
       <c r="F343" s="50">
         <v>211</v>
       </c>
       <c r="G343" s="50" t="str">
-        <f>CHAR(F343)</f>
+        <f t="shared" si="49"/>
         <v>Ó</v>
       </c>
       <c r="H343" s="51" t="s">
@@ -11488,14 +11488,14 @@
       <c r="C344" s="51"/>
       <c r="D344" s="51"/>
       <c r="E344" s="50" t="str">
-        <f>DEC2HEX(F344)</f>
+        <f t="shared" si="48"/>
         <v>E2</v>
       </c>
       <c r="F344" s="50">
         <v>226</v>
       </c>
       <c r="G344" s="50" t="str">
-        <f>CHAR(F344)</f>
+        <f t="shared" si="49"/>
         <v>â</v>
       </c>
       <c r="H344" s="51" t="s">
@@ -11508,14 +11508,14 @@
       <c r="C345" s="51"/>
       <c r="D345" s="51"/>
       <c r="E345" s="50" t="str">
-        <f>DEC2HEX(F345)</f>
+        <f t="shared" ref="E345:E376" si="50">DEC2HEX(F345)</f>
         <v>E5</v>
       </c>
       <c r="F345" s="50">
         <v>229</v>
       </c>
       <c r="G345" s="50" t="str">
-        <f>CHAR(F345)</f>
+        <f t="shared" ref="G345:G376" si="51">CHAR(F345)</f>
         <v>å</v>
       </c>
       <c r="H345" s="51" t="s">
@@ -11528,14 +11528,14 @@
       <c r="C346" s="50"/>
       <c r="D346" s="50"/>
       <c r="E346" s="50" t="str">
-        <f>DEC2HEX(F346)</f>
+        <f t="shared" si="50"/>
         <v>EF</v>
       </c>
       <c r="F346" s="50">
         <v>239</v>
       </c>
       <c r="G346" s="50" t="str">
-        <f>CHAR(F346)</f>
+        <f t="shared" si="51"/>
         <v>ï</v>
       </c>
       <c r="H346" s="51" t="s">
@@ -11548,14 +11548,14 @@
       <c r="C347" s="50"/>
       <c r="D347" s="50"/>
       <c r="E347" s="50" t="str">
-        <f>DEC2HEX(F347)</f>
+        <f t="shared" si="50"/>
         <v>F0</v>
       </c>
       <c r="F347" s="50">
         <v>240</v>
       </c>
       <c r="G347" s="50" t="str">
-        <f>CHAR(F347)</f>
+        <f t="shared" si="51"/>
         <v>ð</v>
       </c>
       <c r="H347" s="51" t="s">
@@ -11568,14 +11568,14 @@
       <c r="C348" s="50"/>
       <c r="D348" s="50"/>
       <c r="E348" s="50" t="str">
-        <f>DEC2HEX(F348)</f>
+        <f t="shared" si="50"/>
         <v>F1</v>
       </c>
       <c r="F348" s="50">
         <v>241</v>
       </c>
       <c r="G348" s="50" t="str">
-        <f>CHAR(F348)</f>
+        <f t="shared" si="51"/>
         <v>ñ</v>
       </c>
       <c r="H348" s="51" t="s">
@@ -11588,14 +11588,14 @@
       <c r="C349" s="50"/>
       <c r="D349" s="50"/>
       <c r="E349" s="50" t="str">
-        <f>DEC2HEX(F349)</f>
+        <f t="shared" si="50"/>
         <v>F2</v>
       </c>
       <c r="F349" s="50">
         <v>242</v>
       </c>
       <c r="G349" s="50" t="str">
-        <f>CHAR(F349)</f>
+        <f t="shared" si="51"/>
         <v>ò</v>
       </c>
       <c r="H349" s="51" t="s">
@@ -11608,14 +11608,14 @@
       <c r="C350" s="50"/>
       <c r="D350" s="50"/>
       <c r="E350" s="50" t="str">
-        <f>DEC2HEX(F350)</f>
+        <f t="shared" si="50"/>
         <v>F3</v>
       </c>
       <c r="F350" s="50">
         <v>243</v>
       </c>
       <c r="G350" s="50" t="str">
-        <f>CHAR(F350)</f>
+        <f t="shared" si="51"/>
         <v>ó</v>
       </c>
       <c r="H350" s="51" t="s">
@@ -11630,14 +11630,14 @@
       <c r="C351" s="50"/>
       <c r="D351" s="50"/>
       <c r="E351" s="50" t="str">
-        <f>DEC2HEX(F351)</f>
+        <f t="shared" si="50"/>
         <v>F4</v>
       </c>
       <c r="F351" s="50">
         <v>244</v>
       </c>
       <c r="G351" s="50" t="str">
-        <f>CHAR(F351)</f>
+        <f t="shared" si="51"/>
         <v>ô</v>
       </c>
       <c r="H351" s="51" t="s">
@@ -11650,14 +11650,14 @@
       <c r="C352" s="51"/>
       <c r="D352" s="51"/>
       <c r="E352" s="50" t="str">
-        <f>DEC2HEX(F352)</f>
+        <f t="shared" si="50"/>
         <v>F5</v>
       </c>
       <c r="F352" s="50">
         <v>245</v>
       </c>
       <c r="G352" s="50" t="str">
-        <f>CHAR(F352)</f>
+        <f t="shared" si="51"/>
         <v>õ</v>
       </c>
       <c r="H352" s="51" t="s">
@@ -11670,14 +11670,14 @@
       <c r="C353" s="51"/>
       <c r="D353" s="51"/>
       <c r="E353" s="50" t="str">
-        <f>DEC2HEX(F353)</f>
+        <f t="shared" si="50"/>
         <v>F8</v>
       </c>
       <c r="F353" s="50">
         <v>248</v>
       </c>
       <c r="G353" s="50" t="str">
-        <f>CHAR(F353)</f>
+        <f t="shared" si="51"/>
         <v>ø</v>
       </c>
       <c r="H353" s="51" t="s">
@@ -11690,14 +11690,14 @@
       <c r="C354" s="50"/>
       <c r="D354" s="50"/>
       <c r="E354" s="50" t="str">
-        <f>DEC2HEX(F354)</f>
+        <f t="shared" si="50"/>
         <v>F9</v>
       </c>
       <c r="F354" s="50">
         <v>249</v>
       </c>
       <c r="G354" s="50" t="str">
-        <f>CHAR(F354)</f>
+        <f t="shared" si="51"/>
         <v>ù</v>
       </c>
       <c r="H354" s="51" t="s">
@@ -11710,14 +11710,14 @@
       <c r="C355" s="51"/>
       <c r="D355" s="51"/>
       <c r="E355" s="50" t="str">
-        <f>DEC2HEX(F355)</f>
+        <f t="shared" si="50"/>
         <v>FA</v>
       </c>
       <c r="F355" s="50">
         <v>250</v>
       </c>
       <c r="G355" s="50" t="str">
-        <f>CHAR(F355)</f>
+        <f t="shared" si="51"/>
         <v>ú</v>
       </c>
       <c r="H355" s="51" t="s">
@@ -11730,14 +11730,14 @@
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="2" t="str">
-        <f>DEC2HEX(F356)</f>
+        <f t="shared" si="50"/>
         <v>FF</v>
       </c>
       <c r="F356" s="2">
         <v>255</v>
       </c>
       <c r="G356" s="2" t="str">
-        <f>CHAR(F356)</f>
+        <f t="shared" si="51"/>
         <v>ÿ</v>
       </c>
       <c r="H356" s="1" t="s">
